--- a/BackTest/2019-11-14 BackTest ABT.xlsx
+++ b/BackTest/2019-11-14 BackTest ABT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
       <c r="L12" t="n">
         <v>240.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>13</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-7.692307692307693</v>
+      </c>
       <c r="L13" t="n">
         <v>240.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>13</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>240.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>13</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>240.1</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>15</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L16" t="n">
         <v>240.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>16</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>23.07692307692308</v>
+      </c>
       <c r="L17" t="n">
         <v>240.4</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>19</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-45.45454545454545</v>
+      </c>
       <c r="L18" t="n">
         <v>240.4</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>23</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-60</v>
+      </c>
       <c r="L19" t="n">
         <v>239.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>24</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-60</v>
+      </c>
       <c r="L20" t="n">
         <v>238.7</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>24</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-57.14285714285714</v>
+      </c>
       <c r="L21" t="n">
         <v>237.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>25</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-50</v>
+      </c>
       <c r="L22" t="n">
         <v>236.9</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>26</v>
       </c>
       <c r="K23" t="n">
-        <v>-30.76923076923077</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L23" t="n">
         <v>236.2</v>
@@ -1466,7 +1488,7 @@
         <v>29</v>
       </c>
       <c r="K24" t="n">
-        <v>-17.24137931034483</v>
+        <v>-25</v>
       </c>
       <c r="L24" t="n">
         <v>235.8</v>
@@ -1515,7 +1537,7 @@
         <v>29</v>
       </c>
       <c r="K25" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L25" t="n">
         <v>235.4</v>
@@ -1564,7 +1586,7 @@
         <v>36</v>
       </c>
       <c r="K26" t="n">
-        <v>8.571428571428571</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
         <v>235.5</v>
@@ -1613,7 +1635,7 @@
         <v>37</v>
       </c>
       <c r="K27" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>235.8</v>
@@ -1662,7 +1684,7 @@
         <v>44</v>
       </c>
       <c r="K28" t="n">
-        <v>-2.439024390243902</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L28" t="n">
         <v>235.7</v>
@@ -1711,7 +1733,7 @@
         <v>48</v>
       </c>
       <c r="K29" t="n">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="L29" t="n">
         <v>236.4</v>
@@ -1760,7 +1782,7 @@
         <v>48</v>
       </c>
       <c r="K30" t="n">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="L30" t="n">
         <v>237</v>
@@ -1809,7 +1831,7 @@
         <v>49</v>
       </c>
       <c r="K31" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L31" t="n">
         <v>237.5</v>
@@ -1860,7 +1882,7 @@
         <v>53</v>
       </c>
       <c r="K32" t="n">
-        <v>-16.27906976744186</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L32" t="n">
         <v>237.7</v>
@@ -1911,7 +1933,7 @@
         <v>56</v>
       </c>
       <c r="K33" t="n">
-        <v>-2.325581395348837</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L33" t="n">
         <v>238.3</v>
@@ -1962,7 +1984,7 @@
         <v>56</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.325581395348837</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L34" t="n">
         <v>238.6</v>
@@ -2013,7 +2035,7 @@
         <v>56</v>
       </c>
       <c r="K35" t="n">
-        <v>-2.325581395348837</v>
+        <v>-20</v>
       </c>
       <c r="L35" t="n">
         <v>238.9</v>
@@ -2064,7 +2086,7 @@
         <v>61</v>
       </c>
       <c r="K36" t="n">
-        <v>-17.39130434782609</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L36" t="n">
         <v>238</v>
@@ -2115,7 +2137,7 @@
         <v>67</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.96078431372549</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L37" t="n">
         <v>237.6</v>
@@ -2166,7 +2188,7 @@
         <v>70</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.96078431372549</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L38" t="n">
         <v>237.6</v>
@@ -2217,7 +2239,7 @@
         <v>70</v>
       </c>
       <c r="K39" t="n">
-        <v>6.382978723404255</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L39" t="n">
         <v>237.2</v>
@@ -2268,7 +2290,7 @@
         <v>70</v>
       </c>
       <c r="K40" t="n">
-        <v>4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L40" t="n">
         <v>236.8</v>
@@ -2319,7 +2341,7 @@
         <v>71</v>
       </c>
       <c r="K41" t="n">
-        <v>6.382978723404255</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L41" t="n">
         <v>236.6</v>
@@ -2370,7 +2392,7 @@
         <v>75</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L42" t="n">
         <v>236.4</v>
@@ -2421,7 +2443,7 @@
         <v>76</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="L43" t="n">
         <v>235.8</v>
@@ -2472,7 +2494,7 @@
         <v>81</v>
       </c>
       <c r="K44" t="n">
-        <v>3.846153846153846</v>
+        <v>-4</v>
       </c>
       <c r="L44" t="n">
         <v>235.7</v>
@@ -2523,7 +2545,7 @@
         <v>82</v>
       </c>
       <c r="K45" t="n">
-        <v>5.660377358490567</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L45" t="n">
         <v>235.7</v>
@@ -2574,7 +2596,7 @@
         <v>82</v>
       </c>
       <c r="K46" t="n">
-        <v>-8.695652173913043</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L46" t="n">
         <v>236.2</v>
@@ -2625,7 +2647,7 @@
         <v>83</v>
       </c>
       <c r="K47" t="n">
-        <v>-13.04347826086956</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L47" t="n">
         <v>236</v>
@@ -2676,7 +2698,7 @@
         <v>83</v>
       </c>
       <c r="K48" t="n">
-        <v>2.564102564102564</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L48" t="n">
         <v>236.1</v>
@@ -2727,7 +2749,7 @@
         <v>88</v>
       </c>
       <c r="K49" t="n">
-        <v>-20</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L49" t="n">
         <v>235.7</v>
@@ -2778,7 +2800,7 @@
         <v>89</v>
       </c>
       <c r="K50" t="n">
-        <v>-21.95121951219512</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>235.2</v>
@@ -2829,7 +2851,7 @@
         <v>89</v>
       </c>
       <c r="K51" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L51" t="n">
         <v>234.6</v>
@@ -2880,7 +2902,7 @@
         <v>90</v>
       </c>
       <c r="K52" t="n">
-        <v>-13.51351351351351</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L52" t="n">
         <v>234.3</v>
@@ -2931,7 +2953,7 @@
         <v>92</v>
       </c>
       <c r="K53" t="n">
-        <v>-27.77777777777778</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L53" t="n">
         <v>233.9</v>
@@ -2982,7 +3004,7 @@
         <v>92</v>
       </c>
       <c r="K54" t="n">
-        <v>-27.77777777777778</v>
+        <v>-100</v>
       </c>
       <c r="L54" t="n">
         <v>233</v>
@@ -3033,7 +3055,7 @@
         <v>92</v>
       </c>
       <c r="K55" t="n">
-        <v>-27.77777777777778</v>
+        <v>-100</v>
       </c>
       <c r="L55" t="n">
         <v>232</v>
@@ -3084,7 +3106,7 @@
         <v>92</v>
       </c>
       <c r="K56" t="n">
-        <v>-16.12903225806452</v>
+        <v>-100</v>
       </c>
       <c r="L56" t="n">
         <v>231</v>
@@ -3135,7 +3157,7 @@
         <v>94</v>
       </c>
       <c r="K57" t="n">
-        <v>-33.33333333333333</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L57" t="n">
         <v>230.3</v>
@@ -3186,7 +3208,7 @@
         <v>95</v>
       </c>
       <c r="K58" t="n">
-        <v>-28</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L58" t="n">
         <v>229.5</v>
@@ -3237,7 +3259,7 @@
         <v>95</v>
       </c>
       <c r="K59" t="n">
-        <v>-28</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>229.2</v>
@@ -3288,7 +3310,7 @@
         <v>95</v>
       </c>
       <c r="K60" t="n">
-        <v>-28</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>229</v>
@@ -3339,7 +3361,7 @@
         <v>96</v>
       </c>
       <c r="K61" t="n">
-        <v>-36</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>228.7</v>
@@ -3390,7 +3412,7 @@
         <v>97</v>
       </c>
       <c r="K62" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L62" t="n">
         <v>228.4</v>
@@ -3441,7 +3463,7 @@
         <v>99</v>
       </c>
       <c r="K63" t="n">
-        <v>-30.43478260869566</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L63" t="n">
         <v>228.1</v>
@@ -3492,7 +3514,7 @@
         <v>99</v>
       </c>
       <c r="K64" t="n">
-        <v>-66.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L64" t="n">
         <v>227.8</v>
@@ -3543,7 +3565,7 @@
         <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>-66.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L65" t="n">
         <v>227.6</v>
@@ -3594,7 +3616,7 @@
         <v>103</v>
       </c>
       <c r="K66" t="n">
-        <v>-42.85714285714285</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L66" t="n">
         <v>227.7</v>
@@ -3645,7 +3667,7 @@
         <v>104</v>
       </c>
       <c r="K67" t="n">
-        <v>-33.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L67" t="n">
         <v>227.7</v>
@@ -3696,7 +3718,7 @@
         <v>106</v>
       </c>
       <c r="K68" t="n">
-        <v>-39.1304347826087</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L68" t="n">
         <v>227.6</v>
@@ -3747,7 +3769,7 @@
         <v>108</v>
       </c>
       <c r="K69" t="n">
-        <v>-10</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L69" t="n">
         <v>227.7</v>
@@ -3798,7 +3820,7 @@
         <v>108</v>
       </c>
       <c r="K70" t="n">
-        <v>-5.263157894736842</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L70" t="n">
         <v>227.8</v>
@@ -3849,7 +3871,7 @@
         <v>108</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.263157894736842</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L71" t="n">
         <v>228</v>
@@ -3900,7 +3922,7 @@
         <v>112</v>
       </c>
       <c r="K72" t="n">
-        <v>18.18181818181818</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L72" t="n">
         <v>228.7</v>
@@ -3951,7 +3973,7 @@
         <v>113</v>
       </c>
       <c r="K73" t="n">
-        <v>33.33333333333333</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L73" t="n">
         <v>229.7</v>
@@ -4002,7 +4024,7 @@
         <v>114</v>
       </c>
       <c r="K74" t="n">
-        <v>27.27272727272727</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L74" t="n">
         <v>230.6</v>
@@ -4053,7 +4075,7 @@
         <v>120</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L75" t="n">
         <v>230.8</v>
@@ -4104,7 +4126,7 @@
         <v>124</v>
       </c>
       <c r="K76" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
         <v>231.1</v>
@@ -4155,7 +4177,7 @@
         <v>125</v>
       </c>
       <c r="K77" t="n">
-        <v>3.225806451612903</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L77" t="n">
         <v>231.2</v>
@@ -4206,7 +4228,7 @@
         <v>126</v>
       </c>
       <c r="K78" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>231.4</v>
@@ -4257,7 +4279,7 @@
         <v>126</v>
       </c>
       <c r="K79" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>231.4</v>
@@ -4308,7 +4330,7 @@
         <v>130</v>
       </c>
       <c r="K80" t="n">
-        <v>14.28571428571428</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L80" t="n">
         <v>231.8</v>
@@ -4359,7 +4381,7 @@
         <v>134</v>
       </c>
       <c r="K81" t="n">
-        <v>5.263157894736842</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L81" t="n">
         <v>231.8</v>
@@ -4410,7 +4432,7 @@
         <v>134</v>
       </c>
       <c r="K82" t="n">
-        <v>8.108108108108109</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L82" t="n">
         <v>231.4</v>
@@ -4461,7 +4483,7 @@
         <v>135</v>
       </c>
       <c r="K83" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L83" t="n">
         <v>231</v>
@@ -4512,7 +4534,7 @@
         <v>135</v>
       </c>
       <c r="K84" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L84" t="n">
         <v>230.7</v>
@@ -4563,7 +4585,7 @@
         <v>136</v>
       </c>
       <c r="K85" t="n">
-        <v>11.11111111111111</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L85" t="n">
         <v>230.9</v>
@@ -4614,7 +4636,7 @@
         <v>138</v>
       </c>
       <c r="K86" t="n">
-        <v>8.571428571428571</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L86" t="n">
         <v>230.9</v>
@@ -4665,7 +4687,7 @@
         <v>153</v>
       </c>
       <c r="K87" t="n">
-        <v>-26.53061224489796</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L87" t="n">
         <v>229.5</v>
@@ -4716,7 +4738,7 @@
         <v>165</v>
       </c>
       <c r="K88" t="n">
-        <v>1.694915254237288</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L88" t="n">
         <v>229.4</v>
@@ -4767,7 +4789,7 @@
         <v>167</v>
       </c>
       <c r="K89" t="n">
-        <v>1.694915254237288</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L89" t="n">
         <v>229.5</v>
@@ -4818,7 +4840,7 @@
         <v>169</v>
       </c>
       <c r="K90" t="n">
-        <v>-1.639344262295082</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L90" t="n">
         <v>229</v>
@@ -4869,7 +4891,7 @@
         <v>169</v>
       </c>
       <c r="K91" t="n">
-        <v>-1.639344262295082</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L91" t="n">
         <v>228.9</v>
@@ -4920,7 +4942,7 @@
         <v>169</v>
       </c>
       <c r="K92" t="n">
-        <v>-8.771929824561402</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L92" t="n">
         <v>228.8</v>
@@ -4971,7 +4993,7 @@
         <v>169</v>
       </c>
       <c r="K93" t="n">
-        <v>-10.71428571428571</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L93" t="n">
         <v>228.6</v>
@@ -5022,7 +5044,7 @@
         <v>169</v>
       </c>
       <c r="K94" t="n">
-        <v>-9.090909090909092</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L94" t="n">
         <v>228.4</v>
@@ -5073,7 +5095,7 @@
         <v>169</v>
       </c>
       <c r="K95" t="n">
-        <v>2.040816326530612</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L95" t="n">
         <v>228.3</v>
@@ -5124,7 +5146,7 @@
         <v>169</v>
       </c>
       <c r="K96" t="n">
-        <v>-6.666666666666667</v>
+        <v>75</v>
       </c>
       <c r="L96" t="n">
         <v>228</v>
@@ -5175,7 +5197,7 @@
         <v>169</v>
       </c>
       <c r="K97" t="n">
-        <v>-4.545454545454546</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>229.2</v>
@@ -5226,7 +5248,7 @@
         <v>171</v>
       </c>
       <c r="K98" t="n">
-        <v>2.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>229.4</v>
@@ -5277,7 +5299,7 @@
         <v>172</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>229.3</v>
@@ -5328,7 +5350,7 @@
         <v>173</v>
       </c>
       <c r="K100" t="n">
-        <v>-6.976744186046512</v>
+        <v>50</v>
       </c>
       <c r="L100" t="n">
         <v>229.5</v>
@@ -5379,7 +5401,7 @@
         <v>174</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L101" t="n">
         <v>229.6</v>
@@ -5430,7 +5452,7 @@
         <v>176</v>
       </c>
       <c r="K102" t="n">
-        <v>4.761904761904762</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L102" t="n">
         <v>229.9</v>
@@ -5481,7 +5503,7 @@
         <v>179</v>
       </c>
       <c r="K103" t="n">
-        <v>-4.545454545454546</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>229.9</v>
@@ -5532,7 +5554,7 @@
         <v>180</v>
       </c>
       <c r="K104" t="n">
-        <v>-6.666666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L104" t="n">
         <v>229.8</v>
@@ -5583,7 +5605,7 @@
         <v>183</v>
       </c>
       <c r="K105" t="n">
-        <v>2.127659574468085</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L105" t="n">
         <v>230</v>
@@ -5634,7 +5656,7 @@
         <v>184</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L106" t="n">
         <v>230.3</v>
@@ -5685,7 +5707,7 @@
         <v>187</v>
       </c>
       <c r="K107" t="n">
-        <v>52.94117647058824</v>
+        <v>25</v>
       </c>
       <c r="L107" t="n">
         <v>230.9</v>
@@ -5736,7 +5758,7 @@
         <v>192</v>
       </c>
       <c r="K108" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>230.8</v>
@@ -5787,7 +5809,7 @@
         <v>192</v>
       </c>
       <c r="K109" t="n">
-        <v>-4</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L109" t="n">
         <v>230.8</v>
@@ -5838,7 +5860,7 @@
         <v>192</v>
       </c>
       <c r="K110" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>230.7</v>
@@ -5889,7 +5911,7 @@
         <v>192</v>
       </c>
       <c r="K111" t="n">
-        <v>4.347826086956522</v>
+        <v>-12.5</v>
       </c>
       <c r="L111" t="n">
         <v>230.7</v>
@@ -5991,7 +6013,7 @@
         <v>193</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L113" t="n">
         <v>230.4</v>
@@ -6093,7 +6115,7 @@
         <v>198</v>
       </c>
       <c r="K115" t="n">
-        <v>17.24137931034483</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L115" t="n">
         <v>231.2</v>
@@ -6144,7 +6166,7 @@
         <v>201</v>
       </c>
       <c r="K116" t="n">
-        <v>6.25</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L116" t="n">
         <v>231.1</v>
@@ -6195,7 +6217,7 @@
         <v>204</v>
       </c>
       <c r="K117" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>231</v>
@@ -6246,7 +6268,7 @@
         <v>204</v>
       </c>
       <c r="K118" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>231.4</v>
@@ -6297,7 +6319,7 @@
         <v>205</v>
       </c>
       <c r="K119" t="n">
-        <v>15.15151515151515</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L119" t="n">
         <v>231.9</v>
@@ -6348,7 +6370,7 @@
         <v>207</v>
       </c>
       <c r="K120" t="n">
-        <v>17.64705882352941</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L120" t="n">
         <v>232.6</v>
@@ -6399,7 +6421,7 @@
         <v>209</v>
       </c>
       <c r="K121" t="n">
-        <v>25.71428571428571</v>
+        <v>62.5</v>
       </c>
       <c r="L121" t="n">
         <v>233.5</v>
@@ -6450,7 +6472,7 @@
         <v>209</v>
       </c>
       <c r="K122" t="n">
-        <v>21.21212121212121</v>
+        <v>62.5</v>
       </c>
       <c r="L122" t="n">
         <v>234.5</v>
@@ -6501,7 +6523,7 @@
         <v>209</v>
       </c>
       <c r="K123" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L123" t="n">
         <v>235.5</v>
@@ -6552,7 +6574,7 @@
         <v>210</v>
       </c>
       <c r="K124" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L124" t="n">
         <v>236.2</v>
@@ -6603,7 +6625,7 @@
         <v>211</v>
       </c>
       <c r="K125" t="n">
-        <v>35.71428571428572</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
         <v>236.9</v>
@@ -6654,7 +6676,7 @@
         <v>217</v>
       </c>
       <c r="K126" t="n">
-        <v>9.090909090909092</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L126" t="n">
         <v>237.3</v>
@@ -6705,7 +6727,7 @@
         <v>219</v>
       </c>
       <c r="K127" t="n">
-        <v>-6.25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L127" t="n">
         <v>237.2</v>
@@ -6756,7 +6778,7 @@
         <v>220</v>
       </c>
       <c r="K128" t="n">
-        <v>7.142857142857142</v>
+        <v>-20</v>
       </c>
       <c r="L128" t="n">
         <v>237</v>
@@ -6807,7 +6829,7 @@
         <v>221</v>
       </c>
       <c r="K129" t="n">
-        <v>3.448275862068965</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L129" t="n">
         <v>236.6</v>
@@ -6858,7 +6880,7 @@
         <v>221</v>
       </c>
       <c r="K130" t="n">
-        <v>3.448275862068965</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L130" t="n">
         <v>236</v>
@@ -6909,7 +6931,7 @@
         <v>221</v>
       </c>
       <c r="K131" t="n">
-        <v>3.448275862068965</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L131" t="n">
         <v>235.2</v>
@@ -6960,7 +6982,7 @@
         <v>221</v>
       </c>
       <c r="K132" t="n">
-        <v>7.142857142857142</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L132" t="n">
         <v>234.4</v>
@@ -7011,7 +7033,7 @@
         <v>222</v>
       </c>
       <c r="K133" t="n">
-        <v>10.3448275862069</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L133" t="n">
         <v>233.7</v>
@@ -7062,7 +7084,7 @@
         <v>223</v>
       </c>
       <c r="K134" t="n">
-        <v>-7.692307692307693</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L134" t="n">
         <v>232.8</v>
@@ -7113,7 +7135,7 @@
         <v>223</v>
       </c>
       <c r="K135" t="n">
-        <v>-12</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L135" t="n">
         <v>231.8</v>
@@ -7164,7 +7186,7 @@
         <v>223</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L136" t="n">
         <v>231.4</v>
@@ -7215,7 +7237,7 @@
         <v>224</v>
       </c>
       <c r="K137" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L137" t="n">
         <v>231.1</v>
@@ -7266,7 +7288,7 @@
         <v>225</v>
       </c>
       <c r="K138" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>231</v>
@@ -7317,7 +7339,7 @@
         <v>225</v>
       </c>
       <c r="K139" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>231</v>
@@ -7368,7 +7390,7 @@
         <v>234</v>
       </c>
       <c r="K140" t="n">
-        <v>11.11111111111111</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L140" t="n">
         <v>231.9</v>
@@ -7419,7 +7441,7 @@
         <v>235</v>
       </c>
       <c r="K141" t="n">
-        <v>7.692307692307693</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L141" t="n">
         <v>232.9</v>
@@ -7470,7 +7492,7 @@
         <v>236</v>
       </c>
       <c r="K142" t="n">
-        <v>3.703703703703703</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L142" t="n">
         <v>233.8</v>
@@ -7521,7 +7543,7 @@
         <v>237</v>
       </c>
       <c r="K143" t="n">
-        <v>7.142857142857142</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L143" t="n">
         <v>234.7</v>
@@ -7572,7 +7594,7 @@
         <v>240</v>
       </c>
       <c r="K144" t="n">
-        <v>-6.666666666666667</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L144" t="n">
         <v>235.4</v>

--- a/BackTest/2019-11-14 BackTest ABT.xlsx
+++ b/BackTest/2019-11-14 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S144"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>240.1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10</v>
-      </c>
-      <c r="K12" t="n">
-        <v>20</v>
-      </c>
-      <c r="L12" t="n">
-        <v>240.3</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>13</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L13" t="n">
-        <v>240.2</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>240.1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>13</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>240.1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>15</v>
-      </c>
-      <c r="K16" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L16" t="n">
-        <v>240.3</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>16</v>
-      </c>
-      <c r="K17" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L17" t="n">
-        <v>240.4</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>19</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L18" t="n">
-        <v>240.4</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>23</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L19" t="n">
-        <v>239.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>24</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L20" t="n">
-        <v>238.7</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>24</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-57.14285714285714</v>
-      </c>
-      <c r="L21" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>238.95</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>25</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L22" t="n">
-        <v>236.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>238.6</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>26</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L23" t="n">
-        <v>236.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>238.2</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>29</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L24" t="n">
-        <v>235.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>237.95</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>29</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L25" t="n">
-        <v>235.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>237.75</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>36</v>
-      </c>
-      <c r="K26" t="n">
-        <v>10</v>
-      </c>
-      <c r="L26" t="n">
-        <v>235.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>237.9</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>37</v>
-      </c>
-      <c r="K27" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L27" t="n">
-        <v>235.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>238.1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>44</v>
-      </c>
-      <c r="K28" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L28" t="n">
-        <v>235.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>238.05</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1729,24 +1401,10 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>48</v>
-      </c>
-      <c r="K29" t="n">
-        <v>25</v>
-      </c>
-      <c r="L29" t="n">
-        <v>236.4</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>237.95</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,24 +1436,10 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>48</v>
-      </c>
-      <c r="K30" t="n">
-        <v>25</v>
-      </c>
-      <c r="L30" t="n">
-        <v>237</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>237.85</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>49</v>
-      </c>
-      <c r="K31" t="n">
-        <v>25</v>
-      </c>
-      <c r="L31" t="n">
-        <v>237.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>237.65</v>
-      </c>
-      <c r="N31" t="n">
-        <v>238.4666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>53</v>
-      </c>
-      <c r="K32" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L32" t="n">
-        <v>237.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="N32" t="n">
-        <v>238.3</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>56</v>
-      </c>
-      <c r="K33" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L33" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>237.25</v>
-      </c>
-      <c r="N33" t="n">
-        <v>238.2333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>56</v>
-      </c>
-      <c r="K34" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L34" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>238.1666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>56</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L35" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>237.15</v>
-      </c>
-      <c r="N35" t="n">
-        <v>238.1333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>61</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-41.66666666666667</v>
-      </c>
-      <c r="L36" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>236.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>237.9333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>67</v>
-      </c>
-      <c r="K37" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L37" t="n">
-        <v>237.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="N37" t="n">
-        <v>237.9333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>70</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L38" t="n">
-        <v>237.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>236.65</v>
-      </c>
-      <c r="N38" t="n">
-        <v>237.9</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>70</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L39" t="n">
-        <v>237.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="N39" t="n">
-        <v>237.7</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>70</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L40" t="n">
-        <v>236.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="N40" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>71</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L41" t="n">
-        <v>236.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>237.05</v>
-      </c>
-      <c r="N41" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>75</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L42" t="n">
-        <v>236.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>237.05</v>
-      </c>
-      <c r="N42" t="n">
-        <v>237</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>76</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-30</v>
-      </c>
-      <c r="L43" t="n">
-        <v>235.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>237.05</v>
-      </c>
-      <c r="N43" t="n">
-        <v>236.7666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>81</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L44" t="n">
-        <v>235.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>237.15</v>
-      </c>
-      <c r="N44" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>82</v>
-      </c>
-      <c r="K45" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L45" t="n">
-        <v>235.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="N45" t="n">
-        <v>236.6666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>82</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L46" t="n">
-        <v>236.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="N46" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>83</v>
-      </c>
-      <c r="K47" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L47" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="N47" t="n">
-        <v>236.4666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>83</v>
-      </c>
-      <c r="K48" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L48" t="n">
-        <v>236.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>236.85</v>
-      </c>
-      <c r="N48" t="n">
-        <v>236.4666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>88</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L49" t="n">
-        <v>235.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>236.45</v>
-      </c>
-      <c r="N49" t="n">
-        <v>236.4333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>89</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L50" t="n">
-        <v>235.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>236</v>
-      </c>
-      <c r="N50" t="n">
-        <v>236.3333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>89</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L51" t="n">
-        <v>234.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="N51" t="n">
-        <v>236.2333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>90</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L52" t="n">
-        <v>234.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>235.35</v>
-      </c>
-      <c r="N52" t="n">
-        <v>236.1333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J53" t="n">
-        <v>92</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L53" t="n">
-        <v>233.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>234.85</v>
-      </c>
-      <c r="N53" t="n">
-        <v>236</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>92</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L54" t="n">
-        <v>233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>234.35</v>
-      </c>
-      <c r="N54" t="n">
-        <v>235.7666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>92</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L55" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>233.85</v>
-      </c>
-      <c r="N55" t="n">
-        <v>235.5333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J56" t="n">
-        <v>92</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L56" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="N56" t="n">
-        <v>235.0666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J57" t="n">
-        <v>94</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="L57" t="n">
-        <v>230.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>233.15</v>
-      </c>
-      <c r="N57" t="n">
-        <v>234.6333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,31 +2411,19 @@
         <v>236.3833333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="K58" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L58" t="n">
-        <v>229.5</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="N58" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2453,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L59" t="n">
-        <v>229.2</v>
+        <v>229</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>232.45</v>
-      </c>
-      <c r="N59" t="n">
-        <v>234.0333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2494,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J60" t="n">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L60" t="n">
-        <v>229</v>
+        <v>229</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>232.1</v>
-      </c>
-      <c r="N60" t="n">
-        <v>233.6666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,31 +2532,19 @@
         <v>235.8833333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="K61" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L61" t="n">
-        <v>228.7</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>231.65</v>
-      </c>
-      <c r="N61" t="n">
-        <v>233.3</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,31 +2571,23 @@
         <v>235.6666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="K62" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L62" t="n">
-        <v>228.4</v>
+        <v>228</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>231.35</v>
-      </c>
-      <c r="N62" t="n">
-        <v>233.0333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,31 +2614,23 @@
         <v>235.4166666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="K63" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L63" t="n">
-        <v>228.1</v>
+        <v>228</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>231</v>
-      </c>
-      <c r="N63" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2660,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L64" t="n">
-        <v>227.8</v>
+        <v>228</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="N64" t="n">
-        <v>232.1666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +2698,23 @@
         <v>234.95</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="K65" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L65" t="n">
-        <v>227.6</v>
+        <v>228</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="N65" t="n">
-        <v>231.7666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +2741,23 @@
         <v>234.7833333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="K66" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L66" t="n">
-        <v>227.7</v>
+        <v>228</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>229.35</v>
-      </c>
-      <c r="N66" t="n">
-        <v>231.6333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +2784,23 @@
         <v>234.6333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="K67" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L67" t="n">
-        <v>227.7</v>
+        <v>228</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>229</v>
-      </c>
-      <c r="N67" t="n">
-        <v>231.3333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +2827,23 @@
         <v>234.4833333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L68" t="n">
-        <v>227.6</v>
+        <v>228</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>228.55</v>
-      </c>
-      <c r="N68" t="n">
-        <v>231.0666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +2870,23 @@
         <v>234.2833333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="K69" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L69" t="n">
-        <v>227.7</v>
+        <v>228</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>228.45</v>
-      </c>
-      <c r="N69" t="n">
-        <v>230.8666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,31 +2913,23 @@
         <v>234.0833333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="K70" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L70" t="n">
-        <v>227.8</v>
+        <v>228</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>228.4</v>
-      </c>
-      <c r="N70" t="n">
-        <v>230.6666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +2956,23 @@
         <v>233.8666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="K71" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L71" t="n">
-        <v>228</v>
+        <v>228</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>228.35</v>
-      </c>
-      <c r="N71" t="n">
-        <v>230.4333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +2999,23 @@
         <v>233.7333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="K72" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L72" t="n">
-        <v>228.7</v>
+        <v>228</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>228.55</v>
-      </c>
-      <c r="N72" t="n">
-        <v>230.4666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +3042,23 @@
         <v>233.6666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="K73" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L73" t="n">
-        <v>229.7</v>
+        <v>228</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>228.9</v>
-      </c>
-      <c r="N73" t="n">
-        <v>230.5666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3085,23 @@
         <v>233.5833333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="K74" t="n">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="L74" t="n">
-        <v>230.6</v>
+        <v>228</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="N74" t="n">
-        <v>230.4666666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3131,18 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J75" t="n">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L75" t="n">
-        <v>230.8</v>
+        <v>228</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="N75" t="n">
-        <v>230.1333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3172,18 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>10</v>
-      </c>
-      <c r="L76" t="n">
-        <v>231.1</v>
+        <v>228</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="N76" t="n">
-        <v>229.9333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3213,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J77" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L77" t="n">
-        <v>231.2</v>
+        <v>228</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>229.45</v>
-      </c>
-      <c r="N77" t="n">
-        <v>229.7333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3254,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J78" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>231.4</v>
+        <v>228</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="N78" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3295,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J79" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>231.4</v>
+        <v>228</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>229.55</v>
-      </c>
-      <c r="N79" t="n">
-        <v>229.4333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3336,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L80" t="n">
-        <v>231.8</v>
+        <v>228</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="N80" t="n">
-        <v>229.5333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3377,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L81" t="n">
-        <v>231.8</v>
+        <v>228</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="N81" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3418,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>134</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L82" t="n">
-        <v>231.4</v>
+        <v>228</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>230.05</v>
-      </c>
-      <c r="N82" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3459,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J83" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L83" t="n">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>230.35</v>
-      </c>
-      <c r="N83" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3500,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>20</v>
-      </c>
-      <c r="L84" t="n">
-        <v>230.7</v>
+        <v>228</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>230.65</v>
-      </c>
-      <c r="N84" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3541,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J85" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L85" t="n">
-        <v>230.9</v>
+        <v>228</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>230.85</v>
-      </c>
-      <c r="N85" t="n">
-        <v>229.7666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3582,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L86" t="n">
-        <v>230.9</v>
+        <v>228</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>231</v>
-      </c>
-      <c r="N86" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3623,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-23</v>
-      </c>
-      <c r="J87" t="n">
-        <v>153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>-48.14814814814815</v>
-      </c>
-      <c r="L87" t="n">
-        <v>229.5</v>
+        <v>228</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>230.35</v>
-      </c>
-      <c r="N87" t="n">
-        <v>229.4666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3664,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>-2.564102564102564</v>
-      </c>
-      <c r="L88" t="n">
-        <v>229.4</v>
+        <v>228</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="N88" t="n">
-        <v>229.4666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3705,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>-8.108108108108109</v>
-      </c>
-      <c r="L89" t="n">
-        <v>229.5</v>
+        <v>228</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>230.45</v>
-      </c>
-      <c r="N89" t="n">
-        <v>229.5333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3743,23 @@
         <v>231.6</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.857142857142857</v>
-      </c>
-      <c r="L90" t="n">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>230.4</v>
-      </c>
-      <c r="N90" t="n">
-        <v>229.5333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3786,23 @@
         <v>231.4333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="K91" t="n">
-        <v>-2.857142857142857</v>
-      </c>
-      <c r="L91" t="n">
-        <v>228.9</v>
+        <v>228</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>230.35</v>
-      </c>
-      <c r="N91" t="n">
-        <v>229.5666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,31 +3829,23 @@
         <v>231.3333333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="K92" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L92" t="n">
-        <v>228.8</v>
+        <v>228</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="N92" t="n">
-        <v>229.6333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3872,23 @@
         <v>231.1833333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="K93" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L93" t="n">
-        <v>228.6</v>
+        <v>228</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="N93" t="n">
-        <v>229.7666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3915,23 @@
         <v>231.0333333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="K94" t="n">
-        <v>-3.03030303030303</v>
-      </c>
-      <c r="L94" t="n">
-        <v>228.4</v>
+        <v>228</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>229.55</v>
-      </c>
-      <c r="N94" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +3958,23 @@
         <v>230.8833333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="K95" t="n">
-        <v>-9.67741935483871</v>
-      </c>
-      <c r="L95" t="n">
-        <v>228.3</v>
+        <v>228</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>229.6</v>
-      </c>
-      <c r="N95" t="n">
-        <v>230</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +4001,23 @@
         <v>230.8166666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="K96" t="n">
-        <v>75</v>
-      </c>
-      <c r="L96" t="n">
-        <v>228</v>
+        <v>228</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>229.45</v>
-      </c>
-      <c r="N96" t="n">
-        <v>230</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +4044,23 @@
         <v>230.65</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>229.2</v>
+        <v>228</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>229.35</v>
-      </c>
-      <c r="N97" t="n">
-        <v>229.9666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,31 +4087,23 @@
         <v>230.5666666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>229.4</v>
+        <v>228</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="N98" t="n">
-        <v>230.0666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +4130,23 @@
         <v>230.4666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="K99" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L99" t="n">
-        <v>229.3</v>
+        <v>228</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="N99" t="n">
-        <v>230.0666666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,31 +4173,23 @@
         <v>230.3833333333333</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="K100" t="n">
-        <v>50</v>
-      </c>
-      <c r="L100" t="n">
-        <v>229.5</v>
+        <v>228</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>229.25</v>
-      </c>
-      <c r="N100" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,31 +4216,23 @@
         <v>230.2666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="K101" t="n">
-        <v>20</v>
-      </c>
-      <c r="L101" t="n">
-        <v>229.6</v>
+        <v>228</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>229.25</v>
-      </c>
-      <c r="N101" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,31 +4259,23 @@
         <v>230.25</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="K102" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L102" t="n">
-        <v>229.9</v>
+        <v>228</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>229.35</v>
-      </c>
-      <c r="N102" t="n">
-        <v>230.0333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5494,31 +4302,23 @@
         <v>230.2</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>229.9</v>
+        <v>228</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>229.25</v>
-      </c>
-      <c r="N103" t="n">
-        <v>229.8333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4348,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J104" t="n">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L104" t="n">
-        <v>229.8</v>
+        <v>228</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>229.1</v>
-      </c>
-      <c r="N104" t="n">
-        <v>229.6333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,31 +4386,23 @@
         <v>229.9333333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="K105" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L105" t="n">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>229.15</v>
-      </c>
-      <c r="N105" t="n">
-        <v>229.7333333333333</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,31 +4429,23 @@
         <v>229.8333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="K106" t="n">
-        <v>20</v>
-      </c>
-      <c r="L106" t="n">
-        <v>230.3</v>
+        <v>228</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>229.15</v>
-      </c>
-      <c r="N106" t="n">
-        <v>229.7333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,31 +4472,23 @@
         <v>229.8</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="K107" t="n">
-        <v>25</v>
-      </c>
-      <c r="L107" t="n">
-        <v>230.9</v>
+        <v>228</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>230.05</v>
-      </c>
-      <c r="N107" t="n">
-        <v>229.8666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,31 +4515,23 @@
         <v>229.6833333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>230.8</v>
+        <v>228</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="N108" t="n">
-        <v>229.8666666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4561,18 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J109" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L109" t="n">
-        <v>230.8</v>
+        <v>228</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>230.05</v>
-      </c>
-      <c r="N109" t="n">
-        <v>229.8666666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4602,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J110" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>230.7</v>
+        <v>228</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="N110" t="n">
-        <v>229.7333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,31 +4640,23 @@
         <v>229.6166666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="K111" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L111" t="n">
-        <v>230.7</v>
+        <v>228</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>230.15</v>
-      </c>
-      <c r="N111" t="n">
-        <v>229.7333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,31 +4683,23 @@
         <v>229.6</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>230.4</v>
+        <v>228</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>230.15</v>
-      </c>
-      <c r="N112" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,31 +4726,23 @@
         <v>229.6166666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="K113" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L113" t="n">
-        <v>230.4</v>
+        <v>228</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>230.15</v>
-      </c>
-      <c r="N113" t="n">
-        <v>229.6333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,31 +4769,23 @@
         <v>229.7</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="K114" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L114" t="n">
-        <v>230.9</v>
+        <v>228</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>230.35</v>
-      </c>
-      <c r="N114" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,31 +4812,23 @@
         <v>229.8</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="K115" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L115" t="n">
-        <v>231.2</v>
+        <v>228</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="N115" t="n">
-        <v>229.8333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6157,31 +4855,23 @@
         <v>229.85</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="K116" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L116" t="n">
-        <v>231.1</v>
+        <v>228</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="N116" t="n">
-        <v>229.8</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4901,18 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J117" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L117" t="n">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>230.95</v>
-      </c>
-      <c r="N117" t="n">
-        <v>230.3666666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4942,18 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J118" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L118" t="n">
-        <v>231.4</v>
+        <v>228</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>231.1</v>
-      </c>
-      <c r="N118" t="n">
-        <v>230.5333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4983,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L119" t="n">
-        <v>231.9</v>
+        <v>228</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>231.35</v>
-      </c>
-      <c r="N119" t="n">
-        <v>230.6666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +5024,18 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J120" t="n">
-        <v>207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L120" t="n">
-        <v>232.6</v>
+        <v>228</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>231.65</v>
-      </c>
-      <c r="N120" t="n">
-        <v>230.9333333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +5065,18 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="L121" t="n">
-        <v>233.5</v>
+        <v>228</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>232.1</v>
-      </c>
-      <c r="N121" t="n">
-        <v>231.2666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +5106,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="L122" t="n">
-        <v>234.5</v>
+        <v>228</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>232.45</v>
-      </c>
-      <c r="N122" t="n">
-        <v>231.6</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,1100 +5147,19 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>209</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>50</v>
-      </c>
-      <c r="L123" t="n">
-        <v>235.5</v>
+        <v>228</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>232.95</v>
-      </c>
-      <c r="N123" t="n">
-        <v>231.9333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>239</v>
-      </c>
-      <c r="C124" t="n">
-        <v>240</v>
-      </c>
-      <c r="D124" t="n">
-        <v>240</v>
-      </c>
-      <c r="E124" t="n">
-        <v>239</v>
-      </c>
-      <c r="F124" t="n">
-        <v>3373</v>
-      </c>
-      <c r="G124" t="n">
-        <v>231.1</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>210</v>
-      </c>
-      <c r="K124" t="n">
-        <v>50</v>
-      </c>
-      <c r="L124" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="M124" t="n">
-        <v>233.55</v>
-      </c>
-      <c r="N124" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>240</v>
-      </c>
-      <c r="C125" t="n">
-        <v>241</v>
-      </c>
-      <c r="D125" t="n">
-        <v>241</v>
-      </c>
-      <c r="E125" t="n">
-        <v>240</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4288</v>
-      </c>
-      <c r="G125" t="n">
-        <v>231.35</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>211</v>
-      </c>
-      <c r="K125" t="n">
-        <v>100</v>
-      </c>
-      <c r="L125" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="M125" t="n">
-        <v>234.05</v>
-      </c>
-      <c r="N125" t="n">
-        <v>232.7</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>236</v>
-      </c>
-      <c r="C126" t="n">
-        <v>235</v>
-      </c>
-      <c r="D126" t="n">
-        <v>236</v>
-      </c>
-      <c r="E126" t="n">
-        <v>235</v>
-      </c>
-      <c r="F126" t="n">
-        <v>262.26</v>
-      </c>
-      <c r="G126" t="n">
-        <v>231.45</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J126" t="n">
-        <v>217</v>
-      </c>
-      <c r="K126" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L126" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="M126" t="n">
-        <v>234.2</v>
-      </c>
-      <c r="N126" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>235</v>
-      </c>
-      <c r="C127" t="n">
-        <v>233</v>
-      </c>
-      <c r="D127" t="n">
-        <v>235</v>
-      </c>
-      <c r="E127" t="n">
-        <v>233</v>
-      </c>
-      <c r="F127" t="n">
-        <v>300</v>
-      </c>
-      <c r="G127" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J127" t="n">
-        <v>219</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L127" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="M127" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="N127" t="n">
-        <v>233.0333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>232</v>
-      </c>
-      <c r="C128" t="n">
-        <v>232</v>
-      </c>
-      <c r="D128" t="n">
-        <v>232</v>
-      </c>
-      <c r="E128" t="n">
-        <v>232</v>
-      </c>
-      <c r="F128" t="n">
-        <v>262.2595</v>
-      </c>
-      <c r="G128" t="n">
-        <v>231.5666666666667</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J128" t="n">
-        <v>220</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L128" t="n">
-        <v>237</v>
-      </c>
-      <c r="M128" t="n">
-        <v>234.2</v>
-      </c>
-      <c r="N128" t="n">
-        <v>233.0666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>232</v>
-      </c>
-      <c r="C129" t="n">
-        <v>231</v>
-      </c>
-      <c r="D129" t="n">
-        <v>232</v>
-      </c>
-      <c r="E129" t="n">
-        <v>231</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1072.9016</v>
-      </c>
-      <c r="G129" t="n">
-        <v>231.5833333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J129" t="n">
-        <v>221</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L129" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="M129" t="n">
-        <v>234.25</v>
-      </c>
-      <c r="N129" t="n">
-        <v>233.1</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>231</v>
-      </c>
-      <c r="C130" t="n">
-        <v>231</v>
-      </c>
-      <c r="D130" t="n">
-        <v>232</v>
-      </c>
-      <c r="E130" t="n">
-        <v>231</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2471.073</v>
-      </c>
-      <c r="G130" t="n">
-        <v>231.6</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J130" t="n">
-        <v>221</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L130" t="n">
-        <v>236</v>
-      </c>
-      <c r="M130" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="N130" t="n">
-        <v>233.1</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>232</v>
-      </c>
-      <c r="C131" t="n">
-        <v>231</v>
-      </c>
-      <c r="D131" t="n">
-        <v>232</v>
-      </c>
-      <c r="E131" t="n">
-        <v>231</v>
-      </c>
-      <c r="F131" t="n">
-        <v>424.8389</v>
-      </c>
-      <c r="G131" t="n">
-        <v>231.6166666666667</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J131" t="n">
-        <v>221</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L131" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="M131" t="n">
-        <v>234.35</v>
-      </c>
-      <c r="N131" t="n">
-        <v>233.1333333333333</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>231</v>
-      </c>
-      <c r="C132" t="n">
-        <v>231</v>
-      </c>
-      <c r="D132" t="n">
-        <v>231</v>
-      </c>
-      <c r="E132" t="n">
-        <v>231</v>
-      </c>
-      <c r="F132" t="n">
-        <v>750</v>
-      </c>
-      <c r="G132" t="n">
-        <v>231.5666666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J132" t="n">
-        <v>221</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L132" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="M132" t="n">
-        <v>234.45</v>
-      </c>
-      <c r="N132" t="n">
-        <v>233.1</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>232</v>
-      </c>
-      <c r="C133" t="n">
-        <v>232</v>
-      </c>
-      <c r="D133" t="n">
-        <v>232</v>
-      </c>
-      <c r="E133" t="n">
-        <v>232</v>
-      </c>
-      <c r="F133" t="n">
-        <v>862.0689</v>
-      </c>
-      <c r="G133" t="n">
-        <v>231.5166666666667</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J133" t="n">
-        <v>222</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L133" t="n">
-        <v>233.7</v>
-      </c>
-      <c r="M133" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="N133" t="n">
-        <v>233.2</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>231</v>
-      </c>
-      <c r="C134" t="n">
-        <v>231</v>
-      </c>
-      <c r="D134" t="n">
-        <v>231</v>
-      </c>
-      <c r="E134" t="n">
-        <v>231</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1921.683</v>
-      </c>
-      <c r="G134" t="n">
-        <v>231.4666666666667</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J134" t="n">
-        <v>223</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L134" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="M134" t="n">
-        <v>234.5</v>
-      </c>
-      <c r="N134" t="n">
-        <v>233.3</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>231</v>
-      </c>
-      <c r="C135" t="n">
-        <v>231</v>
-      </c>
-      <c r="D135" t="n">
-        <v>231</v>
-      </c>
-      <c r="E135" t="n">
-        <v>231</v>
-      </c>
-      <c r="F135" t="n">
-        <v>500</v>
-      </c>
-      <c r="G135" t="n">
-        <v>231.5166666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J135" t="n">
-        <v>223</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L135" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="M135" t="n">
-        <v>234.35</v>
-      </c>
-      <c r="N135" t="n">
-        <v>233.3</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>231</v>
-      </c>
-      <c r="C136" t="n">
-        <v>231</v>
-      </c>
-      <c r="D136" t="n">
-        <v>231</v>
-      </c>
-      <c r="E136" t="n">
-        <v>231</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3064.38</v>
-      </c>
-      <c r="G136" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J136" t="n">
-        <v>223</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L136" t="n">
-        <v>231.4</v>
-      </c>
-      <c r="M136" t="n">
-        <v>234.35</v>
-      </c>
-      <c r="N136" t="n">
-        <v>233.2666666666667</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>231</v>
-      </c>
-      <c r="C137" t="n">
-        <v>230</v>
-      </c>
-      <c r="D137" t="n">
-        <v>231</v>
-      </c>
-      <c r="E137" t="n">
-        <v>230</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G137" t="n">
-        <v>231.4833333333333</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J137" t="n">
-        <v>224</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L137" t="n">
-        <v>231.1</v>
-      </c>
-      <c r="M137" t="n">
-        <v>234.15</v>
-      </c>
-      <c r="N137" t="n">
-        <v>233.1</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>231</v>
-      </c>
-      <c r="C138" t="n">
-        <v>231</v>
-      </c>
-      <c r="D138" t="n">
-        <v>231</v>
-      </c>
-      <c r="E138" t="n">
-        <v>231</v>
-      </c>
-      <c r="F138" t="n">
-        <v>10</v>
-      </c>
-      <c r="G138" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J138" t="n">
-        <v>225</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>231</v>
-      </c>
-      <c r="M138" t="n">
-        <v>234</v>
-      </c>
-      <c r="N138" t="n">
-        <v>233.1333333333333</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>231</v>
-      </c>
-      <c r="C139" t="n">
-        <v>231</v>
-      </c>
-      <c r="D139" t="n">
-        <v>231</v>
-      </c>
-      <c r="E139" t="n">
-        <v>231</v>
-      </c>
-      <c r="F139" t="n">
-        <v>980</v>
-      </c>
-      <c r="G139" t="n">
-        <v>231.5166666666667</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J139" t="n">
-        <v>225</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>231</v>
-      </c>
-      <c r="M139" t="n">
-        <v>233.8</v>
-      </c>
-      <c r="N139" t="n">
-        <v>233.1666666666667</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>240</v>
-      </c>
-      <c r="C140" t="n">
-        <v>240</v>
-      </c>
-      <c r="D140" t="n">
-        <v>240</v>
-      </c>
-      <c r="E140" t="n">
-        <v>240</v>
-      </c>
-      <c r="F140" t="n">
-        <v>10</v>
-      </c>
-      <c r="G140" t="n">
-        <v>231.6166666666667</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>234</v>
-      </c>
-      <c r="K140" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L140" t="n">
-        <v>231.9</v>
-      </c>
-      <c r="M140" t="n">
-        <v>233.95</v>
-      </c>
-      <c r="N140" t="n">
-        <v>233.5</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>240</v>
-      </c>
-      <c r="C141" t="n">
-        <v>241</v>
-      </c>
-      <c r="D141" t="n">
-        <v>241</v>
-      </c>
-      <c r="E141" t="n">
-        <v>240</v>
-      </c>
-      <c r="F141" t="n">
-        <v>250</v>
-      </c>
-      <c r="G141" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>235</v>
-      </c>
-      <c r="K141" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L141" t="n">
-        <v>232.9</v>
-      </c>
-      <c r="M141" t="n">
-        <v>234.05</v>
-      </c>
-      <c r="N141" t="n">
-        <v>233.8666666666667</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>240</v>
-      </c>
-      <c r="C142" t="n">
-        <v>240</v>
-      </c>
-      <c r="D142" t="n">
-        <v>240</v>
-      </c>
-      <c r="E142" t="n">
-        <v>240</v>
-      </c>
-      <c r="F142" t="n">
-        <v>216</v>
-      </c>
-      <c r="G142" t="n">
-        <v>231.9666666666667</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>236</v>
-      </c>
-      <c r="K142" t="n">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="L142" t="n">
-        <v>233.8</v>
-      </c>
-      <c r="M142" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="N142" t="n">
-        <v>234.2333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>240</v>
-      </c>
-      <c r="C143" t="n">
-        <v>241</v>
-      </c>
-      <c r="D143" t="n">
-        <v>241</v>
-      </c>
-      <c r="E143" t="n">
-        <v>240</v>
-      </c>
-      <c r="F143" t="n">
-        <v>18</v>
-      </c>
-      <c r="G143" t="n">
-        <v>232.1333333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="n">
-        <v>237</v>
-      </c>
-      <c r="K143" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L143" t="n">
-        <v>234.7</v>
-      </c>
-      <c r="M143" t="n">
-        <v>234.2</v>
-      </c>
-      <c r="N143" t="n">
-        <v>234.6333333333333</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>237</v>
-      </c>
-      <c r="C144" t="n">
-        <v>238</v>
-      </c>
-      <c r="D144" t="n">
-        <v>238</v>
-      </c>
-      <c r="E144" t="n">
-        <v>237</v>
-      </c>
-      <c r="F144" t="n">
-        <v>518</v>
-      </c>
-      <c r="G144" t="n">
-        <v>232.25</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J144" t="n">
-        <v>240</v>
-      </c>
-      <c r="K144" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L144" t="n">
-        <v>235.4</v>
-      </c>
-      <c r="M144" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="N144" t="n">
-        <v>234.8</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
+        <v>1.043245614035088</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2019-11-14 BackTest ABT.xlsx
+++ b/BackTest/2019-11-14 BackTest ABT.xlsx
@@ -2411,17 +2411,13 @@
         <v>236.3833333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>229</v>
-      </c>
-      <c r="K58" t="n">
-        <v>229</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2456,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>229</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2497,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>229</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2532,17 +2516,13 @@
         <v>235.8833333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>228</v>
-      </c>
-      <c r="K61" t="n">
-        <v>228</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2571,22 +2551,14 @@
         <v>235.6666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>227</v>
-      </c>
-      <c r="K62" t="n">
-        <v>228</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2614,22 +2586,14 @@
         <v>235.4166666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>226</v>
-      </c>
-      <c r="K63" t="n">
-        <v>228</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2663,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>228</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2698,22 +2656,14 @@
         <v>234.95</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>225</v>
-      </c>
-      <c r="K65" t="n">
-        <v>228</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2741,22 +2691,14 @@
         <v>234.7833333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>226</v>
-      </c>
-      <c r="K66" t="n">
-        <v>228</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2784,22 +2726,14 @@
         <v>234.6333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>230</v>
-      </c>
-      <c r="K67" t="n">
-        <v>228</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2833,16 +2767,12 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K68" t="n">
-        <v>228</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2876,14 +2806,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K69" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -2922,7 +2852,7 @@
         <v>230</v>
       </c>
       <c r="K70" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -2965,7 +2895,7 @@
         <v>230</v>
       </c>
       <c r="K71" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3008,7 +2938,7 @@
         <v>230</v>
       </c>
       <c r="K72" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3051,7 +2981,7 @@
         <v>234</v>
       </c>
       <c r="K73" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3091,10 +3021,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K74" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3128,14 +3058,16 @@
         <v>233.4</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>234</v>
+      </c>
       <c r="K75" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3176,7 +3108,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3210,14 +3142,16 @@
         <v>233.1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>232</v>
+      </c>
       <c r="K77" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3258,7 +3192,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3299,7 +3233,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3340,7 +3274,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3381,7 +3315,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3422,7 +3356,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3463,7 +3397,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3504,7 +3438,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3545,7 +3479,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3586,7 +3520,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3627,7 +3561,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3668,7 +3602,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3709,7 +3643,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3743,16 +3677,14 @@
         <v>231.6</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>230</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3786,16 +3718,14 @@
         <v>231.4333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>229</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3829,16 +3759,14 @@
         <v>231.3333333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>229</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3872,16 +3800,14 @@
         <v>231.1833333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>229</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3915,16 +3841,14 @@
         <v>231.0333333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>229</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3958,16 +3882,14 @@
         <v>230.8833333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>229</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4001,16 +3923,14 @@
         <v>230.8166666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>229</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4044,16 +3964,14 @@
         <v>230.65</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>229</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4087,16 +4005,14 @@
         <v>230.5666666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>229</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4130,16 +4046,14 @@
         <v>230.4666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>230</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4173,16 +4087,14 @@
         <v>230.3833333333333</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>230</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4216,16 +4128,14 @@
         <v>230.2666666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>230</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4259,16 +4169,14 @@
         <v>230.25</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>232</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4302,16 +4210,14 @@
         <v>230.2</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>229</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4352,7 +4258,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4386,16 +4292,14 @@
         <v>229.9333333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>229</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4429,16 +4333,14 @@
         <v>229.8333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>231</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4472,16 +4374,14 @@
         <v>229.8</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>232</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4515,16 +4415,14 @@
         <v>229.6833333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>230</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4565,7 +4463,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4606,7 +4504,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4640,16 +4538,14 @@
         <v>229.6166666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>230</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4683,16 +4579,14 @@
         <v>229.6</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>229</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4726,16 +4620,14 @@
         <v>229.6166666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>229</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4769,16 +4661,14 @@
         <v>229.7</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>230</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4812,16 +4702,14 @@
         <v>229.8</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>234</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4855,16 +4743,14 @@
         <v>229.85</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>231</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4905,7 +4791,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4946,7 +4832,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4987,7 +4873,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5028,7 +4914,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5069,7 +4955,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5110,7 +4996,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5151,7 +5037,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5159,7 +5045,7 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>1.043245614035088</v>
+        <v>1.034130434782609</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2019-11-14 BackTest ABT.xlsx
+++ b/BackTest/2019-11-14 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C2" t="n">
         <v>240</v>
@@ -442,13 +442,13 @@
         <v>240</v>
       </c>
       <c r="E2" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F2" t="n">
-        <v>8634.5933</v>
+        <v>511.6917</v>
       </c>
       <c r="G2" t="n">
-        <v>235.95</v>
+        <v>236.0166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>239</v>
       </c>
       <c r="F3" t="n">
-        <v>700.9893</v>
+        <v>8634.5933</v>
       </c>
       <c r="G3" t="n">
-        <v>235.8833333333333</v>
+        <v>235.95</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" t="n">
         <v>240</v>
@@ -512,13 +512,13 @@
         <v>240</v>
       </c>
       <c r="E4" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" t="n">
-        <v>1724.4688</v>
+        <v>700.9893</v>
       </c>
       <c r="G4" t="n">
-        <v>235.8666666666667</v>
+        <v>235.8833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>240</v>
       </c>
       <c r="C5" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D5" t="n">
         <v>240</v>
       </c>
       <c r="E5" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" t="n">
-        <v>895.8898</v>
+        <v>1724.4688</v>
       </c>
       <c r="G5" t="n">
-        <v>235.85</v>
+        <v>235.8666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C6" t="n">
         <v>239</v>
       </c>
       <c r="D6" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E6" t="n">
         <v>239</v>
       </c>
       <c r="F6" t="n">
-        <v>121.362</v>
+        <v>895.8898</v>
       </c>
       <c r="G6" t="n">
-        <v>235.8333333333333</v>
+        <v>235.85</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>239</v>
       </c>
       <c r="F7" t="n">
-        <v>3260.9811</v>
+        <v>121.362</v>
       </c>
       <c r="G7" t="n">
-        <v>235.8666666666667</v>
+        <v>235.8333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C8" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D8" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E8" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F8" t="n">
-        <v>480.1121</v>
+        <v>3260.9811</v>
       </c>
       <c r="G8" t="n">
         <v>235.8666666666667</v>
@@ -681,19 +681,19 @@
         <v>237</v>
       </c>
       <c r="C9" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D9" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E9" t="n">
         <v>237</v>
       </c>
       <c r="F9" t="n">
-        <v>500</v>
+        <v>480.1121</v>
       </c>
       <c r="G9" t="n">
-        <v>236</v>
+        <v>235.8666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C10" t="n">
         <v>242</v>
@@ -722,13 +722,13 @@
         <v>242</v>
       </c>
       <c r="E10" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F10" t="n">
-        <v>417.9433</v>
+        <v>500</v>
       </c>
       <c r="G10" t="n">
-        <v>236.0333333333333</v>
+        <v>236</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>242</v>
       </c>
       <c r="C11" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D11" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E11" t="n">
         <v>242</v>
       </c>
       <c r="F11" t="n">
-        <v>156.0875</v>
+        <v>417.9433</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1666666666667</v>
+        <v>236.0333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>242</v>
       </c>
       <c r="C12" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D12" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E12" t="n">
         <v>242</v>
       </c>
       <c r="F12" t="n">
-        <v>13.32</v>
+        <v>156.0875</v>
       </c>
       <c r="G12" t="n">
-        <v>236.2833333333333</v>
+        <v>236.1666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>242</v>
       </c>
       <c r="C13" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D13" t="n">
         <v>242</v>
       </c>
       <c r="E13" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F13" t="n">
         <v>13.32</v>
       </c>
       <c r="G13" t="n">
-        <v>236.3666666666667</v>
+        <v>236.2833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,19 +853,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C14" t="n">
         <v>239</v>
       </c>
       <c r="D14" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E14" t="n">
         <v>239</v>
       </c>
       <c r="F14" t="n">
-        <v>255.5242</v>
+        <v>13.32</v>
       </c>
       <c r="G14" t="n">
         <v>236.3666666666667</v>
@@ -900,10 +900,10 @@
         <v>239</v>
       </c>
       <c r="F15" t="n">
-        <v>89.6139</v>
+        <v>255.5242</v>
       </c>
       <c r="G15" t="n">
-        <v>236.4333333333333</v>
+        <v>236.3666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C16" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D16" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E16" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>89.6139</v>
       </c>
       <c r="G16" t="n">
-        <v>236.4666666666667</v>
+        <v>236.4333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C17" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D17" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E17" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F17" t="n">
-        <v>3159.1182</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>236.55</v>
+        <v>236.4666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C18" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D18" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E18" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F18" t="n">
-        <v>2691.093</v>
+        <v>3159.1182</v>
       </c>
       <c r="G18" t="n">
         <v>236.55</v>
@@ -1031,19 +1031,19 @@
         <v>233</v>
       </c>
       <c r="C19" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D19" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E19" t="n">
         <v>233</v>
       </c>
       <c r="F19" t="n">
-        <v>774.5759</v>
+        <v>2691.093</v>
       </c>
       <c r="G19" t="n">
-        <v>236.5666666666667</v>
+        <v>236.55</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E20" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F20" t="n">
-        <v>167.7455</v>
+        <v>774.5759</v>
       </c>
       <c r="G20" t="n">
-        <v>236.6333333333333</v>
+        <v>236.5666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>234</v>
       </c>
       <c r="F21" t="n">
-        <v>1400</v>
+        <v>167.7455</v>
       </c>
       <c r="G21" t="n">
-        <v>236.5166666666667</v>
+        <v>236.6333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D22" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E22" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F22" t="n">
-        <v>8653.4421</v>
+        <v>1400</v>
       </c>
       <c r="G22" t="n">
         <v>236.5166666666667</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D23" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E23" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F23" t="n">
-        <v>2500.3092</v>
+        <v>8653.4421</v>
       </c>
       <c r="G23" t="n">
-        <v>236.5333333333333</v>
+        <v>236.5166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C24" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D24" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E24" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>2500.3092</v>
       </c>
       <c r="G24" t="n">
-        <v>236.5166666666667</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C25" t="n">
         <v>235</v>
@@ -1247,13 +1247,13 @@
         <v>235</v>
       </c>
       <c r="E25" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F25" t="n">
-        <v>3250</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>236.5666666666667</v>
+        <v>236.5166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>234</v>
+      </c>
+      <c r="C26" t="n">
         <v>235</v>
       </c>
-      <c r="C26" t="n">
-        <v>242</v>
-      </c>
       <c r="D26" t="n">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E26" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F26" t="n">
-        <v>1579</v>
+        <v>3250</v>
       </c>
       <c r="G26" t="n">
-        <v>236.7333333333333</v>
+        <v>236.5666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>235</v>
       </c>
       <c r="C27" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E27" t="n">
         <v>235</v>
       </c>
       <c r="F27" t="n">
-        <v>2000</v>
+        <v>1579</v>
       </c>
       <c r="G27" t="n">
-        <v>236.9166666666667</v>
+        <v>236.7333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C28" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D28" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E28" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F28" t="n">
-        <v>62.03</v>
+        <v>2000</v>
       </c>
       <c r="G28" t="n">
-        <v>237</v>
+        <v>236.9166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C29" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D29" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E29" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F29" t="n">
-        <v>1000</v>
+        <v>62.03</v>
       </c>
       <c r="G29" t="n">
-        <v>236.9833333333333</v>
+        <v>237</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C30" t="n">
         <v>240</v>
@@ -1422,13 +1422,13 @@
         <v>240</v>
       </c>
       <c r="E30" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F30" t="n">
-        <v>342.74</v>
+        <v>1000</v>
       </c>
       <c r="G30" t="n">
-        <v>237.1</v>
+        <v>236.9833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C31" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D31" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E31" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>342.74</v>
       </c>
       <c r="G31" t="n">
-        <v>237.2</v>
+        <v>237.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C32" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D32" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E32" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F32" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>237.2333333333333</v>
+        <v>237.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C33" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D33" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E33" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F33" t="n">
-        <v>1012.9893</v>
+        <v>160</v>
       </c>
       <c r="G33" t="n">
-        <v>237.2666666666667</v>
+        <v>237.2333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>238</v>
       </c>
       <c r="F34" t="n">
-        <v>52</v>
+        <v>1012.9893</v>
       </c>
       <c r="G34" t="n">
-        <v>237.3</v>
+        <v>237.2666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>238</v>
       </c>
       <c r="F35" t="n">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="G35" t="n">
-        <v>237.3166666666667</v>
+        <v>237.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C36" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D36" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E36" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F36" t="n">
-        <v>5966.716</v>
+        <v>112</v>
       </c>
       <c r="G36" t="n">
-        <v>237.2333333333333</v>
+        <v>237.3166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C37" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D37" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E37" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F37" t="n">
-        <v>661</v>
+        <v>5966.716</v>
       </c>
       <c r="G37" t="n">
-        <v>237.25</v>
+        <v>237.2333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C38" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D38" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E38" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F38" t="n">
-        <v>2648.5574</v>
+        <v>661</v>
       </c>
       <c r="G38" t="n">
-        <v>237.3</v>
+        <v>237.25</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C39" t="n">
         <v>236</v>
       </c>
       <c r="D39" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E39" t="n">
         <v>236</v>
       </c>
       <c r="F39" t="n">
-        <v>250</v>
+        <v>2648.5574</v>
       </c>
       <c r="G39" t="n">
-        <v>237.25</v>
+        <v>237.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>236</v>
       </c>
       <c r="F40" t="n">
-        <v>570</v>
+        <v>250</v>
       </c>
       <c r="G40" t="n">
-        <v>237.1833333333333</v>
+        <v>237.25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>236</v>
       </c>
       <c r="C41" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D41" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E41" t="n">
         <v>236</v>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="G41" t="n">
-        <v>237.1166666666667</v>
+        <v>237.1833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C42" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D42" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E42" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F42" t="n">
-        <v>5592.4025</v>
+        <v>500</v>
       </c>
       <c r="G42" t="n">
-        <v>236.9666666666667</v>
+        <v>237.1166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>235</v>
+      </c>
+      <c r="C43" t="n">
         <v>233</v>
       </c>
-      <c r="C43" t="n">
-        <v>232</v>
-      </c>
       <c r="D43" t="n">
+        <v>235</v>
+      </c>
+      <c r="E43" t="n">
         <v>233</v>
       </c>
-      <c r="E43" t="n">
-        <v>232</v>
-      </c>
       <c r="F43" t="n">
-        <v>4035.2971</v>
+        <v>5592.4025</v>
       </c>
       <c r="G43" t="n">
-        <v>236.8833333333333</v>
+        <v>236.9666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C44" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D44" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E44" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F44" t="n">
-        <v>500</v>
+        <v>4035.2971</v>
       </c>
       <c r="G44" t="n">
-        <v>236.8333333333333</v>
+        <v>236.8833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>236</v>
+      </c>
+      <c r="C45" t="n">
         <v>237</v>
       </c>
-      <c r="C45" t="n">
-        <v>238</v>
-      </c>
       <c r="D45" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E45" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F45" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G45" t="n">
-        <v>236.8</v>
+        <v>236.8333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>237</v>
       </c>
       <c r="F46" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G46" t="n">
-        <v>236.8333333333333</v>
+        <v>236.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C47" t="n">
+        <v>238</v>
+      </c>
+      <c r="D47" t="n">
+        <v>238</v>
+      </c>
+      <c r="E47" t="n">
         <v>237</v>
       </c>
-      <c r="D47" t="n">
-        <v>237</v>
-      </c>
-      <c r="E47" t="n">
-        <v>232</v>
-      </c>
       <c r="F47" t="n">
-        <v>5047.8908</v>
+        <v>500</v>
       </c>
       <c r="G47" t="n">
-        <v>236.8833333333333</v>
+        <v>236.8333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C48" t="n">
         <v>237</v>
@@ -2052,13 +2052,13 @@
         <v>237</v>
       </c>
       <c r="E48" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F48" t="n">
-        <v>500</v>
+        <v>5047.8908</v>
       </c>
       <c r="G48" t="n">
-        <v>236.9333333333333</v>
+        <v>236.8833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C49" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D49" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E49" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F49" t="n">
-        <v>180.73</v>
+        <v>500</v>
       </c>
       <c r="G49" t="n">
-        <v>236.9166666666667</v>
+        <v>236.9333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>232</v>
       </c>
       <c r="C50" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D50" t="n">
         <v>232</v>
       </c>
       <c r="E50" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F50" t="n">
-        <v>2124.06</v>
+        <v>180.73</v>
       </c>
       <c r="G50" t="n">
-        <v>236.8666666666667</v>
+        <v>236.9166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C51" t="n">
         <v>231</v>
       </c>
       <c r="D51" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E51" t="n">
         <v>231</v>
       </c>
       <c r="F51" t="n">
-        <v>168.2354</v>
+        <v>2124.06</v>
       </c>
       <c r="G51" t="n">
-        <v>236.8166666666667</v>
+        <v>236.8666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>231</v>
       </c>
       <c r="C52" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D52" t="n">
         <v>231</v>
       </c>
       <c r="E52" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F52" t="n">
-        <v>8472.379199999999</v>
+        <v>168.2354</v>
       </c>
       <c r="G52" t="n">
-        <v>236.7666666666667</v>
+        <v>236.8166666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C53" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D53" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E53" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F53" t="n">
-        <v>11335.4655</v>
+        <v>8472.379199999999</v>
       </c>
       <c r="G53" t="n">
-        <v>236.6833333333333</v>
+        <v>236.7666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,32 +2253,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C54" t="n">
         <v>228</v>
       </c>
       <c r="D54" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E54" t="n">
         <v>228</v>
       </c>
       <c r="F54" t="n">
-        <v>1534.3443</v>
+        <v>11335.4655</v>
       </c>
       <c r="G54" t="n">
-        <v>236.6</v>
+        <v>236.6833333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>230</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2306,10 @@
         <v>228</v>
       </c>
       <c r="F55" t="n">
-        <v>1650</v>
+        <v>1534.3443</v>
       </c>
       <c r="G55" t="n">
-        <v>236.5333333333333</v>
+        <v>236.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2319,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2335,10 +2345,10 @@
         <v>228</v>
       </c>
       <c r="F56" t="n">
-        <v>2739.7902</v>
+        <v>1650</v>
       </c>
       <c r="G56" t="n">
-        <v>236.4666666666667</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2358,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2372,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C57" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D57" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E57" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F57" t="n">
-        <v>4.6345</v>
+        <v>2739.7902</v>
       </c>
       <c r="G57" t="n">
-        <v>236.4333333333333</v>
+        <v>236.4666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2397,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C58" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D58" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E58" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F58" t="n">
-        <v>58.1123</v>
+        <v>4.6345</v>
       </c>
       <c r="G58" t="n">
-        <v>236.3833333333333</v>
+        <v>236.4333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2436,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2462,10 @@
         <v>229</v>
       </c>
       <c r="F59" t="n">
-        <v>1268.59</v>
+        <v>58.1123</v>
       </c>
       <c r="G59" t="n">
-        <v>236.2666666666667</v>
+        <v>236.3833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2475,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,10 +2501,10 @@
         <v>229</v>
       </c>
       <c r="F60" t="n">
-        <v>1400</v>
+        <v>1268.59</v>
       </c>
       <c r="G60" t="n">
-        <v>236.0833333333333</v>
+        <v>236.2666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2514,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2528,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F61" t="n">
-        <v>6245.9101</v>
+        <v>1400</v>
       </c>
       <c r="G61" t="n">
-        <v>235.8833333333333</v>
+        <v>236.0833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2553,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2567,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C62" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D62" t="n">
         <v>228</v>
       </c>
       <c r="E62" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F62" t="n">
-        <v>30107.1861</v>
+        <v>6245.9101</v>
       </c>
       <c r="G62" t="n">
-        <v>235.6666666666667</v>
+        <v>235.8833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2592,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2606,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C63" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D63" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E63" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F63" t="n">
-        <v>8479.0718</v>
+        <v>30107.1861</v>
       </c>
       <c r="G63" t="n">
-        <v>235.4166666666667</v>
+        <v>235.6666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2631,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2645,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C64" t="n">
         <v>225</v>
       </c>
       <c r="D64" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E64" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F64" t="n">
-        <v>1831.6752</v>
+        <v>8479.0718</v>
       </c>
       <c r="G64" t="n">
-        <v>235.1666666666667</v>
+        <v>235.4166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2670,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2641,19 +2687,19 @@
         <v>225</v>
       </c>
       <c r="C65" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D65" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E65" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F65" t="n">
-        <v>8625.4354</v>
+        <v>1831.6752</v>
       </c>
       <c r="G65" t="n">
-        <v>234.95</v>
+        <v>235.1666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2709,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2723,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>225</v>
+      </c>
+      <c r="C66" t="n">
         <v>226</v>
       </c>
-      <c r="C66" t="n">
-        <v>229</v>
-      </c>
       <c r="D66" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E66" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F66" t="n">
-        <v>15789.666</v>
+        <v>8625.4354</v>
       </c>
       <c r="G66" t="n">
-        <v>234.7833333333333</v>
+        <v>234.95</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2748,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2762,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C67" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D67" t="n">
         <v>230</v>
       </c>
       <c r="E67" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F67" t="n">
-        <v>334.4779</v>
+        <v>15789.666</v>
       </c>
       <c r="G67" t="n">
-        <v>234.6333333333333</v>
+        <v>234.7833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2787,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,36 +2801,36 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F68" t="n">
-        <v>3408.1056</v>
+        <v>334.4779</v>
       </c>
       <c r="G68" t="n">
-        <v>234.4833333333333</v>
+        <v>234.6333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>230</v>
-      </c>
-      <c r="K68" t="n">
-        <v>230</v>
-      </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2782,38 +2840,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C69" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D69" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E69" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F69" t="n">
-        <v>503.4006</v>
+        <v>3408.1056</v>
       </c>
       <c r="G69" t="n">
-        <v>234.2833333333333</v>
+        <v>234.4833333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>228</v>
-      </c>
-      <c r="K69" t="n">
-        <v>230</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -2825,35 +2879,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C70" t="n">
         <v>230</v>
       </c>
       <c r="D70" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E70" t="n">
         <v>230</v>
       </c>
       <c r="F70" t="n">
-        <v>117.8512</v>
+        <v>503.4006</v>
       </c>
       <c r="G70" t="n">
-        <v>234.0833333333333</v>
+        <v>234.2833333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>230</v>
-      </c>
-      <c r="K70" t="n">
-        <v>230</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2880,23 +2930,19 @@
         <v>230</v>
       </c>
       <c r="F71" t="n">
-        <v>885.22</v>
+        <v>117.8512</v>
       </c>
       <c r="G71" t="n">
-        <v>233.8666666666667</v>
+        <v>234.0833333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>230</v>
-      </c>
-      <c r="K71" t="n">
-        <v>230</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2914,32 +2960,28 @@
         <v>230</v>
       </c>
       <c r="C72" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D72" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E72" t="n">
         <v>230</v>
       </c>
       <c r="F72" t="n">
-        <v>1250</v>
+        <v>885.22</v>
       </c>
       <c r="G72" t="n">
-        <v>233.7333333333333</v>
+        <v>233.8666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>230</v>
-      </c>
-      <c r="K72" t="n">
-        <v>230</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2954,35 +2996,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>230</v>
+      </c>
+      <c r="C73" t="n">
         <v>234</v>
       </c>
-      <c r="C73" t="n">
-        <v>235</v>
-      </c>
       <c r="D73" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E73" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F73" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="G73" t="n">
-        <v>233.6666666666667</v>
+        <v>233.7333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>234</v>
-      </c>
-      <c r="K73" t="n">
-        <v>230</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,32 +3038,28 @@
         <v>234</v>
       </c>
       <c r="C74" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D74" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E74" t="n">
         <v>234</v>
       </c>
       <c r="F74" t="n">
-        <v>31.7737</v>
+        <v>800</v>
       </c>
       <c r="G74" t="n">
-        <v>233.5833333333333</v>
+        <v>233.6666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>235</v>
-      </c>
-      <c r="K74" t="n">
-        <v>230</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,32 +3077,28 @@
         <v>234</v>
       </c>
       <c r="C75" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D75" t="n">
         <v>234</v>
       </c>
       <c r="E75" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F75" t="n">
         <v>31.7737</v>
       </c>
       <c r="G75" t="n">
-        <v>233.4</v>
+        <v>233.5833333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>234</v>
-      </c>
-      <c r="K75" t="n">
-        <v>230</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3083,22 +3113,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C76" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D76" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E76" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F76" t="n">
-        <v>1904.9355</v>
+        <v>31.7737</v>
       </c>
       <c r="G76" t="n">
-        <v>233.25</v>
+        <v>233.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3107,9 +3137,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>230</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3124,35 +3152,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C77" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E77" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F77" t="n">
-        <v>145.5369</v>
+        <v>1904.9355</v>
       </c>
       <c r="G77" t="n">
-        <v>233.1</v>
+        <v>233.25</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>232</v>
-      </c>
-      <c r="K77" t="n">
-        <v>230</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,22 +3191,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C78" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E78" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F78" t="n">
-        <v>3664.7525</v>
+        <v>145.5369</v>
       </c>
       <c r="G78" t="n">
-        <v>232.9833333333333</v>
+        <v>233.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3191,9 +3215,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>230</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3208,22 +3230,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C79" t="n">
         <v>230</v>
       </c>
       <c r="D79" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E79" t="n">
         <v>230</v>
       </c>
       <c r="F79" t="n">
-        <v>5545.805</v>
+        <v>3664.7525</v>
       </c>
       <c r="G79" t="n">
-        <v>232.9333333333333</v>
+        <v>232.9833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3232,9 +3254,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>230</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3249,19 +3269,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C80" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D80" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E80" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F80" t="n">
-        <v>3250</v>
+        <v>5545.805</v>
       </c>
       <c r="G80" t="n">
         <v>232.9333333333333</v>
@@ -3273,9 +3293,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>230</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,22 +3308,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C81" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D81" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E81" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F81" t="n">
-        <v>7814.7038</v>
+        <v>3250</v>
       </c>
       <c r="G81" t="n">
-        <v>232.8666666666667</v>
+        <v>232.9333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3314,9 +3332,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>230</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3331,22 +3347,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" t="n">
         <v>230</v>
       </c>
       <c r="D82" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E82" t="n">
         <v>230</v>
       </c>
       <c r="F82" t="n">
-        <v>330.7748</v>
+        <v>7814.7038</v>
       </c>
       <c r="G82" t="n">
-        <v>232.8166666666667</v>
+        <v>232.8666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3355,9 +3371,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>230</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3372,10 +3386,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C83" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" t="n">
         <v>231</v>
@@ -3384,10 +3398,10 @@
         <v>230</v>
       </c>
       <c r="F83" t="n">
-        <v>727.285</v>
+        <v>330.7748</v>
       </c>
       <c r="G83" t="n">
-        <v>232.8</v>
+        <v>232.8166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3396,9 +3410,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>230</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3425,10 +3437,10 @@
         <v>230</v>
       </c>
       <c r="F84" t="n">
-        <v>1342.4368</v>
+        <v>727.285</v>
       </c>
       <c r="G84" t="n">
-        <v>232.7333333333333</v>
+        <v>232.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3437,9 +3449,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>230</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3457,19 +3467,19 @@
         <v>230</v>
       </c>
       <c r="C85" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D85" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E85" t="n">
         <v>230</v>
       </c>
       <c r="F85" t="n">
-        <v>1020.0593</v>
+        <v>1342.4368</v>
       </c>
       <c r="G85" t="n">
-        <v>232.65</v>
+        <v>232.7333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3478,9 +3488,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>230</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3495,22 +3503,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C86" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D86" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E86" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F86" t="n">
-        <v>4.4508</v>
+        <v>1020.0593</v>
       </c>
       <c r="G86" t="n">
-        <v>232.4833333333333</v>
+        <v>232.65</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3519,9 +3527,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>230</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,22 +3542,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C87" t="n">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D87" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E87" t="n">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F87" t="n">
-        <v>36547.3698</v>
+        <v>4.4508</v>
       </c>
       <c r="G87" t="n">
-        <v>232.05</v>
+        <v>232.4833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3560,9 +3566,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>230</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3577,22 +3581,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C88" t="n">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D88" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E88" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F88" t="n">
-        <v>2120</v>
+        <v>36547.3698</v>
       </c>
       <c r="G88" t="n">
-        <v>231.9333333333333</v>
+        <v>232.05</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3601,9 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>230</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3618,22 +3620,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C89" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D89" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E89" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F89" t="n">
-        <v>8021.0461</v>
+        <v>2120</v>
       </c>
       <c r="G89" t="n">
-        <v>231.7833333333333</v>
+        <v>231.9333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3642,9 +3644,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>230</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,22 +3659,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C90" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D90" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E90" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F90" t="n">
-        <v>1256.336</v>
+        <v>8021.0461</v>
       </c>
       <c r="G90" t="n">
-        <v>231.6</v>
+        <v>231.7833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3683,9 +3683,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>230</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3700,22 +3698,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C91" t="n">
         <v>229</v>
       </c>
       <c r="D91" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E91" t="n">
         <v>229</v>
       </c>
       <c r="F91" t="n">
-        <v>28.9227</v>
+        <v>1256.336</v>
       </c>
       <c r="G91" t="n">
-        <v>231.4333333333333</v>
+        <v>231.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3724,9 +3722,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>230</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,10 +3749,10 @@
         <v>229</v>
       </c>
       <c r="F92" t="n">
-        <v>155.4724</v>
+        <v>28.9227</v>
       </c>
       <c r="G92" t="n">
-        <v>231.3333333333333</v>
+        <v>231.4333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3765,9 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>230</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3794,10 +3788,10 @@
         <v>229</v>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>155.4724</v>
       </c>
       <c r="G93" t="n">
-        <v>231.1833333333333</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3806,9 +3800,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>230</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3835,10 +3827,10 @@
         <v>229</v>
       </c>
       <c r="F94" t="n">
-        <v>603.3323</v>
+        <v>500</v>
       </c>
       <c r="G94" t="n">
-        <v>231.0333333333333</v>
+        <v>231.1833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3847,9 +3839,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>230</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3876,10 +3866,10 @@
         <v>229</v>
       </c>
       <c r="F95" t="n">
-        <v>741.1953</v>
+        <v>603.3323</v>
       </c>
       <c r="G95" t="n">
-        <v>230.8833333333333</v>
+        <v>231.0333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3888,9 +3878,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>230</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3917,10 +3905,10 @@
         <v>229</v>
       </c>
       <c r="F96" t="n">
-        <v>500</v>
+        <v>741.1953</v>
       </c>
       <c r="G96" t="n">
-        <v>230.8166666666667</v>
+        <v>230.8833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3929,9 +3917,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>230</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3958,10 +3944,10 @@
         <v>229</v>
       </c>
       <c r="F97" t="n">
-        <v>202.2803</v>
+        <v>500</v>
       </c>
       <c r="G97" t="n">
-        <v>230.65</v>
+        <v>230.8166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3970,9 +3956,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>230</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3990,19 +3974,19 @@
         <v>229</v>
       </c>
       <c r="C98" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D98" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E98" t="n">
         <v>229</v>
       </c>
       <c r="F98" t="n">
-        <v>1984.1746</v>
+        <v>202.2803</v>
       </c>
       <c r="G98" t="n">
-        <v>230.5666666666667</v>
+        <v>230.65</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4011,9 +3995,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>230</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4028,22 +4010,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C99" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D99" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E99" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>1984.1746</v>
       </c>
       <c r="G99" t="n">
-        <v>230.4666666666667</v>
+        <v>230.5666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4052,9 +4034,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>230</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4072,10 +4052,10 @@
         <v>230</v>
       </c>
       <c r="C100" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D100" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E100" t="n">
         <v>230</v>
@@ -4084,7 +4064,7 @@
         <v>250</v>
       </c>
       <c r="G100" t="n">
-        <v>230.3833333333333</v>
+        <v>230.4666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4093,9 +4073,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>230</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4113,19 +4091,19 @@
         <v>230</v>
       </c>
       <c r="C101" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D101" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E101" t="n">
         <v>230</v>
       </c>
       <c r="F101" t="n">
-        <v>1003.5965</v>
+        <v>250</v>
       </c>
       <c r="G101" t="n">
-        <v>230.2666666666667</v>
+        <v>230.3833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4134,9 +4112,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>230</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4151,22 +4127,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C102" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D102" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E102" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>1003.5965</v>
       </c>
       <c r="G102" t="n">
-        <v>230.25</v>
+        <v>230.2666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4175,9 +4151,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>230</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4192,22 +4166,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C103" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D103" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E103" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F103" t="n">
-        <v>184.9568</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>230.2</v>
+        <v>230.25</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4216,9 +4190,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>230</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,22 +4205,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C104" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D104" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E104" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F104" t="n">
-        <v>127.0922</v>
+        <v>184.9568</v>
       </c>
       <c r="G104" t="n">
-        <v>230.05</v>
+        <v>230.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4257,9 +4229,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>230</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4274,22 +4244,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C105" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D105" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E105" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F105" t="n">
-        <v>1825</v>
+        <v>127.0922</v>
       </c>
       <c r="G105" t="n">
-        <v>229.9333333333333</v>
+        <v>230.05</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4298,9 +4268,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>230</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4315,22 +4283,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>229</v>
+      </c>
+      <c r="C106" t="n">
         <v>231</v>
       </c>
-      <c r="C106" t="n">
-        <v>232</v>
-      </c>
       <c r="D106" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E106" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F106" t="n">
-        <v>2500</v>
+        <v>1825</v>
       </c>
       <c r="G106" t="n">
-        <v>229.8333333333333</v>
+        <v>229.9333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4339,9 +4307,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>230</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4356,22 +4322,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>231</v>
+      </c>
+      <c r="C107" t="n">
         <v>232</v>
       </c>
-      <c r="C107" t="n">
-        <v>235</v>
-      </c>
       <c r="D107" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E107" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F107" t="n">
-        <v>6951</v>
+        <v>2500</v>
       </c>
       <c r="G107" t="n">
-        <v>229.8</v>
+        <v>229.8333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4380,9 +4346,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>230</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4397,22 +4361,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C108" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D108" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E108" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F108" t="n">
-        <v>3831.5851</v>
+        <v>6951</v>
       </c>
       <c r="G108" t="n">
-        <v>229.6833333333333</v>
+        <v>229.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4421,9 +4385,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>230</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,10 +4412,10 @@
         <v>230</v>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>3831.5851</v>
       </c>
       <c r="G109" t="n">
-        <v>229.65</v>
+        <v>229.6833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4462,9 +4424,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>230</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,13 +4448,13 @@
         <v>230</v>
       </c>
       <c r="E110" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F110" t="n">
-        <v>5626.4452</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>229.6333333333333</v>
+        <v>229.65</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4503,9 +4463,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>230</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,13 +4487,13 @@
         <v>230</v>
       </c>
       <c r="E111" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F111" t="n">
-        <v>2.7818</v>
+        <v>5626.4452</v>
       </c>
       <c r="G111" t="n">
-        <v>229.6166666666667</v>
+        <v>229.6333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4544,9 +4502,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>230</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4561,22 +4517,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C112" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D112" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E112" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F112" t="n">
-        <v>888.503</v>
+        <v>2.7818</v>
       </c>
       <c r="G112" t="n">
-        <v>229.6</v>
+        <v>229.6166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4585,9 +4541,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>230</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4614,10 +4568,10 @@
         <v>229</v>
       </c>
       <c r="F113" t="n">
-        <v>2400</v>
+        <v>888.503</v>
       </c>
       <c r="G113" t="n">
-        <v>229.6166666666667</v>
+        <v>229.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4626,9 +4580,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>230</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4643,22 +4595,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C114" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D114" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E114" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F114" t="n">
-        <v>5534</v>
+        <v>2400</v>
       </c>
       <c r="G114" t="n">
-        <v>229.7</v>
+        <v>229.6166666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4667,9 +4619,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>230</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,22 +4634,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C115" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D115" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E115" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>5534</v>
       </c>
       <c r="G115" t="n">
-        <v>229.8</v>
+        <v>229.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4708,9 +4658,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>230</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4725,22 +4673,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C116" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D116" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E116" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F116" t="n">
-        <v>147.959</v>
+        <v>250</v>
       </c>
       <c r="G116" t="n">
-        <v>229.85</v>
+        <v>229.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4749,9 +4697,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>230</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4766,22 +4712,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C117" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D117" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E117" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F117" t="n">
-        <v>2657</v>
+        <v>147.959</v>
       </c>
       <c r="G117" t="n">
-        <v>229.9166666666667</v>
+        <v>229.85</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4790,9 +4736,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>230</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4807,7 +4751,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C118" t="n">
         <v>234</v>
@@ -4816,13 +4760,13 @@
         <v>234</v>
       </c>
       <c r="E118" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F118" t="n">
-        <v>1500</v>
+        <v>2657</v>
       </c>
       <c r="G118" t="n">
-        <v>230</v>
+        <v>229.9166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4831,9 +4775,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>230</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4851,19 +4793,19 @@
         <v>234</v>
       </c>
       <c r="C119" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D119" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E119" t="n">
         <v>234</v>
       </c>
       <c r="F119" t="n">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="G119" t="n">
-        <v>230.1</v>
+        <v>230</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4872,9 +4814,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>230</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4889,22 +4829,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>234</v>
+      </c>
+      <c r="C120" t="n">
         <v>235</v>
       </c>
-      <c r="C120" t="n">
-        <v>237</v>
-      </c>
       <c r="D120" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E120" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F120" t="n">
-        <v>10103</v>
+        <v>5500</v>
       </c>
       <c r="G120" t="n">
-        <v>230.2333333333333</v>
+        <v>230.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4913,9 +4853,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>230</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,22 +4868,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>235</v>
+      </c>
+      <c r="C121" t="n">
         <v>237</v>
       </c>
-      <c r="C121" t="n">
-        <v>239</v>
-      </c>
       <c r="D121" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E121" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="n">
-        <v>2540</v>
+        <v>10103</v>
       </c>
       <c r="G121" t="n">
-        <v>230.4166666666667</v>
+        <v>230.2333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4954,9 +4892,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>230</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4971,7 +4907,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C122" t="n">
         <v>239</v>
@@ -4980,13 +4916,13 @@
         <v>239</v>
       </c>
       <c r="E122" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>2540</v>
       </c>
       <c r="G122" t="n">
-        <v>230.6166666666667</v>
+        <v>230.4166666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4995,9 +4931,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>230</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5027,26 +4961,61 @@
         <v>250</v>
       </c>
       <c r="G123" t="n">
+        <v>230.6166666666667</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>239</v>
+      </c>
+      <c r="C124" t="n">
+        <v>239</v>
+      </c>
+      <c r="D124" t="n">
+        <v>239</v>
+      </c>
+      <c r="E124" t="n">
+        <v>239</v>
+      </c>
+      <c r="F124" t="n">
+        <v>250</v>
+      </c>
+      <c r="G124" t="n">
         <v>230.85</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>230</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1.034130434782609</v>
-      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-14 BackTest ABT.xlsx
+++ b/BackTest/2019-11-14 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C2" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D2" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E2" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F2" t="n">
-        <v>511.6917</v>
+        <v>2867.5</v>
       </c>
       <c r="G2" t="n">
-        <v>234.1333333333333</v>
+        <v>-18484.41710000001</v>
       </c>
       <c r="H2" t="n">
-        <v>236.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C3" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D3" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E3" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F3" t="n">
-        <v>8634.5933</v>
+        <v>630.76</v>
       </c>
       <c r="G3" t="n">
-        <v>234.5333333333333</v>
+        <v>-17853.65710000001</v>
       </c>
       <c r="H3" t="n">
-        <v>235.95</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C4" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D4" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E4" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F4" t="n">
-        <v>700.9893</v>
+        <v>3675.1005</v>
       </c>
       <c r="G4" t="n">
-        <v>234.9333333333333</v>
+        <v>-17853.65710000001</v>
       </c>
       <c r="H4" t="n">
-        <v>235.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C5" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D5" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E5" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F5" t="n">
-        <v>1724.4688</v>
+        <v>31.7458</v>
       </c>
       <c r="G5" t="n">
-        <v>235.4</v>
+        <v>-17821.91130000001</v>
       </c>
       <c r="H5" t="n">
-        <v>235.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C6" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E6" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F6" t="n">
-        <v>895.8898</v>
+        <v>2786.2311</v>
       </c>
       <c r="G6" t="n">
-        <v>235.7333333333333</v>
+        <v>-15035.68020000001</v>
       </c>
       <c r="H6" t="n">
-        <v>235.85</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D7" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" t="n">
-        <v>121.362</v>
+        <v>247.5095</v>
       </c>
       <c r="G7" t="n">
-        <v>236.0666666666667</v>
+        <v>-15035.68020000001</v>
       </c>
       <c r="H7" t="n">
-        <v>235.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D8" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F8" t="n">
-        <v>3260.9811</v>
+        <v>6041.4628</v>
       </c>
       <c r="G8" t="n">
-        <v>236.4666666666667</v>
+        <v>-21077.14300000001</v>
       </c>
       <c r="H8" t="n">
-        <v>235.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C9" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D9" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E9" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F9" t="n">
-        <v>480.1121</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>236.7333333333333</v>
+        <v>-21075.04300000001</v>
       </c>
       <c r="H9" t="n">
-        <v>235.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D10" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E10" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>606.5183</v>
       </c>
       <c r="G10" t="n">
-        <v>237.3333333333333</v>
+        <v>-20468.52470000001</v>
       </c>
       <c r="H10" t="n">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C11" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F11" t="n">
-        <v>417.9433</v>
+        <v>900.9275</v>
       </c>
       <c r="G11" t="n">
-        <v>238</v>
+        <v>-19567.59720000001</v>
       </c>
       <c r="H11" t="n">
-        <v>236.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>241</v>
+      </c>
+      <c r="C12" t="n">
         <v>242</v>
       </c>
-      <c r="C12" t="n">
-        <v>243</v>
-      </c>
       <c r="D12" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E12" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F12" t="n">
-        <v>156.0875</v>
+        <v>7220.163</v>
       </c>
       <c r="G12" t="n">
-        <v>238.7333333333333</v>
+        <v>-12347.43420000001</v>
       </c>
       <c r="H12" t="n">
-        <v>236.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -859,33 +821,30 @@
         <v>242</v>
       </c>
       <c r="C13" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D13" t="n">
         <v>242</v>
       </c>
       <c r="E13" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F13" t="n">
-        <v>13.32</v>
+        <v>3580.2944</v>
       </c>
       <c r="G13" t="n">
-        <v>239.4</v>
+        <v>-15927.72860000001</v>
       </c>
       <c r="H13" t="n">
-        <v>236.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C14" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E14" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F14" t="n">
-        <v>13.32</v>
+        <v>138</v>
       </c>
       <c r="G14" t="n">
-        <v>239.8666666666667</v>
+        <v>-15789.72860000001</v>
       </c>
       <c r="H14" t="n">
-        <v>236.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C15" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D15" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E15" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F15" t="n">
-        <v>255.5242</v>
+        <v>0.2399</v>
       </c>
       <c r="G15" t="n">
-        <v>240.0666666666667</v>
+        <v>-15789.72860000001</v>
       </c>
       <c r="H15" t="n">
-        <v>236.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C16" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D16" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E16" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F16" t="n">
-        <v>89.6139</v>
+        <v>1313.8347</v>
       </c>
       <c r="G16" t="n">
-        <v>240</v>
+        <v>-17103.56330000001</v>
       </c>
       <c r="H16" t="n">
-        <v>236.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C17" t="n">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D17" t="n">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E17" t="n">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>1513</v>
       </c>
       <c r="G17" t="n">
-        <v>240.0666666666667</v>
+        <v>-18616.56330000001</v>
       </c>
       <c r="H17" t="n">
-        <v>236.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C18" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D18" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E18" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" t="n">
-        <v>3159.1182</v>
+        <v>1713</v>
       </c>
       <c r="G18" t="n">
-        <v>240.0666666666667</v>
+        <v>-18616.56330000001</v>
       </c>
       <c r="H18" t="n">
-        <v>236.55</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1087,33 +1031,30 @@
         <v>233</v>
       </c>
       <c r="C19" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D19" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E19" t="n">
         <v>233</v>
       </c>
       <c r="F19" t="n">
-        <v>2691.093</v>
+        <v>1409.2726</v>
       </c>
       <c r="G19" t="n">
-        <v>239.8666666666667</v>
+        <v>-20025.83590000001</v>
       </c>
       <c r="H19" t="n">
-        <v>236.55</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D20" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E20" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F20" t="n">
-        <v>774.5759</v>
+        <v>2165</v>
       </c>
       <c r="G20" t="n">
-        <v>239.4</v>
+        <v>-17860.83590000001</v>
       </c>
       <c r="H20" t="n">
-        <v>236.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1172,24 +1110,21 @@
         <v>234</v>
       </c>
       <c r="F21" t="n">
-        <v>167.7455</v>
+        <v>5.3591</v>
       </c>
       <c r="G21" t="n">
-        <v>239.0666666666667</v>
+        <v>-17860.83590000001</v>
       </c>
       <c r="H21" t="n">
-        <v>236.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F22" t="n">
-        <v>1400</v>
+        <v>55</v>
       </c>
       <c r="G22" t="n">
-        <v>238.7333333333333</v>
+        <v>-17915.83590000001</v>
       </c>
       <c r="H22" t="n">
-        <v>236.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1248,24 +1180,21 @@
         <v>233</v>
       </c>
       <c r="F23" t="n">
-        <v>8653.4421</v>
+        <v>2800</v>
       </c>
       <c r="G23" t="n">
-        <v>238.3333333333333</v>
+        <v>-17915.83590000001</v>
       </c>
       <c r="H23" t="n">
-        <v>236.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D24" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E24" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F24" t="n">
-        <v>2500.3092</v>
+        <v>338.216</v>
       </c>
       <c r="G24" t="n">
-        <v>238</v>
+        <v>-17915.83590000001</v>
       </c>
       <c r="H24" t="n">
-        <v>236.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C25" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D25" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E25" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>1593.6188</v>
       </c>
       <c r="G25" t="n">
-        <v>237.5333333333333</v>
+        <v>-19509.45470000001</v>
       </c>
       <c r="H25" t="n">
-        <v>236.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D26" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E26" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F26" t="n">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="G26" t="n">
-        <v>237.0666666666667</v>
+        <v>-19509.45470000001</v>
       </c>
       <c r="H26" t="n">
-        <v>236.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C27" t="n">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D27" t="n">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E27" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F27" t="n">
-        <v>1579</v>
+        <v>5774.9304</v>
       </c>
       <c r="G27" t="n">
-        <v>237</v>
+        <v>-19509.45470000001</v>
       </c>
       <c r="H27" t="n">
-        <v>236.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C28" t="n">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D28" t="n">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E28" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F28" t="n">
-        <v>2000</v>
+        <v>8.986499999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>237.0666666666667</v>
+        <v>-19509.45470000001</v>
       </c>
       <c r="H28" t="n">
-        <v>236.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1470,30 +1384,27 @@
         <v>236</v>
       </c>
       <c r="D29" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E29" t="n">
         <v>236</v>
       </c>
       <c r="F29" t="n">
-        <v>62.03</v>
+        <v>719.1769</v>
       </c>
       <c r="G29" t="n">
-        <v>236.8666666666667</v>
+        <v>-18790.27780000001</v>
       </c>
       <c r="H29" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C30" t="n">
         <v>240</v>
@@ -1511,27 +1422,24 @@
         <v>240</v>
       </c>
       <c r="E30" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F30" t="n">
-        <v>1000</v>
+        <v>948.1413</v>
       </c>
       <c r="G30" t="n">
-        <v>236.9333333333333</v>
+        <v>-17842.13650000002</v>
       </c>
       <c r="H30" t="n">
-        <v>236.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C31" t="n">
         <v>240</v>
@@ -1549,27 +1457,24 @@
         <v>240</v>
       </c>
       <c r="E31" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F31" t="n">
-        <v>342.74</v>
+        <v>511.6917</v>
       </c>
       <c r="G31" t="n">
-        <v>237</v>
+        <v>-17842.13650000002</v>
       </c>
       <c r="H31" t="n">
-        <v>237.1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1581,33 +1486,30 @@
         <v>239</v>
       </c>
       <c r="C32" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D32" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E32" t="n">
         <v>239</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>8634.5933</v>
       </c>
       <c r="G32" t="n">
-        <v>236.8666666666667</v>
+        <v>-17842.13650000002</v>
       </c>
       <c r="H32" t="n">
-        <v>237.2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C33" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D33" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E33" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F33" t="n">
-        <v>160</v>
+        <v>700.9893</v>
       </c>
       <c r="G33" t="n">
-        <v>236.5333333333333</v>
+        <v>-17842.13650000002</v>
       </c>
       <c r="H33" t="n">
-        <v>237.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C34" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D34" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E34" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F34" t="n">
-        <v>1012.9893</v>
+        <v>1724.4688</v>
       </c>
       <c r="G34" t="n">
-        <v>236.6</v>
+        <v>-17842.13650000002</v>
       </c>
       <c r="H34" t="n">
-        <v>237.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C35" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D35" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E35" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F35" t="n">
-        <v>52</v>
+        <v>895.8898</v>
       </c>
       <c r="G35" t="n">
-        <v>236.9333333333333</v>
+        <v>-18738.02630000002</v>
       </c>
       <c r="H35" t="n">
-        <v>237.3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C36" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D36" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E36" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F36" t="n">
-        <v>112</v>
+        <v>121.362</v>
       </c>
       <c r="G36" t="n">
-        <v>237.2</v>
+        <v>-18738.02630000002</v>
       </c>
       <c r="H36" t="n">
-        <v>237.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C37" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D37" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E37" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F37" t="n">
-        <v>5966.716</v>
+        <v>3260.9811</v>
       </c>
       <c r="G37" t="n">
-        <v>237.1333333333333</v>
+        <v>-18738.02630000002</v>
       </c>
       <c r="H37" t="n">
-        <v>237.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C38" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D38" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E38" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F38" t="n">
-        <v>661</v>
+        <v>480.1121</v>
       </c>
       <c r="G38" t="n">
-        <v>237.5333333333333</v>
+        <v>-19218.13840000001</v>
       </c>
       <c r="H38" t="n">
-        <v>237.25</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1847,33 +1731,30 @@
         <v>237</v>
       </c>
       <c r="C39" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D39" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E39" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F39" t="n">
-        <v>2648.5574</v>
+        <v>500</v>
       </c>
       <c r="G39" t="n">
-        <v>237.8</v>
+        <v>-18718.13840000001</v>
       </c>
       <c r="H39" t="n">
-        <v>237.3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C40" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D40" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E40" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F40" t="n">
-        <v>250</v>
+        <v>417.9433</v>
       </c>
       <c r="G40" t="n">
-        <v>237.8666666666667</v>
+        <v>-18718.13840000001</v>
       </c>
       <c r="H40" t="n">
-        <v>237.25</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C41" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D41" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E41" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F41" t="n">
-        <v>570</v>
+        <v>156.0875</v>
       </c>
       <c r="G41" t="n">
-        <v>237.9333333333333</v>
+        <v>-18562.05090000001</v>
       </c>
       <c r="H41" t="n">
-        <v>237.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C42" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D42" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E42" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F42" t="n">
-        <v>500</v>
+        <v>13.32</v>
       </c>
       <c r="G42" t="n">
-        <v>237.6</v>
+        <v>-18575.37090000001</v>
       </c>
       <c r="H42" t="n">
-        <v>237.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C43" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D43" t="n">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E43" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F43" t="n">
-        <v>5592.4025</v>
+        <v>13.32</v>
       </c>
       <c r="G43" t="n">
-        <v>236.9333333333333</v>
+        <v>-18588.69090000001</v>
       </c>
       <c r="H43" t="n">
-        <v>236.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C44" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D44" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E44" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F44" t="n">
-        <v>4035.2971</v>
+        <v>255.5242</v>
       </c>
       <c r="G44" t="n">
-        <v>236.6666666666667</v>
+        <v>-18588.69090000001</v>
       </c>
       <c r="H44" t="n">
-        <v>236.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C45" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D45" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E45" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F45" t="n">
-        <v>500</v>
+        <v>89.6139</v>
       </c>
       <c r="G45" t="n">
-        <v>236.4666666666667</v>
+        <v>-18588.69090000001</v>
       </c>
       <c r="H45" t="n">
-        <v>236.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C46" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D46" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E46" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F46" t="n">
-        <v>750</v>
+        <v>2.2</v>
       </c>
       <c r="G46" t="n">
-        <v>236.3333333333333</v>
+        <v>-18586.49090000001</v>
       </c>
       <c r="H46" t="n">
-        <v>236.8</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2151,33 +2011,30 @@
         <v>237</v>
       </c>
       <c r="C47" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D47" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E47" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F47" t="n">
-        <v>500</v>
+        <v>3159.1182</v>
       </c>
       <c r="G47" t="n">
-        <v>236.2666666666667</v>
+        <v>-21745.60910000001</v>
       </c>
       <c r="H47" t="n">
-        <v>236.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C48" t="n">
         <v>237</v>
@@ -2195,27 +2052,24 @@
         <v>237</v>
       </c>
       <c r="E48" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F48" t="n">
-        <v>5047.8908</v>
+        <v>2691.093</v>
       </c>
       <c r="G48" t="n">
-        <v>236.4</v>
+        <v>-24436.70210000001</v>
       </c>
       <c r="H48" t="n">
-        <v>236.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C49" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D49" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E49" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F49" t="n">
-        <v>500</v>
+        <v>774.5759</v>
       </c>
       <c r="G49" t="n">
-        <v>236.3333333333333</v>
+        <v>-25211.27800000001</v>
       </c>
       <c r="H49" t="n">
-        <v>236.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C50" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D50" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E50" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F50" t="n">
-        <v>180.73</v>
+        <v>167.7455</v>
       </c>
       <c r="G50" t="n">
-        <v>235.9333333333333</v>
+        <v>-25043.53250000001</v>
       </c>
       <c r="H50" t="n">
-        <v>236.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C51" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D51" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E51" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F51" t="n">
-        <v>2124.06</v>
+        <v>1400</v>
       </c>
       <c r="G51" t="n">
-        <v>235.4666666666667</v>
+        <v>-25043.53250000001</v>
       </c>
       <c r="H51" t="n">
-        <v>236.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C52" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D52" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E52" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F52" t="n">
-        <v>168.2354</v>
+        <v>8653.4421</v>
       </c>
       <c r="G52" t="n">
-        <v>235.3333333333333</v>
+        <v>-33696.97460000002</v>
       </c>
       <c r="H52" t="n">
-        <v>236.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C53" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D53" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E53" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F53" t="n">
-        <v>8472.379199999999</v>
+        <v>2500.3092</v>
       </c>
       <c r="G53" t="n">
-        <v>234.7333333333333</v>
+        <v>-36197.28380000002</v>
       </c>
       <c r="H53" t="n">
-        <v>236.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C54" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D54" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E54" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F54" t="n">
-        <v>11335.4655</v>
+        <v>2.2</v>
       </c>
       <c r="G54" t="n">
-        <v>234.2</v>
+        <v>-36195.08380000002</v>
       </c>
       <c r="H54" t="n">
-        <v>236.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C55" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D55" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E55" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F55" t="n">
-        <v>1534.3443</v>
+        <v>3250</v>
       </c>
       <c r="G55" t="n">
-        <v>233.6666666666667</v>
+        <v>-36195.08380000002</v>
       </c>
       <c r="H55" t="n">
-        <v>236.6</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C56" t="n">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D56" t="n">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E56" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F56" t="n">
-        <v>1650</v>
+        <v>1579</v>
       </c>
       <c r="G56" t="n">
-        <v>233.1333333333333</v>
+        <v>-34616.08380000002</v>
       </c>
       <c r="H56" t="n">
-        <v>236.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C57" t="n">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D57" t="n">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="E57" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F57" t="n">
-        <v>2739.7902</v>
+        <v>2000</v>
       </c>
       <c r="G57" t="n">
-        <v>232.5333333333333</v>
+        <v>-32616.08380000002</v>
       </c>
       <c r="H57" t="n">
-        <v>236.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C58" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D58" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E58" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F58" t="n">
-        <v>4.6345</v>
+        <v>62.03</v>
       </c>
       <c r="G58" t="n">
-        <v>232.3333333333333</v>
+        <v>-32678.11380000002</v>
       </c>
       <c r="H58" t="n">
-        <v>236.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C59" t="n">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D59" t="n">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E59" t="n">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F59" t="n">
-        <v>58.1123</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="n">
-        <v>232.1333333333333</v>
+        <v>-31678.11380000002</v>
       </c>
       <c r="H59" t="n">
-        <v>236.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C60" t="n">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D60" t="n">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E60" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F60" t="n">
-        <v>1268.59</v>
+        <v>342.74</v>
       </c>
       <c r="G60" t="n">
-        <v>231.6</v>
+        <v>-31678.11380000002</v>
       </c>
       <c r="H60" t="n">
-        <v>236.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C61" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D61" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E61" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F61" t="n">
-        <v>1400</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>231</v>
+        <v>-31688.11380000002</v>
       </c>
       <c r="H61" t="n">
-        <v>236.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C62" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D62" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E62" t="n">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F62" t="n">
-        <v>6245.9101</v>
+        <v>160</v>
       </c>
       <c r="G62" t="n">
-        <v>230.3333333333333</v>
+        <v>-31848.11380000002</v>
       </c>
       <c r="H62" t="n">
-        <v>235.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C63" t="n">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D63" t="n">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E63" t="n">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F63" t="n">
-        <v>30107.1861</v>
+        <v>1012.9893</v>
       </c>
       <c r="G63" t="n">
-        <v>229.6666666666667</v>
+        <v>-30835.12450000002</v>
       </c>
       <c r="H63" t="n">
-        <v>235.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C64" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D64" t="n">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E64" t="n">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F64" t="n">
-        <v>8479.0718</v>
+        <v>52</v>
       </c>
       <c r="G64" t="n">
-        <v>228.8666666666667</v>
+        <v>-30835.12450000002</v>
       </c>
       <c r="H64" t="n">
-        <v>235.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C65" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D65" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E65" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F65" t="n">
-        <v>1831.6752</v>
+        <v>112</v>
       </c>
       <c r="G65" t="n">
-        <v>228.4</v>
+        <v>-30835.12450000002</v>
       </c>
       <c r="H65" t="n">
-        <v>235.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C66" t="n">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D66" t="n">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E66" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F66" t="n">
-        <v>8625.4354</v>
+        <v>5966.716</v>
       </c>
       <c r="G66" t="n">
-        <v>228.0666666666667</v>
+        <v>-36801.84050000002</v>
       </c>
       <c r="H66" t="n">
-        <v>234.95</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C67" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D67" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E67" t="n">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="F67" t="n">
-        <v>15789.666</v>
+        <v>661</v>
       </c>
       <c r="G67" t="n">
-        <v>227.9333333333333</v>
+        <v>-36140.84050000002</v>
       </c>
       <c r="H67" t="n">
-        <v>234.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C68" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D68" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E68" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F68" t="n">
-        <v>334.4779</v>
+        <v>2648.5574</v>
       </c>
       <c r="G68" t="n">
-        <v>227.9333333333333</v>
+        <v>-38789.39790000002</v>
       </c>
       <c r="H68" t="n">
-        <v>234.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C69" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D69" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E69" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F69" t="n">
-        <v>3408.1056</v>
+        <v>250</v>
       </c>
       <c r="G69" t="n">
-        <v>227.9333333333333</v>
+        <v>-38789.39790000002</v>
       </c>
       <c r="H69" t="n">
-        <v>234.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C70" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D70" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E70" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F70" t="n">
-        <v>503.4006</v>
+        <v>570</v>
       </c>
       <c r="G70" t="n">
-        <v>228.0666666666667</v>
+        <v>-38789.39790000002</v>
       </c>
       <c r="H70" t="n">
-        <v>234.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C71" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D71" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E71" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F71" t="n">
-        <v>117.8512</v>
+        <v>500</v>
       </c>
       <c r="G71" t="n">
-        <v>228.2</v>
+        <v>-38289.39790000002</v>
       </c>
       <c r="H71" t="n">
-        <v>234.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C72" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D72" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E72" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F72" t="n">
-        <v>885.22</v>
+        <v>5592.4025</v>
       </c>
       <c r="G72" t="n">
-        <v>228.3333333333333</v>
+        <v>-43881.80040000002</v>
       </c>
       <c r="H72" t="n">
-        <v>233.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C73" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D73" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E73" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F73" t="n">
-        <v>1250</v>
+        <v>4035.2971</v>
       </c>
       <c r="G73" t="n">
-        <v>228.6</v>
+        <v>-47917.09750000002</v>
       </c>
       <c r="H73" t="n">
-        <v>233.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C74" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D74" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E74" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F74" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G74" t="n">
-        <v>229</v>
+        <v>-47417.09750000002</v>
       </c>
       <c r="H74" t="n">
-        <v>233.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C75" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D75" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E75" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F75" t="n">
-        <v>31.7737</v>
+        <v>750</v>
       </c>
       <c r="G75" t="n">
-        <v>229.3333333333333</v>
+        <v>-46667.09750000002</v>
       </c>
       <c r="H75" t="n">
-        <v>233.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C76" t="n">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D76" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E76" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F76" t="n">
-        <v>31.7737</v>
+        <v>500</v>
       </c>
       <c r="G76" t="n">
-        <v>229.2666666666667</v>
+        <v>-46667.09750000002</v>
       </c>
       <c r="H76" t="n">
-        <v>233.4</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D77" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E77" t="n">
         <v>232</v>
       </c>
       <c r="F77" t="n">
-        <v>1904.9355</v>
+        <v>5047.8908</v>
       </c>
       <c r="G77" t="n">
-        <v>229.5333333333333</v>
+        <v>-51714.98830000002</v>
       </c>
       <c r="H77" t="n">
-        <v>233.25</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C78" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D78" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E78" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F78" t="n">
-        <v>145.5369</v>
+        <v>500</v>
       </c>
       <c r="G78" t="n">
-        <v>229.8</v>
+        <v>-51714.98830000002</v>
       </c>
       <c r="H78" t="n">
-        <v>233.1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3367,33 +3131,34 @@
         <v>232</v>
       </c>
       <c r="C79" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" t="n">
         <v>232</v>
       </c>
       <c r="E79" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F79" t="n">
-        <v>3664.7525</v>
+        <v>180.73</v>
       </c>
       <c r="G79" t="n">
-        <v>230.1333333333333</v>
+        <v>-51895.71830000002</v>
       </c>
       <c r="H79" t="n">
-        <v>232.9833333333333</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+        <v>237</v>
+      </c>
+      <c r="K79" t="n">
+        <v>237</v>
+      </c>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3167,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C80" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E80" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F80" t="n">
-        <v>5545.805</v>
+        <v>2124.06</v>
       </c>
       <c r="G80" t="n">
-        <v>230.4666666666667</v>
+        <v>-54019.77830000002</v>
       </c>
       <c r="H80" t="n">
-        <v>232.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>237</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3208,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C81" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D81" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E81" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F81" t="n">
-        <v>3250</v>
+        <v>168.2354</v>
       </c>
       <c r="G81" t="n">
-        <v>231</v>
+        <v>-54019.77830000002</v>
       </c>
       <c r="H81" t="n">
-        <v>232.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>237</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3249,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C82" t="n">
         <v>230</v>
       </c>
       <c r="D82" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E82" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F82" t="n">
-        <v>7814.7038</v>
+        <v>8472.379199999999</v>
       </c>
       <c r="G82" t="n">
-        <v>231.0666666666667</v>
+        <v>-62492.15750000002</v>
       </c>
       <c r="H82" t="n">
-        <v>232.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>237</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3290,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C83" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D83" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E83" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F83" t="n">
-        <v>330.7748</v>
+        <v>11335.4655</v>
       </c>
       <c r="G83" t="n">
-        <v>231.0666666666667</v>
+        <v>-73827.62300000002</v>
       </c>
       <c r="H83" t="n">
-        <v>232.8166666666667</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+        <v>230</v>
+      </c>
+      <c r="K83" t="n">
+        <v>237</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3333,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C84" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D84" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E84" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F84" t="n">
-        <v>727.285</v>
+        <v>1534.3443</v>
       </c>
       <c r="G84" t="n">
-        <v>231.2666666666667</v>
+        <v>-73827.62300000002</v>
       </c>
       <c r="H84" t="n">
-        <v>232.8</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+        <v>228</v>
+      </c>
+      <c r="K84" t="n">
+        <v>237</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3376,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C85" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D85" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E85" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F85" t="n">
-        <v>1342.4368</v>
+        <v>1650</v>
       </c>
       <c r="G85" t="n">
-        <v>231.3333333333333</v>
+        <v>-73827.62300000002</v>
       </c>
       <c r="H85" t="n">
-        <v>232.7333333333333</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+        <v>228</v>
+      </c>
+      <c r="K85" t="n">
+        <v>237</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3419,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C86" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D86" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E86" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F86" t="n">
-        <v>1020.0593</v>
+        <v>2739.7902</v>
       </c>
       <c r="G86" t="n">
-        <v>231.3333333333333</v>
+        <v>-73827.62300000002</v>
       </c>
       <c r="H86" t="n">
-        <v>232.65</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+        <v>228</v>
+      </c>
+      <c r="K86" t="n">
+        <v>237</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3462,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C87" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D87" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E87" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F87" t="n">
-        <v>4.4508</v>
+        <v>4.6345</v>
       </c>
       <c r="G87" t="n">
-        <v>231.4666666666667</v>
+        <v>-73822.98850000002</v>
       </c>
       <c r="H87" t="n">
-        <v>232.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+        <v>228</v>
+      </c>
+      <c r="K87" t="n">
+        <v>237</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3505,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C88" t="n">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D88" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E88" t="n">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F88" t="n">
-        <v>36547.3698</v>
+        <v>58.1123</v>
       </c>
       <c r="G88" t="n">
-        <v>230.3333333333333</v>
+        <v>-73881.10080000001</v>
       </c>
       <c r="H88" t="n">
-        <v>232.05</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>237</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3753,27 +3555,30 @@
         <v>229</v>
       </c>
       <c r="E89" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F89" t="n">
-        <v>2120</v>
+        <v>1268.59</v>
       </c>
       <c r="G89" t="n">
-        <v>229.9333333333333</v>
+        <v>-73881.10080000001</v>
       </c>
       <c r="H89" t="n">
-        <v>231.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>237</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3587,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C90" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D90" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E90" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F90" t="n">
-        <v>8021.0461</v>
+        <v>1400</v>
       </c>
       <c r="G90" t="n">
-        <v>229.7333333333333</v>
+        <v>-73881.10080000001</v>
       </c>
       <c r="H90" t="n">
-        <v>231.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>237</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3628,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C91" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D91" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E91" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F91" t="n">
-        <v>1256.336</v>
+        <v>6245.9101</v>
       </c>
       <c r="G91" t="n">
-        <v>229.8</v>
+        <v>-80127.01090000001</v>
       </c>
       <c r="H91" t="n">
-        <v>231.6</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>237</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3669,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C92" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D92" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E92" t="n">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F92" t="n">
-        <v>28.9227</v>
+        <v>30107.1861</v>
       </c>
       <c r="G92" t="n">
-        <v>229.6</v>
+        <v>-110234.197</v>
       </c>
       <c r="H92" t="n">
-        <v>231.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>237</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3710,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C93" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D93" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E93" t="n">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F93" t="n">
-        <v>155.4724</v>
+        <v>8479.0718</v>
       </c>
       <c r="G93" t="n">
-        <v>229.4666666666667</v>
+        <v>-118713.2688</v>
       </c>
       <c r="H93" t="n">
-        <v>231.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>237</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,40 +3751,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C94" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D94" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E94" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F94" t="n">
-        <v>500</v>
+        <v>1831.6752</v>
       </c>
       <c r="G94" t="n">
-        <v>229.4</v>
+        <v>-118713.2688</v>
       </c>
       <c r="H94" t="n">
-        <v>231.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>229</v>
-      </c>
-      <c r="L94" t="n">
-        <v>229</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+        <v>237</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,42 +3792,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C95" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D95" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E95" t="n">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F95" t="n">
-        <v>603.3323</v>
+        <v>8625.4354</v>
       </c>
       <c r="G95" t="n">
-        <v>229.3333333333333</v>
+        <v>-110087.8334</v>
       </c>
       <c r="H95" t="n">
-        <v>231.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>229</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>237</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4020,44 +3833,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C96" t="n">
         <v>229</v>
       </c>
       <c r="D96" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E96" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F96" t="n">
-        <v>741.1953</v>
+        <v>15789.666</v>
       </c>
       <c r="G96" t="n">
-        <v>229</v>
+        <v>-94298.16740000002</v>
       </c>
       <c r="H96" t="n">
-        <v>230.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>229</v>
-      </c>
-      <c r="L96" t="n">
-        <v>229</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>237</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,40 +3874,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C97" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D97" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E97" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F97" t="n">
-        <v>500</v>
+        <v>334.4779</v>
       </c>
       <c r="G97" t="n">
-        <v>228.9333333333333</v>
+        <v>-93963.68950000002</v>
       </c>
       <c r="H97" t="n">
-        <v>230.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>229</v>
-      </c>
-      <c r="L97" t="n">
-        <v>229</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+        <v>237</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,42 +3915,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C98" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D98" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E98" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F98" t="n">
-        <v>202.2803</v>
+        <v>3408.1056</v>
       </c>
       <c r="G98" t="n">
-        <v>228.8666666666667</v>
+        <v>-97371.79510000002</v>
       </c>
       <c r="H98" t="n">
-        <v>230.65</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>229</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>237</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4152,42 +3956,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C99" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D99" t="n">
         <v>231</v>
       </c>
       <c r="E99" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F99" t="n">
-        <v>1984.1746</v>
+        <v>503.4006</v>
       </c>
       <c r="G99" t="n">
-        <v>228.8666666666667</v>
+        <v>-96868.39450000002</v>
       </c>
       <c r="H99" t="n">
-        <v>230.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>229</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>228</v>
+      </c>
+      <c r="K99" t="n">
+        <v>237</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,30 +4011,27 @@
         <v>230</v>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>117.8512</v>
       </c>
       <c r="G100" t="n">
-        <v>228.8</v>
+        <v>-96868.39450000002</v>
       </c>
       <c r="H100" t="n">
-        <v>230.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>229</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>237</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4243,41 +4043,36 @@
         <v>230</v>
       </c>
       <c r="C101" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D101" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E101" t="n">
         <v>230</v>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>885.22</v>
       </c>
       <c r="G101" t="n">
-        <v>228.8666666666667</v>
+        <v>-96868.39450000002</v>
       </c>
       <c r="H101" t="n">
-        <v>230.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>230</v>
-      </c>
-      <c r="L101" t="n">
-        <v>229</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+        <v>237</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4289,39 +4084,36 @@
         <v>230</v>
       </c>
       <c r="C102" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D102" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E102" t="n">
         <v>230</v>
       </c>
       <c r="F102" t="n">
-        <v>1003.5965</v>
+        <v>1250</v>
       </c>
       <c r="G102" t="n">
-        <v>228.7333333333333</v>
+        <v>-95618.39450000002</v>
       </c>
       <c r="H102" t="n">
-        <v>230.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>229</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>237</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,42 +4122,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C103" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D103" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E103" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G103" t="n">
-        <v>229.7333333333333</v>
+        <v>-94818.39450000002</v>
       </c>
       <c r="H103" t="n">
-        <v>230.25</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>229</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>237</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,42 +4163,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C104" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D104" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E104" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F104" t="n">
-        <v>184.9568</v>
+        <v>31.7737</v>
       </c>
       <c r="G104" t="n">
-        <v>229.7333333333333</v>
+        <v>-94850.16820000003</v>
       </c>
       <c r="H104" t="n">
-        <v>230.2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>229</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>237</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,42 +4204,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C105" t="n">
         <v>228</v>
       </c>
       <c r="D105" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E105" t="n">
         <v>228</v>
       </c>
       <c r="F105" t="n">
-        <v>127.0922</v>
+        <v>31.7737</v>
       </c>
       <c r="G105" t="n">
-        <v>229.5333333333333</v>
+        <v>-94881.94190000003</v>
       </c>
       <c r="H105" t="n">
-        <v>230.05</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>229</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>237</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4462,44 +4245,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C106" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D106" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E106" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F106" t="n">
-        <v>1825</v>
+        <v>1904.9355</v>
       </c>
       <c r="G106" t="n">
-        <v>229.6666666666667</v>
+        <v>-92977.00640000003</v>
       </c>
       <c r="H106" t="n">
-        <v>229.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>228</v>
-      </c>
-      <c r="L106" t="n">
-        <v>229</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>237</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4511,41 +4289,36 @@
         <v>231</v>
       </c>
       <c r="C107" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D107" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E107" t="n">
         <v>231</v>
       </c>
       <c r="F107" t="n">
-        <v>2500</v>
+        <v>145.5369</v>
       </c>
       <c r="G107" t="n">
-        <v>229.8666666666667</v>
+        <v>-93122.54330000003</v>
       </c>
       <c r="H107" t="n">
-        <v>229.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>231</v>
-      </c>
-      <c r="L107" t="n">
-        <v>229</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>237</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4557,39 +4330,36 @@
         <v>232</v>
       </c>
       <c r="C108" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D108" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E108" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F108" t="n">
-        <v>6951</v>
+        <v>3664.7525</v>
       </c>
       <c r="G108" t="n">
-        <v>230.2666666666667</v>
+        <v>-96787.29580000004</v>
       </c>
       <c r="H108" t="n">
-        <v>229.8</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>229</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>237</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,30 +4380,27 @@
         <v>230</v>
       </c>
       <c r="F109" t="n">
-        <v>3831.5851</v>
+        <v>5545.805</v>
       </c>
       <c r="G109" t="n">
-        <v>230.3333333333333</v>
+        <v>-96787.29580000004</v>
       </c>
       <c r="H109" t="n">
-        <v>229.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>229</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>237</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4642,44 +4409,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C110" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D110" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E110" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>3250</v>
       </c>
       <c r="G110" t="n">
-        <v>230.4</v>
+        <v>-93537.29580000004</v>
       </c>
       <c r="H110" t="n">
-        <v>229.65</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>230</v>
-      </c>
-      <c r="L110" t="n">
-        <v>229</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>237</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4697,35 +4459,30 @@
         <v>230</v>
       </c>
       <c r="E111" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F111" t="n">
-        <v>5626.4452</v>
+        <v>7814.7038</v>
       </c>
       <c r="G111" t="n">
-        <v>230.4666666666667</v>
+        <v>-101351.9996</v>
       </c>
       <c r="H111" t="n">
-        <v>229.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>230</v>
-      </c>
-      <c r="L111" t="n">
-        <v>229</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>237</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,44 +4491,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C112" t="n">
         <v>230</v>
       </c>
       <c r="D112" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E112" t="n">
         <v>230</v>
       </c>
       <c r="F112" t="n">
-        <v>2.7818</v>
+        <v>330.7748</v>
       </c>
       <c r="G112" t="n">
-        <v>230.5333333333333</v>
+        <v>-101351.9996</v>
       </c>
       <c r="H112" t="n">
-        <v>229.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>230</v>
-      </c>
-      <c r="L112" t="n">
-        <v>229</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>237</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,44 +4532,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C113" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D113" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E113" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F113" t="n">
-        <v>888.503</v>
+        <v>727.285</v>
       </c>
       <c r="G113" t="n">
-        <v>230.5333333333333</v>
+        <v>-100624.7146</v>
       </c>
       <c r="H113" t="n">
-        <v>229.6</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>230</v>
-      </c>
-      <c r="L113" t="n">
-        <v>229</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>237</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,44 +4573,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C114" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D114" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E114" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F114" t="n">
-        <v>2400</v>
+        <v>1342.4368</v>
       </c>
       <c r="G114" t="n">
-        <v>230.4</v>
+        <v>-100624.7146</v>
       </c>
       <c r="H114" t="n">
-        <v>229.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>229</v>
-      </c>
-      <c r="L114" t="n">
-        <v>229</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+        <v>237</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4875,41 +4617,36 @@
         <v>230</v>
       </c>
       <c r="C115" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D115" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E115" t="n">
         <v>230</v>
       </c>
       <c r="F115" t="n">
-        <v>5534</v>
+        <v>1020.0593</v>
       </c>
       <c r="G115" t="n">
-        <v>230.6</v>
+        <v>-101644.7739</v>
       </c>
       <c r="H115" t="n">
-        <v>229.7</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>229</v>
-      </c>
-      <c r="L115" t="n">
-        <v>229</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+        <v>237</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4918,42 +4655,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C116" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D116" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E116" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>4.4508</v>
       </c>
       <c r="G116" t="n">
-        <v>230.8</v>
+        <v>-101640.3231</v>
       </c>
       <c r="H116" t="n">
-        <v>229.8</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>229</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>237</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,42 +4696,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C117" t="n">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D117" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E117" t="n">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="F117" t="n">
-        <v>147.959</v>
+        <v>36547.3698</v>
       </c>
       <c r="G117" t="n">
-        <v>230.8666666666667</v>
+        <v>-138187.6929</v>
       </c>
       <c r="H117" t="n">
-        <v>229.85</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>229</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>237</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5006,42 +4737,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C118" t="n">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D118" t="n">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E118" t="n">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F118" t="n">
-        <v>2657</v>
+        <v>2120</v>
       </c>
       <c r="G118" t="n">
-        <v>231</v>
+        <v>-136067.6929</v>
       </c>
       <c r="H118" t="n">
-        <v>229.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>229</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>237</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,42 +4778,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C119" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D119" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E119" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F119" t="n">
-        <v>1500</v>
+        <v>8021.0461</v>
       </c>
       <c r="G119" t="n">
-        <v>231.3333333333333</v>
+        <v>-128046.6468</v>
       </c>
       <c r="H119" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>229</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>237</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5094,42 +4819,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C120" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D120" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E120" t="n">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F120" t="n">
-        <v>5500</v>
+        <v>1256.336</v>
       </c>
       <c r="G120" t="n">
-        <v>231.8</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H120" t="n">
-        <v>230.1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>229</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>237</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,42 +4860,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C121" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D121" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E121" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F121" t="n">
-        <v>10103</v>
+        <v>28.9227</v>
       </c>
       <c r="G121" t="n">
-        <v>232.2</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H121" t="n">
-        <v>230.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>229</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>237</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5182,42 +4901,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C122" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D122" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E122" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F122" t="n">
-        <v>2540</v>
+        <v>155.4724</v>
       </c>
       <c r="G122" t="n">
-        <v>232.6666666666667</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H122" t="n">
-        <v>230.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>229</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>237</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,42 +4942,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C123" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D123" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E123" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G123" t="n">
-        <v>232.9333333333333</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H123" t="n">
-        <v>230.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>229</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>237</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5270,42 +4983,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C124" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D124" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E124" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>603.3323</v>
       </c>
       <c r="G124" t="n">
-        <v>233.5333333333333</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H124" t="n">
-        <v>230.85</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>229</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>237</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,42 +5024,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C125" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D125" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E125" t="n">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F125" t="n">
-        <v>3373</v>
+        <v>741.1953</v>
       </c>
       <c r="G125" t="n">
-        <v>234.2</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H125" t="n">
-        <v>231.1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>229</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>237</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5358,42 +5065,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C126" t="n">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D126" t="n">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E126" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F126" t="n">
-        <v>4288</v>
+        <v>500</v>
       </c>
       <c r="G126" t="n">
-        <v>234.9333333333333</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H126" t="n">
-        <v>231.35</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>229</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>237</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5402,42 +5106,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C127" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D127" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E127" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F127" t="n">
-        <v>262.26</v>
+        <v>202.2803</v>
       </c>
       <c r="G127" t="n">
-        <v>235.2666666666667</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H127" t="n">
-        <v>231.45</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>229</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>237</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,42 +5147,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C128" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D128" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E128" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F128" t="n">
-        <v>300</v>
+        <v>1984.1746</v>
       </c>
       <c r="G128" t="n">
-        <v>235.5333333333333</v>
+        <v>-127318.8082</v>
       </c>
       <c r="H128" t="n">
-        <v>231.5</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>229</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>237</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5490,42 +5188,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C129" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D129" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E129" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F129" t="n">
-        <v>262.2595</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
-        <v>235.7333333333333</v>
+        <v>-127568.8082</v>
       </c>
       <c r="H129" t="n">
-        <v>231.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>229</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>237</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,42 +5229,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C130" t="n">
         <v>231</v>
       </c>
       <c r="D130" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E130" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F130" t="n">
-        <v>1072.9016</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
-        <v>235.6</v>
+        <v>-127318.8082</v>
       </c>
       <c r="H130" t="n">
-        <v>231.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>229</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>237</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,42 +5270,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C131" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D131" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E131" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F131" t="n">
-        <v>2471.073</v>
+        <v>1003.5965</v>
       </c>
       <c r="G131" t="n">
-        <v>235.4</v>
+        <v>-128322.4047</v>
       </c>
       <c r="H131" t="n">
-        <v>231.6</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>229</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>237</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5625,39 +5314,36 @@
         <v>232</v>
       </c>
       <c r="C132" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D132" t="n">
         <v>232</v>
       </c>
       <c r="E132" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F132" t="n">
-        <v>424.8389</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>235.4</v>
+        <v>-128312.4047</v>
       </c>
       <c r="H132" t="n">
-        <v>231.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>229</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>237</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5666,42 +5352,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C133" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D133" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E133" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F133" t="n">
-        <v>750</v>
+        <v>184.9568</v>
       </c>
       <c r="G133" t="n">
-        <v>235.2</v>
+        <v>-128497.3615</v>
       </c>
       <c r="H133" t="n">
-        <v>231.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>229</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>237</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5710,42 +5393,1228 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>228</v>
+      </c>
+      <c r="C134" t="n">
+        <v>228</v>
+      </c>
+      <c r="D134" t="n">
+        <v>228</v>
+      </c>
+      <c r="E134" t="n">
+        <v>228</v>
+      </c>
+      <c r="F134" t="n">
+        <v>127.0922</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-128624.4537</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>237</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>229</v>
+      </c>
+      <c r="C135" t="n">
+        <v>231</v>
+      </c>
+      <c r="D135" t="n">
+        <v>231</v>
+      </c>
+      <c r="E135" t="n">
+        <v>229</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1825</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-126799.4537</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>237</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>231</v>
+      </c>
+      <c r="C136" t="n">
         <v>232</v>
       </c>
-      <c r="C134" t="n">
+      <c r="D136" t="n">
         <v>232</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E136" t="n">
+        <v>231</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-124299.4537</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>237</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>232</v>
       </c>
-      <c r="E134" t="n">
+      <c r="C137" t="n">
+        <v>235</v>
+      </c>
+      <c r="D137" t="n">
+        <v>235</v>
+      </c>
+      <c r="E137" t="n">
         <v>232</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F137" t="n">
+        <v>6951</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-117348.4537</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>237</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>230</v>
+      </c>
+      <c r="C138" t="n">
+        <v>230</v>
+      </c>
+      <c r="D138" t="n">
+        <v>230</v>
+      </c>
+      <c r="E138" t="n">
+        <v>230</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3831.5851</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-121180.0388</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>237</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>230</v>
+      </c>
+      <c r="C139" t="n">
+        <v>230</v>
+      </c>
+      <c r="D139" t="n">
+        <v>230</v>
+      </c>
+      <c r="E139" t="n">
+        <v>230</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-121180.0388</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>237</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>230</v>
+      </c>
+      <c r="C140" t="n">
+        <v>230</v>
+      </c>
+      <c r="D140" t="n">
+        <v>230</v>
+      </c>
+      <c r="E140" t="n">
+        <v>229</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5626.4452</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-121180.0388</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>237</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>230</v>
+      </c>
+      <c r="C141" t="n">
+        <v>230</v>
+      </c>
+      <c r="D141" t="n">
+        <v>230</v>
+      </c>
+      <c r="E141" t="n">
+        <v>230</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.7818</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-121180.0388</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>237</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>229</v>
+      </c>
+      <c r="C142" t="n">
+        <v>229</v>
+      </c>
+      <c r="D142" t="n">
+        <v>229</v>
+      </c>
+      <c r="E142" t="n">
+        <v>229</v>
+      </c>
+      <c r="F142" t="n">
+        <v>888.503</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-122068.5418</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>237</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>229</v>
+      </c>
+      <c r="C143" t="n">
+        <v>229</v>
+      </c>
+      <c r="D143" t="n">
+        <v>229</v>
+      </c>
+      <c r="E143" t="n">
+        <v>229</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-122068.5418</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>237</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>230</v>
+      </c>
+      <c r="C144" t="n">
+        <v>233</v>
+      </c>
+      <c r="D144" t="n">
+        <v>233</v>
+      </c>
+      <c r="E144" t="n">
+        <v>230</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5534</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-116534.5418</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>237</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>234</v>
+      </c>
+      <c r="C145" t="n">
+        <v>234</v>
+      </c>
+      <c r="D145" t="n">
+        <v>234</v>
+      </c>
+      <c r="E145" t="n">
+        <v>234</v>
+      </c>
+      <c r="F145" t="n">
+        <v>250</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-116284.5418</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>237</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>231</v>
+      </c>
+      <c r="C146" t="n">
+        <v>231</v>
+      </c>
+      <c r="D146" t="n">
+        <v>231</v>
+      </c>
+      <c r="E146" t="n">
+        <v>231</v>
+      </c>
+      <c r="F146" t="n">
+        <v>147.959</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-116432.5008</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>237</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>233</v>
+      </c>
+      <c r="C147" t="n">
+        <v>234</v>
+      </c>
+      <c r="D147" t="n">
+        <v>234</v>
+      </c>
+      <c r="E147" t="n">
+        <v>233</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2657</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-113775.5008</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>237</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>234</v>
+      </c>
+      <c r="C148" t="n">
+        <v>234</v>
+      </c>
+      <c r="D148" t="n">
+        <v>234</v>
+      </c>
+      <c r="E148" t="n">
+        <v>234</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-113775.5008</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>237</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>234</v>
+      </c>
+      <c r="C149" t="n">
+        <v>235</v>
+      </c>
+      <c r="D149" t="n">
+        <v>235</v>
+      </c>
+      <c r="E149" t="n">
+        <v>234</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-108275.5008</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>237</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>235</v>
+      </c>
+      <c r="C150" t="n">
+        <v>237</v>
+      </c>
+      <c r="D150" t="n">
+        <v>237</v>
+      </c>
+      <c r="E150" t="n">
+        <v>235</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10103</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-98172.50080000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>237</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>237</v>
+      </c>
+      <c r="C151" t="n">
+        <v>239</v>
+      </c>
+      <c r="D151" t="n">
+        <v>239</v>
+      </c>
+      <c r="E151" t="n">
+        <v>237</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2540</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-95632.50080000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>237</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>239</v>
+      </c>
+      <c r="C152" t="n">
+        <v>239</v>
+      </c>
+      <c r="D152" t="n">
+        <v>239</v>
+      </c>
+      <c r="E152" t="n">
+        <v>239</v>
+      </c>
+      <c r="F152" t="n">
+        <v>250</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-95632.50080000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>237</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>239</v>
+      </c>
+      <c r="C153" t="n">
+        <v>239</v>
+      </c>
+      <c r="D153" t="n">
+        <v>239</v>
+      </c>
+      <c r="E153" t="n">
+        <v>239</v>
+      </c>
+      <c r="F153" t="n">
+        <v>250</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-95632.50080000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>237</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>239</v>
+      </c>
+      <c r="C154" t="n">
+        <v>240</v>
+      </c>
+      <c r="D154" t="n">
+        <v>240</v>
+      </c>
+      <c r="E154" t="n">
+        <v>239</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3373</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-92259.50080000001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>237</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>240</v>
+      </c>
+      <c r="C155" t="n">
+        <v>241</v>
+      </c>
+      <c r="D155" t="n">
+        <v>241</v>
+      </c>
+      <c r="E155" t="n">
+        <v>240</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4288</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-87971.50080000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>237</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>236</v>
+      </c>
+      <c r="C156" t="n">
+        <v>235</v>
+      </c>
+      <c r="D156" t="n">
+        <v>236</v>
+      </c>
+      <c r="E156" t="n">
+        <v>235</v>
+      </c>
+      <c r="F156" t="n">
+        <v>262.26</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-88233.7608</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>237</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>235</v>
+      </c>
+      <c r="C157" t="n">
+        <v>233</v>
+      </c>
+      <c r="D157" t="n">
+        <v>235</v>
+      </c>
+      <c r="E157" t="n">
+        <v>233</v>
+      </c>
+      <c r="F157" t="n">
+        <v>300</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-88533.7608</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>237</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>232</v>
+      </c>
+      <c r="C158" t="n">
+        <v>232</v>
+      </c>
+      <c r="D158" t="n">
+        <v>232</v>
+      </c>
+      <c r="E158" t="n">
+        <v>232</v>
+      </c>
+      <c r="F158" t="n">
+        <v>262.2595</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-88796.0203</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>237</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>232</v>
+      </c>
+      <c r="C159" t="n">
+        <v>231</v>
+      </c>
+      <c r="D159" t="n">
+        <v>232</v>
+      </c>
+      <c r="E159" t="n">
+        <v>231</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1072.9016</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-89868.9219</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>237</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>231</v>
+      </c>
+      <c r="C160" t="n">
+        <v>231</v>
+      </c>
+      <c r="D160" t="n">
+        <v>232</v>
+      </c>
+      <c r="E160" t="n">
+        <v>231</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2471.073</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-89868.9219</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>237</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>232</v>
+      </c>
+      <c r="C161" t="n">
+        <v>231</v>
+      </c>
+      <c r="D161" t="n">
+        <v>232</v>
+      </c>
+      <c r="E161" t="n">
+        <v>231</v>
+      </c>
+      <c r="F161" t="n">
+        <v>424.8389</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-89868.9219</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>237</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>231</v>
+      </c>
+      <c r="C162" t="n">
+        <v>231</v>
+      </c>
+      <c r="D162" t="n">
+        <v>231</v>
+      </c>
+      <c r="E162" t="n">
+        <v>231</v>
+      </c>
+      <c r="F162" t="n">
+        <v>750</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-89868.9219</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>237</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>232</v>
+      </c>
+      <c r="C163" t="n">
+        <v>232</v>
+      </c>
+      <c r="D163" t="n">
+        <v>232</v>
+      </c>
+      <c r="E163" t="n">
+        <v>232</v>
+      </c>
+      <c r="F163" t="n">
         <v>862.0689</v>
       </c>
-      <c r="G134" t="n">
-        <v>235.0666666666667</v>
-      </c>
-      <c r="H134" t="n">
-        <v>231.5166666666667</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>229</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="G163" t="n">
+        <v>-89006.853</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>237</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-14 BackTest ABT.xlsx
+++ b/BackTest/2019-11-14 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C2" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D2" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E2" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F2" t="n">
-        <v>2867.5</v>
+        <v>255.5242</v>
       </c>
       <c r="G2" t="n">
-        <v>-18484.41710000001</v>
+        <v>-18588.69090000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C3" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D3" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E3" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F3" t="n">
-        <v>630.76</v>
+        <v>89.6139</v>
       </c>
       <c r="G3" t="n">
-        <v>-17853.65710000001</v>
+        <v>-18588.69090000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C4" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D4" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E4" t="n">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F4" t="n">
-        <v>3675.1005</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>-17853.65710000001</v>
+        <v>-18586.49090000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -541,25 +549,25 @@
         <v>237</v>
       </c>
       <c r="C5" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D5" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E5" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F5" t="n">
-        <v>31.7458</v>
+        <v>3159.1182</v>
       </c>
       <c r="G5" t="n">
-        <v>-17821.91130000001</v>
+        <v>-21745.60910000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>233</v>
+      </c>
+      <c r="C6" t="n">
         <v>237</v>
       </c>
-      <c r="C6" t="n">
-        <v>238</v>
-      </c>
       <c r="D6" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E6" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F6" t="n">
-        <v>2786.2311</v>
+        <v>2691.093</v>
       </c>
       <c r="G6" t="n">
-        <v>-15035.68020000001</v>
+        <v>-24436.70210000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C7" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D7" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E7" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F7" t="n">
-        <v>247.5095</v>
+        <v>774.5759</v>
       </c>
       <c r="G7" t="n">
-        <v>-15035.68020000001</v>
+        <v>-25211.27800000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C8" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D8" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E8" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F8" t="n">
-        <v>6041.4628</v>
+        <v>167.7455</v>
       </c>
       <c r="G8" t="n">
-        <v>-21077.14300000001</v>
+        <v>-25043.53250000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C9" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D9" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E9" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>1400</v>
       </c>
       <c r="G9" t="n">
-        <v>-21075.04300000001</v>
+        <v>-25043.53250000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C10" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D10" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E10" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F10" t="n">
-        <v>606.5183</v>
+        <v>8653.4421</v>
       </c>
       <c r="G10" t="n">
-        <v>-20468.52470000001</v>
+        <v>-33696.97460000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C11" t="n">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D11" t="n">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E11" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F11" t="n">
-        <v>900.9275</v>
+        <v>2500.3092</v>
       </c>
       <c r="G11" t="n">
-        <v>-19567.59720000001</v>
+        <v>-36197.28380000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C12" t="n">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D12" t="n">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E12" t="n">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F12" t="n">
-        <v>7220.163</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>-12347.43420000001</v>
+        <v>-36195.08380000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C13" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D13" t="n">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E13" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F13" t="n">
-        <v>3580.2944</v>
+        <v>3250</v>
       </c>
       <c r="G13" t="n">
-        <v>-15927.72860000001</v>
+        <v>-36195.08380000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C14" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D14" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E14" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F14" t="n">
-        <v>138</v>
+        <v>1579</v>
       </c>
       <c r="G14" t="n">
-        <v>-15789.72860000001</v>
+        <v>-34616.08380000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C15" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D15" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E15" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2399</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="n">
-        <v>-15789.72860000001</v>
+        <v>-32616.08380000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,13 +935,14 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C16" t="n">
         <v>236</v>
@@ -932,19 +951,19 @@
         <v>236</v>
       </c>
       <c r="E16" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F16" t="n">
-        <v>1313.8347</v>
+        <v>62.03</v>
       </c>
       <c r="G16" t="n">
-        <v>-17103.56330000001</v>
+        <v>-32678.11380000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C17" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D17" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E17" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F17" t="n">
-        <v>1513</v>
+        <v>1000</v>
       </c>
       <c r="G17" t="n">
-        <v>-18616.56330000001</v>
+        <v>-31678.11380000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C18" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D18" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E18" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F18" t="n">
-        <v>1713</v>
+        <v>342.74</v>
       </c>
       <c r="G18" t="n">
-        <v>-18616.56330000001</v>
+        <v>-31678.11380000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C19" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D19" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E19" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F19" t="n">
-        <v>1409.2726</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>-20025.83590000001</v>
+        <v>-31688.11380000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D20" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E20" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F20" t="n">
-        <v>2165</v>
+        <v>160</v>
       </c>
       <c r="G20" t="n">
-        <v>-17860.83590000001</v>
+        <v>-31848.11380000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C21" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D21" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E21" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F21" t="n">
-        <v>5.3591</v>
+        <v>1012.9893</v>
       </c>
       <c r="G21" t="n">
-        <v>-17860.83590000001</v>
+        <v>-30835.12450000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C22" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D22" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E22" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F22" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G22" t="n">
-        <v>-17915.83590000001</v>
+        <v>-30835.12450000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C23" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D23" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E23" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F23" t="n">
-        <v>2800</v>
+        <v>112</v>
       </c>
       <c r="G23" t="n">
-        <v>-17915.83590000001</v>
+        <v>-30835.12450000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C24" t="n">
         <v>233</v>
       </c>
       <c r="D24" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E24" t="n">
         <v>233</v>
       </c>
       <c r="F24" t="n">
-        <v>338.216</v>
+        <v>5966.716</v>
       </c>
       <c r="G24" t="n">
-        <v>-17915.83590000001</v>
+        <v>-36801.84050000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C25" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D25" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E25" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F25" t="n">
-        <v>1593.6188</v>
+        <v>661</v>
       </c>
       <c r="G25" t="n">
-        <v>-19509.45470000001</v>
+        <v>-36140.84050000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C26" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D26" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E26" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F26" t="n">
-        <v>3150</v>
+        <v>2648.5574</v>
       </c>
       <c r="G26" t="n">
-        <v>-19509.45470000001</v>
+        <v>-38789.39790000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C27" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D27" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E27" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F27" t="n">
-        <v>5774.9304</v>
+        <v>250</v>
       </c>
       <c r="G27" t="n">
-        <v>-19509.45470000001</v>
+        <v>-38789.39790000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C28" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D28" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E28" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F28" t="n">
-        <v>8.986499999999999</v>
+        <v>570</v>
       </c>
       <c r="G28" t="n">
-        <v>-19509.45470000001</v>
+        <v>-38789.39790000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1381,7 +1413,7 @@
         <v>236</v>
       </c>
       <c r="C29" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D29" t="n">
         <v>237</v>
@@ -1390,10 +1422,10 @@
         <v>236</v>
       </c>
       <c r="F29" t="n">
-        <v>719.1769</v>
+        <v>500</v>
       </c>
       <c r="G29" t="n">
-        <v>-18790.27780000001</v>
+        <v>-38289.39790000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C30" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D30" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E30" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F30" t="n">
-        <v>948.1413</v>
+        <v>5592.4025</v>
       </c>
       <c r="G30" t="n">
-        <v>-17842.13650000002</v>
+        <v>-43881.80040000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C31" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D31" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E31" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F31" t="n">
-        <v>511.6917</v>
+        <v>4035.2971</v>
       </c>
       <c r="G31" t="n">
-        <v>-17842.13650000002</v>
+        <v>-47917.09750000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C32" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D32" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E32" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F32" t="n">
-        <v>8634.5933</v>
+        <v>500</v>
       </c>
       <c r="G32" t="n">
-        <v>-17842.13650000002</v>
+        <v>-47417.09750000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C33" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D33" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E33" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F33" t="n">
-        <v>700.9893</v>
+        <v>750</v>
       </c>
       <c r="G33" t="n">
-        <v>-17842.13650000002</v>
+        <v>-46667.09750000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C34" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D34" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E34" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F34" t="n">
-        <v>1724.4688</v>
+        <v>500</v>
       </c>
       <c r="G34" t="n">
-        <v>-17842.13650000002</v>
+        <v>-46667.09750000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C35" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D35" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E35" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F35" t="n">
-        <v>895.8898</v>
+        <v>5047.8908</v>
       </c>
       <c r="G35" t="n">
-        <v>-18738.02630000002</v>
+        <v>-51714.98830000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C36" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D36" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E36" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F36" t="n">
-        <v>121.362</v>
+        <v>500</v>
       </c>
       <c r="G36" t="n">
-        <v>-18738.02630000002</v>
+        <v>-51714.98830000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C37" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D37" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E37" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F37" t="n">
-        <v>3260.9811</v>
+        <v>180.73</v>
       </c>
       <c r="G37" t="n">
-        <v>-18738.02630000002</v>
+        <v>-51895.71830000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C38" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D38" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E38" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F38" t="n">
-        <v>480.1121</v>
+        <v>2124.06</v>
       </c>
       <c r="G38" t="n">
-        <v>-19218.13840000001</v>
+        <v>-54019.77830000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C39" t="n">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D39" t="n">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E39" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F39" t="n">
-        <v>500</v>
+        <v>168.2354</v>
       </c>
       <c r="G39" t="n">
-        <v>-18718.13840000001</v>
+        <v>-54019.77830000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C40" t="n">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D40" t="n">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E40" t="n">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F40" t="n">
-        <v>417.9433</v>
+        <v>8472.379199999999</v>
       </c>
       <c r="G40" t="n">
-        <v>-18718.13840000001</v>
+        <v>-62492.15750000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C41" t="n">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D41" t="n">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E41" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F41" t="n">
-        <v>156.0875</v>
+        <v>11335.4655</v>
       </c>
       <c r="G41" t="n">
-        <v>-18562.05090000001</v>
+        <v>-73827.62300000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C42" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D42" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E42" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F42" t="n">
-        <v>13.32</v>
+        <v>1534.3443</v>
       </c>
       <c r="G42" t="n">
-        <v>-18575.37090000001</v>
+        <v>-73827.62300000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C43" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D43" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E43" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F43" t="n">
-        <v>13.32</v>
+        <v>1650</v>
       </c>
       <c r="G43" t="n">
-        <v>-18588.69090000001</v>
+        <v>-73827.62300000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C44" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D44" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E44" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F44" t="n">
-        <v>255.5242</v>
+        <v>2739.7902</v>
       </c>
       <c r="G44" t="n">
-        <v>-18588.69090000001</v>
+        <v>-73827.62300000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,98 +1979,111 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C45" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D45" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E45" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F45" t="n">
-        <v>89.6139</v>
+        <v>4.6345</v>
       </c>
       <c r="G45" t="n">
-        <v>-18588.69090000001</v>
+        <v>-73822.98850000002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>228</v>
+      </c>
+      <c r="K45" t="n">
+        <v>228</v>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C46" t="n">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D46" t="n">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E46" t="n">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F46" t="n">
-        <v>2.2</v>
+        <v>58.1123</v>
       </c>
       <c r="G46" t="n">
-        <v>-18586.49090000001</v>
+        <v>-73881.10080000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>228</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C47" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D47" t="n">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E47" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F47" t="n">
-        <v>3159.1182</v>
+        <v>1268.59</v>
       </c>
       <c r="G47" t="n">
-        <v>-21745.60910000001</v>
+        <v>-73881.10080000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,68 +2092,80 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>228</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C48" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D48" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E48" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F48" t="n">
-        <v>2691.093</v>
+        <v>1400</v>
       </c>
       <c r="G48" t="n">
-        <v>-24436.70210000001</v>
+        <v>-73881.10080000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>229</v>
+      </c>
+      <c r="K48" t="n">
+        <v>229</v>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C49" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D49" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E49" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F49" t="n">
-        <v>774.5759</v>
+        <v>6245.9101</v>
       </c>
       <c r="G49" t="n">
-        <v>-25211.27800000001</v>
+        <v>-80127.01090000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,348 +2174,436 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>229</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C50" t="n">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D50" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E50" t="n">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F50" t="n">
-        <v>167.7455</v>
+        <v>30107.1861</v>
       </c>
       <c r="G50" t="n">
-        <v>-25043.53250000001</v>
+        <v>-110234.197</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>228</v>
+      </c>
+      <c r="K50" t="n">
+        <v>229</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C51" t="n">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D51" t="n">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E51" t="n">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F51" t="n">
-        <v>1400</v>
+        <v>8479.0718</v>
       </c>
       <c r="G51" t="n">
-        <v>-25043.53250000001</v>
+        <v>-118713.2688</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>227</v>
+      </c>
+      <c r="K51" t="n">
+        <v>229</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C52" t="n">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D52" t="n">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E52" t="n">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F52" t="n">
-        <v>8653.4421</v>
+        <v>1831.6752</v>
       </c>
       <c r="G52" t="n">
-        <v>-33696.97460000002</v>
+        <v>-118713.2688</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>225</v>
+      </c>
+      <c r="K52" t="n">
+        <v>229</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C53" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D53" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E53" t="n">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F53" t="n">
-        <v>2500.3092</v>
+        <v>8625.4354</v>
       </c>
       <c r="G53" t="n">
-        <v>-36197.28380000002</v>
+        <v>-110087.8334</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>225</v>
+      </c>
+      <c r="K53" t="n">
+        <v>229</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C54" t="n">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D54" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E54" t="n">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F54" t="n">
-        <v>2.2</v>
+        <v>15789.666</v>
       </c>
       <c r="G54" t="n">
-        <v>-36195.08380000002</v>
+        <v>-94298.16740000002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>226</v>
+      </c>
+      <c r="K54" t="n">
+        <v>229</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C55" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D55" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E55" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F55" t="n">
-        <v>3250</v>
+        <v>334.4779</v>
       </c>
       <c r="G55" t="n">
-        <v>-36195.08380000002</v>
+        <v>-93963.68950000002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>229</v>
+      </c>
+      <c r="K55" t="n">
+        <v>229</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C56" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D56" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E56" t="n">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F56" t="n">
-        <v>1579</v>
+        <v>3408.1056</v>
       </c>
       <c r="G56" t="n">
-        <v>-34616.08380000002</v>
+        <v>-97371.79510000002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>230</v>
+      </c>
+      <c r="K56" t="n">
+        <v>229</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C57" t="n">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D57" t="n">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E57" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F57" t="n">
-        <v>2000</v>
+        <v>503.4006</v>
       </c>
       <c r="G57" t="n">
-        <v>-32616.08380000002</v>
+        <v>-96868.39450000002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>228</v>
+      </c>
+      <c r="K57" t="n">
+        <v>229</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C58" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D58" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E58" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F58" t="n">
-        <v>62.03</v>
+        <v>117.8512</v>
       </c>
       <c r="G58" t="n">
-        <v>-32678.11380000002</v>
+        <v>-96868.39450000002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>230</v>
+      </c>
+      <c r="K58" t="n">
+        <v>229</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C59" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D59" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E59" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>885.22</v>
       </c>
       <c r="G59" t="n">
-        <v>-31678.11380000002</v>
+        <v>-96868.39450000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,33 +2612,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>229</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C60" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D60" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E60" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F60" t="n">
-        <v>342.74</v>
+        <v>1250</v>
       </c>
       <c r="G60" t="n">
-        <v>-31678.11380000002</v>
+        <v>-95618.39450000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,33 +2654,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>229</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C61" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D61" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E61" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G61" t="n">
-        <v>-31688.11380000002</v>
+        <v>-94818.39450000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,68 +2696,82 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>229</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C62" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D62" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E62" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F62" t="n">
-        <v>160</v>
+        <v>31.7737</v>
       </c>
       <c r="G62" t="n">
-        <v>-31848.11380000002</v>
+        <v>-94850.16820000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>229</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C63" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D63" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E63" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F63" t="n">
-        <v>1012.9893</v>
+        <v>31.7737</v>
       </c>
       <c r="G63" t="n">
-        <v>-30835.12450000002</v>
+        <v>-94881.94190000003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,33 +2780,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>229</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C64" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D64" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E64" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F64" t="n">
-        <v>52</v>
+        <v>1904.9355</v>
       </c>
       <c r="G64" t="n">
-        <v>-30835.12450000002</v>
+        <v>-92977.00640000003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,33 +2822,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>229</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C65" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E65" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F65" t="n">
-        <v>112</v>
+        <v>145.5369</v>
       </c>
       <c r="G65" t="n">
-        <v>-30835.12450000002</v>
+        <v>-93122.54330000003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,33 +2864,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>229</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C66" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D66" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E66" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F66" t="n">
-        <v>5966.716</v>
+        <v>3664.7525</v>
       </c>
       <c r="G66" t="n">
-        <v>-36801.84050000002</v>
+        <v>-96787.29580000004</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,33 +2906,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>229</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C67" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D67" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E67" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F67" t="n">
-        <v>661</v>
+        <v>5545.805</v>
       </c>
       <c r="G67" t="n">
-        <v>-36140.84050000002</v>
+        <v>-96787.29580000004</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,33 +2948,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>229</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C68" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D68" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E68" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F68" t="n">
-        <v>2648.5574</v>
+        <v>3250</v>
       </c>
       <c r="G68" t="n">
-        <v>-38789.39790000002</v>
+        <v>-93537.29580000004</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,33 +2990,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>229</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C69" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D69" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E69" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>7814.7038</v>
       </c>
       <c r="G69" t="n">
-        <v>-38789.39790000002</v>
+        <v>-101351.9996</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +3032,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>229</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C70" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D70" t="n">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E70" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F70" t="n">
-        <v>570</v>
+        <v>330.7748</v>
       </c>
       <c r="G70" t="n">
-        <v>-38789.39790000002</v>
+        <v>-101351.9996</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +3074,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>229</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C71" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D71" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E71" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F71" t="n">
-        <v>500</v>
+        <v>727.285</v>
       </c>
       <c r="G71" t="n">
-        <v>-38289.39790000002</v>
+        <v>-100624.7146</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +3116,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>229</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C72" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D72" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E72" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F72" t="n">
-        <v>5592.4025</v>
+        <v>1342.4368</v>
       </c>
       <c r="G72" t="n">
-        <v>-43881.80040000002</v>
+        <v>-100624.7146</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,138 +3158,172 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>229</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C73" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D73" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E73" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F73" t="n">
-        <v>4035.2971</v>
+        <v>1020.0593</v>
       </c>
       <c r="G73" t="n">
-        <v>-47917.09750000002</v>
+        <v>-101644.7739</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>231</v>
+      </c>
+      <c r="K73" t="n">
+        <v>229</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C74" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D74" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E74" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F74" t="n">
-        <v>500</v>
+        <v>4.4508</v>
       </c>
       <c r="G74" t="n">
-        <v>-47417.09750000002</v>
+        <v>-101640.3231</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>230</v>
+      </c>
+      <c r="K74" t="n">
+        <v>229</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C75" t="n">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D75" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E75" t="n">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F75" t="n">
-        <v>750</v>
+        <v>36547.3698</v>
       </c>
       <c r="G75" t="n">
-        <v>-46667.09750000002</v>
+        <v>-138187.6929</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>232</v>
+      </c>
+      <c r="K75" t="n">
+        <v>229</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C76" t="n">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D76" t="n">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E76" t="n">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F76" t="n">
-        <v>500</v>
+        <v>2120</v>
       </c>
       <c r="G76" t="n">
-        <v>-46667.09750000002</v>
+        <v>-136067.6929</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,33 +3332,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>229</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C77" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D77" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E77" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F77" t="n">
-        <v>5047.8908</v>
+        <v>8021.0461</v>
       </c>
       <c r="G77" t="n">
-        <v>-51714.98830000002</v>
+        <v>-128046.6468</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,33 +3374,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>229</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C78" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D78" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E78" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F78" t="n">
-        <v>500</v>
+        <v>1256.336</v>
       </c>
       <c r="G78" t="n">
-        <v>-51714.98830000002</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,72 +3416,82 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>229</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C79" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D79" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E79" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F79" t="n">
-        <v>180.73</v>
+        <v>28.9227</v>
       </c>
       <c r="G79" t="n">
-        <v>-51895.71830000002</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>237</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>237</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
+        <v>229</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C80" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E80" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F80" t="n">
-        <v>2124.06</v>
+        <v>155.4724</v>
       </c>
       <c r="G80" t="n">
-        <v>-54019.77830000002</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,38 +3501,39 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C81" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E81" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F81" t="n">
-        <v>168.2354</v>
+        <v>500</v>
       </c>
       <c r="G81" t="n">
-        <v>-54019.77830000002</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,7 +3543,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3243,28 +3553,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C82" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E82" t="n">
         <v>229</v>
       </c>
       <c r="F82" t="n">
-        <v>8472.379199999999</v>
+        <v>603.3323</v>
       </c>
       <c r="G82" t="n">
-        <v>-62492.15750000002</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3274,7 +3585,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3284,6 +3595,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3293,31 +3605,29 @@
         <v>229</v>
       </c>
       <c r="C83" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" t="n">
         <v>229</v>
       </c>
       <c r="E83" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F83" t="n">
-        <v>11335.4655</v>
+        <v>741.1953</v>
       </c>
       <c r="G83" t="n">
-        <v>-73827.62300000002</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>230</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3327,40 +3637,39 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C84" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D84" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E84" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F84" t="n">
-        <v>1534.3443</v>
+        <v>500</v>
       </c>
       <c r="G84" t="n">
-        <v>-73827.62300000002</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>228</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3370,28 +3679,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C85" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D85" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E85" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F85" t="n">
-        <v>1650</v>
+        <v>202.2803</v>
       </c>
       <c r="G85" t="n">
-        <v>-73827.62300000002</v>
+        <v>-129302.9828</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -3400,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K85" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3413,28 +3723,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C86" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D86" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E86" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F86" t="n">
-        <v>2739.7902</v>
+        <v>1984.1746</v>
       </c>
       <c r="G86" t="n">
-        <v>-73827.62300000002</v>
+        <v>-127318.8082</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -3443,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K86" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3456,6 +3767,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3474,10 +3786,10 @@
         <v>230</v>
       </c>
       <c r="F87" t="n">
-        <v>4.6345</v>
+        <v>250</v>
       </c>
       <c r="G87" t="n">
-        <v>-73822.98850000002</v>
+        <v>-127568.8082</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3486,10 +3798,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K87" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3499,38 +3811,41 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C88" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D88" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E88" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F88" t="n">
-        <v>58.1123</v>
+        <v>250</v>
       </c>
       <c r="G88" t="n">
-        <v>-73881.10080000001</v>
+        <v>-127318.8082</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>230</v>
+      </c>
       <c r="K88" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3540,38 +3855,41 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C89" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D89" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E89" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F89" t="n">
-        <v>1268.59</v>
+        <v>1003.5965</v>
       </c>
       <c r="G89" t="n">
-        <v>-73881.10080000001</v>
+        <v>-128322.4047</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>231</v>
+      </c>
       <c r="K89" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3581,38 +3899,41 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C90" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D90" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E90" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F90" t="n">
-        <v>1400</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>-73881.10080000001</v>
+        <v>-128312.4047</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>230</v>
+      </c>
       <c r="K90" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3622,38 +3943,41 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C91" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D91" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E91" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F91" t="n">
-        <v>6245.9101</v>
+        <v>184.9568</v>
       </c>
       <c r="G91" t="n">
-        <v>-80127.01090000001</v>
+        <v>-128497.3615</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>232</v>
+      </c>
       <c r="K91" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3663,38 +3987,41 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C92" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D92" t="n">
         <v>228</v>
       </c>
       <c r="E92" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F92" t="n">
-        <v>30107.1861</v>
+        <v>127.0922</v>
       </c>
       <c r="G92" t="n">
-        <v>-110234.197</v>
+        <v>-128624.4537</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>229</v>
+      </c>
       <c r="K92" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3704,38 +4031,41 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C93" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D93" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E93" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F93" t="n">
-        <v>8479.0718</v>
+        <v>1825</v>
       </c>
       <c r="G93" t="n">
-        <v>-118713.2688</v>
+        <v>-126799.4537</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>228</v>
+      </c>
       <c r="K93" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3745,38 +4075,41 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C94" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D94" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E94" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F94" t="n">
-        <v>1831.6752</v>
+        <v>2500</v>
       </c>
       <c r="G94" t="n">
-        <v>-118713.2688</v>
+        <v>-124299.4537</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>231</v>
+      </c>
       <c r="K94" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3786,38 +4119,41 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C95" t="n">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D95" t="n">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E95" t="n">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F95" t="n">
-        <v>8625.4354</v>
+        <v>6951</v>
       </c>
       <c r="G95" t="n">
-        <v>-110087.8334</v>
+        <v>-117348.4537</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>232</v>
+      </c>
       <c r="K95" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3827,38 +4163,41 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C96" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D96" t="n">
         <v>230</v>
       </c>
       <c r="E96" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F96" t="n">
-        <v>15789.666</v>
+        <v>3831.5851</v>
       </c>
       <c r="G96" t="n">
-        <v>-94298.16740000002</v>
+        <v>-121180.0388</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>235</v>
+      </c>
       <c r="K96" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3868,6 +4207,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3886,20 +4226,22 @@
         <v>230</v>
       </c>
       <c r="F97" t="n">
-        <v>334.4779</v>
+        <v>1000</v>
       </c>
       <c r="G97" t="n">
-        <v>-93963.68950000002</v>
+        <v>-121180.0388</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>230</v>
+      </c>
       <c r="K97" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3909,38 +4251,41 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C98" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D98" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E98" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F98" t="n">
-        <v>3408.1056</v>
+        <v>5626.4452</v>
       </c>
       <c r="G98" t="n">
-        <v>-97371.79510000002</v>
+        <v>-121180.0388</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>230</v>
+      </c>
       <c r="K98" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -3950,28 +4295,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C99" t="n">
         <v>230</v>
       </c>
       <c r="D99" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E99" t="n">
         <v>230</v>
       </c>
       <c r="F99" t="n">
-        <v>503.4006</v>
+        <v>2.7818</v>
       </c>
       <c r="G99" t="n">
-        <v>-96868.39450000002</v>
+        <v>-121180.0388</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -3980,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K99" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -3993,38 +4339,41 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C100" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D100" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E100" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F100" t="n">
-        <v>117.8512</v>
+        <v>888.503</v>
       </c>
       <c r="G100" t="n">
-        <v>-96868.39450000002</v>
+        <v>-122068.5418</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>230</v>
+      </c>
       <c r="K100" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4034,38 +4383,41 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C101" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D101" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E101" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F101" t="n">
-        <v>885.22</v>
+        <v>2400</v>
       </c>
       <c r="G101" t="n">
-        <v>-96868.39450000002</v>
+        <v>-122068.5418</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>229</v>
+      </c>
       <c r="K101" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4075,6 +4427,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4084,29 +4437,31 @@
         <v>230</v>
       </c>
       <c r="C102" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D102" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E102" t="n">
         <v>230</v>
       </c>
       <c r="F102" t="n">
-        <v>1250</v>
+        <v>5534</v>
       </c>
       <c r="G102" t="n">
-        <v>-95618.39450000002</v>
+        <v>-116534.5418</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>229</v>
+      </c>
       <c r="K102" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4116,6 +4471,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4125,29 +4481,31 @@
         <v>234</v>
       </c>
       <c r="C103" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D103" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E103" t="n">
         <v>234</v>
       </c>
       <c r="F103" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="G103" t="n">
-        <v>-94818.39450000002</v>
+        <v>-116284.5418</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>233</v>
+      </c>
       <c r="K103" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4157,38 +4515,41 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>231</v>
+      </c>
+      <c r="C104" t="n">
+        <v>231</v>
+      </c>
+      <c r="D104" t="n">
+        <v>231</v>
+      </c>
+      <c r="E104" t="n">
+        <v>231</v>
+      </c>
+      <c r="F104" t="n">
+        <v>147.959</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-116432.5008</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
         <v>234</v>
       </c>
-      <c r="C104" t="n">
-        <v>234</v>
-      </c>
-      <c r="D104" t="n">
-        <v>234</v>
-      </c>
-      <c r="E104" t="n">
-        <v>234</v>
-      </c>
-      <c r="F104" t="n">
-        <v>31.7737</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-94850.16820000003</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4198,38 +4559,41 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>233</v>
+      </c>
+      <c r="C105" t="n">
         <v>234</v>
-      </c>
-      <c r="C105" t="n">
-        <v>228</v>
       </c>
       <c r="D105" t="n">
         <v>234</v>
       </c>
       <c r="E105" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F105" t="n">
-        <v>31.7737</v>
+        <v>2657</v>
       </c>
       <c r="G105" t="n">
-        <v>-94881.94190000003</v>
+        <v>-113775.5008</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>231</v>
+      </c>
       <c r="K105" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4239,28 +4603,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C106" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D106" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E106" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F106" t="n">
-        <v>1904.9355</v>
+        <v>1500</v>
       </c>
       <c r="G106" t="n">
-        <v>-92977.00640000003</v>
+        <v>-113775.5008</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4270,7 +4635,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4280,28 +4645,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C107" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D107" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E107" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F107" t="n">
-        <v>145.5369</v>
+        <v>5500</v>
       </c>
       <c r="G107" t="n">
-        <v>-93122.54330000003</v>
+        <v>-108275.5008</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4311,7 +4677,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4321,28 +4687,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C108" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D108" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E108" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F108" t="n">
-        <v>3664.7525</v>
+        <v>10103</v>
       </c>
       <c r="G108" t="n">
-        <v>-96787.29580000004</v>
+        <v>-98172.50080000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4352,7 +4719,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4362,28 +4729,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C109" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D109" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E109" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F109" t="n">
-        <v>5545.805</v>
+        <v>2540</v>
       </c>
       <c r="G109" t="n">
-        <v>-96787.29580000004</v>
+        <v>-95632.50080000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4393,7 +4761,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4403,28 +4771,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C110" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D110" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E110" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F110" t="n">
-        <v>3250</v>
+        <v>250</v>
       </c>
       <c r="G110" t="n">
-        <v>-93537.29580000004</v>
+        <v>-95632.50080000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4434,7 +4803,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4444,28 +4813,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C111" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D111" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E111" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F111" t="n">
-        <v>7814.7038</v>
+        <v>250</v>
       </c>
       <c r="G111" t="n">
-        <v>-101351.9996</v>
+        <v>-95632.50080000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4475,7 +4845,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4485,28 +4855,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C112" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D112" t="n">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E112" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F112" t="n">
-        <v>330.7748</v>
+        <v>3373</v>
       </c>
       <c r="G112" t="n">
-        <v>-101351.9996</v>
+        <v>-92259.50080000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4516,7 +4887,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4526,28 +4897,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C113" t="n">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D113" t="n">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E113" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F113" t="n">
-        <v>727.285</v>
+        <v>4288</v>
       </c>
       <c r="G113" t="n">
-        <v>-100624.7146</v>
+        <v>-87971.50080000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4557,7 +4929,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4567,28 +4939,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C114" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D114" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E114" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F114" t="n">
-        <v>1342.4368</v>
+        <v>262.26</v>
       </c>
       <c r="G114" t="n">
-        <v>-100624.7146</v>
+        <v>-88233.7608</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4598,7 +4971,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4608,28 +4981,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C115" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D115" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E115" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F115" t="n">
-        <v>1020.0593</v>
+        <v>300</v>
       </c>
       <c r="G115" t="n">
-        <v>-101644.7739</v>
+        <v>-88533.7608</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4639,7 +5013,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4649,6 +5023,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4667,10 +5042,10 @@
         <v>232</v>
       </c>
       <c r="F116" t="n">
-        <v>4.4508</v>
+        <v>262.2595</v>
       </c>
       <c r="G116" t="n">
-        <v>-101640.3231</v>
+        <v>-88796.0203</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4680,7 +5055,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4690,28 +5065,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C117" t="n">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D117" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E117" t="n">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F117" t="n">
-        <v>36547.3698</v>
+        <v>1072.9016</v>
       </c>
       <c r="G117" t="n">
-        <v>-138187.6929</v>
+        <v>-89868.9219</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4721,7 +5097,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4731,28 +5107,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C118" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D118" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E118" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F118" t="n">
-        <v>2120</v>
+        <v>2471.073</v>
       </c>
       <c r="G118" t="n">
-        <v>-136067.6929</v>
+        <v>-89868.9219</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4762,7 +5139,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4772,28 +5149,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C119" t="n">
         <v>231</v>
       </c>
       <c r="D119" t="n">
+        <v>232</v>
+      </c>
+      <c r="E119" t="n">
         <v>231</v>
       </c>
-      <c r="E119" t="n">
-        <v>228</v>
-      </c>
       <c r="F119" t="n">
-        <v>8021.0461</v>
+        <v>424.8389</v>
       </c>
       <c r="G119" t="n">
-        <v>-128046.6468</v>
+        <v>-89868.9219</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4803,7 +5181,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4813,28 +5191,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C120" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D120" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E120" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F120" t="n">
-        <v>1256.336</v>
+        <v>750</v>
       </c>
       <c r="G120" t="n">
-        <v>-129302.9828</v>
+        <v>-89868.9219</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4844,7 +5223,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4854,28 +5233,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C121" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D121" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E121" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F121" t="n">
-        <v>28.9227</v>
+        <v>862.0689</v>
       </c>
       <c r="G121" t="n">
-        <v>-129302.9828</v>
+        <v>-89006.853</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4885,7 +5265,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4895,1728 +5275,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>229</v>
-      </c>
-      <c r="C122" t="n">
-        <v>229</v>
-      </c>
-      <c r="D122" t="n">
-        <v>229</v>
-      </c>
-      <c r="E122" t="n">
-        <v>229</v>
-      </c>
-      <c r="F122" t="n">
-        <v>155.4724</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>237</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>229</v>
-      </c>
-      <c r="C123" t="n">
-        <v>229</v>
-      </c>
-      <c r="D123" t="n">
-        <v>229</v>
-      </c>
-      <c r="E123" t="n">
-        <v>229</v>
-      </c>
-      <c r="F123" t="n">
-        <v>500</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>237</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>229</v>
-      </c>
-      <c r="C124" t="n">
-        <v>229</v>
-      </c>
-      <c r="D124" t="n">
-        <v>229</v>
-      </c>
-      <c r="E124" t="n">
-        <v>229</v>
-      </c>
-      <c r="F124" t="n">
-        <v>603.3323</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>237</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>229</v>
-      </c>
-      <c r="C125" t="n">
-        <v>229</v>
-      </c>
-      <c r="D125" t="n">
-        <v>229</v>
-      </c>
-      <c r="E125" t="n">
-        <v>229</v>
-      </c>
-      <c r="F125" t="n">
-        <v>741.1953</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>237</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>229</v>
-      </c>
-      <c r="C126" t="n">
-        <v>229</v>
-      </c>
-      <c r="D126" t="n">
-        <v>229</v>
-      </c>
-      <c r="E126" t="n">
-        <v>229</v>
-      </c>
-      <c r="F126" t="n">
-        <v>500</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>237</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>229</v>
-      </c>
-      <c r="C127" t="n">
-        <v>229</v>
-      </c>
-      <c r="D127" t="n">
-        <v>229</v>
-      </c>
-      <c r="E127" t="n">
-        <v>229</v>
-      </c>
-      <c r="F127" t="n">
-        <v>202.2803</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>237</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>229</v>
-      </c>
-      <c r="C128" t="n">
-        <v>231</v>
-      </c>
-      <c r="D128" t="n">
-        <v>231</v>
-      </c>
-      <c r="E128" t="n">
-        <v>229</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1984.1746</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-127318.8082</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>237</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>230</v>
-      </c>
-      <c r="C129" t="n">
-        <v>230</v>
-      </c>
-      <c r="D129" t="n">
-        <v>230</v>
-      </c>
-      <c r="E129" t="n">
-        <v>230</v>
-      </c>
-      <c r="F129" t="n">
-        <v>250</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-127568.8082</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>237</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>230</v>
-      </c>
-      <c r="C130" t="n">
-        <v>231</v>
-      </c>
-      <c r="D130" t="n">
-        <v>231</v>
-      </c>
-      <c r="E130" t="n">
-        <v>230</v>
-      </c>
-      <c r="F130" t="n">
-        <v>250</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-127318.8082</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>237</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>230</v>
-      </c>
-      <c r="C131" t="n">
-        <v>230</v>
-      </c>
-      <c r="D131" t="n">
-        <v>230</v>
-      </c>
-      <c r="E131" t="n">
-        <v>230</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1003.5965</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-128322.4047</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>237</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>232</v>
-      </c>
-      <c r="C132" t="n">
-        <v>232</v>
-      </c>
-      <c r="D132" t="n">
-        <v>232</v>
-      </c>
-      <c r="E132" t="n">
-        <v>232</v>
-      </c>
-      <c r="F132" t="n">
-        <v>10</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-128312.4047</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>237</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>229</v>
-      </c>
-      <c r="C133" t="n">
-        <v>229</v>
-      </c>
-      <c r="D133" t="n">
-        <v>229</v>
-      </c>
-      <c r="E133" t="n">
-        <v>229</v>
-      </c>
-      <c r="F133" t="n">
-        <v>184.9568</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-128497.3615</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>237</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>228</v>
-      </c>
-      <c r="C134" t="n">
-        <v>228</v>
-      </c>
-      <c r="D134" t="n">
-        <v>228</v>
-      </c>
-      <c r="E134" t="n">
-        <v>228</v>
-      </c>
-      <c r="F134" t="n">
-        <v>127.0922</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-128624.4537</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>237</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>229</v>
-      </c>
-      <c r="C135" t="n">
-        <v>231</v>
-      </c>
-      <c r="D135" t="n">
-        <v>231</v>
-      </c>
-      <c r="E135" t="n">
-        <v>229</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1825</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-126799.4537</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>237</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>231</v>
-      </c>
-      <c r="C136" t="n">
-        <v>232</v>
-      </c>
-      <c r="D136" t="n">
-        <v>232</v>
-      </c>
-      <c r="E136" t="n">
-        <v>231</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-124299.4537</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>237</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>232</v>
-      </c>
-      <c r="C137" t="n">
-        <v>235</v>
-      </c>
-      <c r="D137" t="n">
-        <v>235</v>
-      </c>
-      <c r="E137" t="n">
-        <v>232</v>
-      </c>
-      <c r="F137" t="n">
-        <v>6951</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-117348.4537</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>237</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>230</v>
-      </c>
-      <c r="C138" t="n">
-        <v>230</v>
-      </c>
-      <c r="D138" t="n">
-        <v>230</v>
-      </c>
-      <c r="E138" t="n">
-        <v>230</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3831.5851</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-121180.0388</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>237</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>230</v>
-      </c>
-      <c r="C139" t="n">
-        <v>230</v>
-      </c>
-      <c r="D139" t="n">
-        <v>230</v>
-      </c>
-      <c r="E139" t="n">
-        <v>230</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-121180.0388</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>237</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>230</v>
-      </c>
-      <c r="C140" t="n">
-        <v>230</v>
-      </c>
-      <c r="D140" t="n">
-        <v>230</v>
-      </c>
-      <c r="E140" t="n">
-        <v>229</v>
-      </c>
-      <c r="F140" t="n">
-        <v>5626.4452</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-121180.0388</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>237</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>230</v>
-      </c>
-      <c r="C141" t="n">
-        <v>230</v>
-      </c>
-      <c r="D141" t="n">
-        <v>230</v>
-      </c>
-      <c r="E141" t="n">
-        <v>230</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2.7818</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-121180.0388</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>237</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>229</v>
-      </c>
-      <c r="C142" t="n">
-        <v>229</v>
-      </c>
-      <c r="D142" t="n">
-        <v>229</v>
-      </c>
-      <c r="E142" t="n">
-        <v>229</v>
-      </c>
-      <c r="F142" t="n">
-        <v>888.503</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-122068.5418</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>237</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>229</v>
-      </c>
-      <c r="C143" t="n">
-        <v>229</v>
-      </c>
-      <c r="D143" t="n">
-        <v>229</v>
-      </c>
-      <c r="E143" t="n">
-        <v>229</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2400</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-122068.5418</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>237</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>230</v>
-      </c>
-      <c r="C144" t="n">
-        <v>233</v>
-      </c>
-      <c r="D144" t="n">
-        <v>233</v>
-      </c>
-      <c r="E144" t="n">
-        <v>230</v>
-      </c>
-      <c r="F144" t="n">
-        <v>5534</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-116534.5418</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>237</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>234</v>
-      </c>
-      <c r="C145" t="n">
-        <v>234</v>
-      </c>
-      <c r="D145" t="n">
-        <v>234</v>
-      </c>
-      <c r="E145" t="n">
-        <v>234</v>
-      </c>
-      <c r="F145" t="n">
-        <v>250</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-116284.5418</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>237</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>231</v>
-      </c>
-      <c r="C146" t="n">
-        <v>231</v>
-      </c>
-      <c r="D146" t="n">
-        <v>231</v>
-      </c>
-      <c r="E146" t="n">
-        <v>231</v>
-      </c>
-      <c r="F146" t="n">
-        <v>147.959</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-116432.5008</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>237</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>233</v>
-      </c>
-      <c r="C147" t="n">
-        <v>234</v>
-      </c>
-      <c r="D147" t="n">
-        <v>234</v>
-      </c>
-      <c r="E147" t="n">
-        <v>233</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2657</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-113775.5008</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>237</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>234</v>
-      </c>
-      <c r="C148" t="n">
-        <v>234</v>
-      </c>
-      <c r="D148" t="n">
-        <v>234</v>
-      </c>
-      <c r="E148" t="n">
-        <v>234</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-113775.5008</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>237</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>234</v>
-      </c>
-      <c r="C149" t="n">
-        <v>235</v>
-      </c>
-      <c r="D149" t="n">
-        <v>235</v>
-      </c>
-      <c r="E149" t="n">
-        <v>234</v>
-      </c>
-      <c r="F149" t="n">
-        <v>5500</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-108275.5008</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>237</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>235</v>
-      </c>
-      <c r="C150" t="n">
-        <v>237</v>
-      </c>
-      <c r="D150" t="n">
-        <v>237</v>
-      </c>
-      <c r="E150" t="n">
-        <v>235</v>
-      </c>
-      <c r="F150" t="n">
-        <v>10103</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-98172.50080000001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>237</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>237</v>
-      </c>
-      <c r="C151" t="n">
-        <v>239</v>
-      </c>
-      <c r="D151" t="n">
-        <v>239</v>
-      </c>
-      <c r="E151" t="n">
-        <v>237</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2540</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-95632.50080000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>237</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>239</v>
-      </c>
-      <c r="C152" t="n">
-        <v>239</v>
-      </c>
-      <c r="D152" t="n">
-        <v>239</v>
-      </c>
-      <c r="E152" t="n">
-        <v>239</v>
-      </c>
-      <c r="F152" t="n">
-        <v>250</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-95632.50080000001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>237</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>239</v>
-      </c>
-      <c r="C153" t="n">
-        <v>239</v>
-      </c>
-      <c r="D153" t="n">
-        <v>239</v>
-      </c>
-      <c r="E153" t="n">
-        <v>239</v>
-      </c>
-      <c r="F153" t="n">
-        <v>250</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-95632.50080000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>237</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>239</v>
-      </c>
-      <c r="C154" t="n">
-        <v>240</v>
-      </c>
-      <c r="D154" t="n">
-        <v>240</v>
-      </c>
-      <c r="E154" t="n">
-        <v>239</v>
-      </c>
-      <c r="F154" t="n">
-        <v>3373</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-92259.50080000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>237</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>240</v>
-      </c>
-      <c r="C155" t="n">
-        <v>241</v>
-      </c>
-      <c r="D155" t="n">
-        <v>241</v>
-      </c>
-      <c r="E155" t="n">
-        <v>240</v>
-      </c>
-      <c r="F155" t="n">
-        <v>4288</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-87971.50080000001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>237</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>236</v>
-      </c>
-      <c r="C156" t="n">
-        <v>235</v>
-      </c>
-      <c r="D156" t="n">
-        <v>236</v>
-      </c>
-      <c r="E156" t="n">
-        <v>235</v>
-      </c>
-      <c r="F156" t="n">
-        <v>262.26</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-88233.7608</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>237</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>235</v>
-      </c>
-      <c r="C157" t="n">
-        <v>233</v>
-      </c>
-      <c r="D157" t="n">
-        <v>235</v>
-      </c>
-      <c r="E157" t="n">
-        <v>233</v>
-      </c>
-      <c r="F157" t="n">
-        <v>300</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-88533.7608</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>237</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>232</v>
-      </c>
-      <c r="C158" t="n">
-        <v>232</v>
-      </c>
-      <c r="D158" t="n">
-        <v>232</v>
-      </c>
-      <c r="E158" t="n">
-        <v>232</v>
-      </c>
-      <c r="F158" t="n">
-        <v>262.2595</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-88796.0203</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>237</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>232</v>
-      </c>
-      <c r="C159" t="n">
-        <v>231</v>
-      </c>
-      <c r="D159" t="n">
-        <v>232</v>
-      </c>
-      <c r="E159" t="n">
-        <v>231</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1072.9016</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-89868.9219</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>237</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>231</v>
-      </c>
-      <c r="C160" t="n">
-        <v>231</v>
-      </c>
-      <c r="D160" t="n">
-        <v>232</v>
-      </c>
-      <c r="E160" t="n">
-        <v>231</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2471.073</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-89868.9219</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>237</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>232</v>
-      </c>
-      <c r="C161" t="n">
-        <v>231</v>
-      </c>
-      <c r="D161" t="n">
-        <v>232</v>
-      </c>
-      <c r="E161" t="n">
-        <v>231</v>
-      </c>
-      <c r="F161" t="n">
-        <v>424.8389</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-89868.9219</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>237</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>231</v>
-      </c>
-      <c r="C162" t="n">
-        <v>231</v>
-      </c>
-      <c r="D162" t="n">
-        <v>231</v>
-      </c>
-      <c r="E162" t="n">
-        <v>231</v>
-      </c>
-      <c r="F162" t="n">
-        <v>750</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-89868.9219</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>237</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>232</v>
-      </c>
-      <c r="C163" t="n">
-        <v>232</v>
-      </c>
-      <c r="D163" t="n">
-        <v>232</v>
-      </c>
-      <c r="E163" t="n">
-        <v>232</v>
-      </c>
-      <c r="F163" t="n">
-        <v>862.0689</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-89006.853</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>237</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-14 BackTest ABT.xlsx
+++ b/BackTest/2019-11-14 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N192"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>6442.007099999994</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>5753.547399999994</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>1593.019599999994</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>1593.019599999994</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>1515.646299999994</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>1590.397599999994</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>190.3975999999941</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>190.3975999999941</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-309.6024000000059</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>22.88079999999411</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-2.11920000000589</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>247.8807999999941</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-1522.988700000006</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-1498.323300000006</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-2340.743300000006</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-3130.482800000006</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-1497.716800000006</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-1886.203000000006</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-6356.052800000006</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-15762.59000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-16435.71710000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-17821.91130000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-15035.68020000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-15035.68020000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-21077.14300000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-21075.04300000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-20468.52470000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-19567.59720000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-12347.43420000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-15927.72860000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-15789.72860000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-15789.72860000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-17103.56330000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-18616.56330000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-18616.56330000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-19509.45470000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-19218.13840000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-18718.13840000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-18562.05090000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-18575.37090000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-18586.49090000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-21745.60910000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-24436.70210000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-25211.27800000001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-25043.53250000001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-36195.08380000002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-34616.08380000002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-32616.08380000002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-32678.11380000002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-31678.11380000002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-31678.11380000002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-31688.11380000002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-31848.11380000002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-30835.12450000002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-30835.12450000002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-30835.12450000002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-36801.84050000002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-36140.84050000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>-51714.98830000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>-51714.98830000002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>-51895.71830000002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6000,18 +5533,19 @@
         <v>-129302.9828</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>229</v>
+      </c>
+      <c r="J156" t="n">
+        <v>229</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +5570,23 @@
         <v>-127318.8082</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>229</v>
+      </c>
+      <c r="J157" t="n">
+        <v>229</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6072,22 +5611,21 @@
         <v>-127568.8082</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>231</v>
-      </c>
-      <c r="K158" t="n">
-        <v>231</v>
-      </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>229</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6112,26 +5650,21 @@
         <v>-127318.8082</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>230</v>
-      </c>
-      <c r="K159" t="n">
-        <v>231</v>
-      </c>
-      <c r="L159" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6156,26 +5689,21 @@
         <v>-128322.4047</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>231</v>
-      </c>
-      <c r="K160" t="n">
-        <v>231</v>
-      </c>
-      <c r="L160" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6200,26 +5728,21 @@
         <v>-128312.4047</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>230</v>
-      </c>
-      <c r="K161" t="n">
-        <v>231</v>
-      </c>
-      <c r="L161" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6244,26 +5767,21 @@
         <v>-128497.3615</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>232</v>
-      </c>
-      <c r="K162" t="n">
-        <v>231</v>
-      </c>
-      <c r="L162" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6288,26 +5806,23 @@
         <v>-128624.4537</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="J163" t="n">
         <v>229</v>
       </c>
-      <c r="K163" t="n">
-        <v>231</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6332,26 +5847,23 @@
         <v>-126799.4537</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="J164" t="n">
-        <v>228</v>
-      </c>
-      <c r="K164" t="n">
-        <v>231</v>
-      </c>
-      <c r="L164" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6376,26 +5888,23 @@
         <v>-124299.4537</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="J165" t="n">
-        <v>231</v>
-      </c>
-      <c r="K165" t="n">
-        <v>231</v>
-      </c>
-      <c r="L165" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6420,26 +5929,23 @@
         <v>-117348.4537</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="J166" t="n">
-        <v>232</v>
-      </c>
-      <c r="K166" t="n">
-        <v>231</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6464,26 +5970,21 @@
         <v>-121180.0388</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>235</v>
-      </c>
-      <c r="K167" t="n">
-        <v>231</v>
-      </c>
-      <c r="L167" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6508,26 +6009,21 @@
         <v>-121180.0388</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>230</v>
-      </c>
-      <c r="K168" t="n">
-        <v>231</v>
-      </c>
-      <c r="L168" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6554,22 +6050,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>231</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>229</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6594,24 +6087,23 @@
         <v>-121180.0388</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>231</v>
-      </c>
-      <c r="L170" t="inlineStr">
+        <v>230</v>
+      </c>
+      <c r="J170" t="n">
+        <v>229</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6636,24 +6128,23 @@
         <v>-122068.5418</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>231</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>230</v>
+      </c>
+      <c r="J171" t="n">
+        <v>229</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6680,22 +6171,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>231</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>229</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6722,22 +6210,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>231</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>229</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6764,22 +6249,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>231</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>229</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6806,22 +6288,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>231</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>229</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6848,22 +6327,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>231</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>229</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6890,22 +6366,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>231</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>229</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6932,22 +6405,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>231</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>229</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6974,22 +6444,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>231</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>229</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7014,24 +6481,23 @@
         <v>-95632.50080000001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>231</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>237</v>
+      </c>
+      <c r="J180" t="n">
+        <v>229</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7058,22 +6524,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>231</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>229</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7100,22 +6563,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>231</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>229</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7142,22 +6602,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>231</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>229</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7184,22 +6641,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>231</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>229</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7226,22 +6680,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>231</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>229</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7268,22 +6719,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>231</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>229</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7310,22 +6758,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>231</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>229</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7350,24 +6795,23 @@
         <v>-89868.9219</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>231</v>
-      </c>
-      <c r="L188" t="inlineStr">
+        <v>232</v>
+      </c>
+      <c r="J188" t="n">
+        <v>229</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7392,26 +6836,21 @@
         <v>-89868.9219</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>231</v>
-      </c>
-      <c r="K189" t="n">
-        <v>231</v>
-      </c>
-      <c r="L189" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7436,26 +6875,21 @@
         <v>-89868.9219</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>231</v>
-      </c>
-      <c r="K190" t="n">
-        <v>231</v>
-      </c>
-      <c r="L190" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7480,26 +6914,21 @@
         <v>-89868.9219</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>231</v>
-      </c>
-      <c r="K191" t="n">
-        <v>231</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7524,28 +6953,23 @@
         <v>-89006.853</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>231</v>
-      </c>
-      <c r="K192" t="n">
-        <v>231</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>229</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest ABT.xlsx
+++ b/BackTest/2019-11-14 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6442.007099999994</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5753.547399999994</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1593.019599999994</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1593.019599999994</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1515.646299999994</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1590.397599999994</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>190.3975999999941</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>190.3975999999941</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-309.6024000000059</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>22.88079999999411</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2.11920000000589</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>247.8807999999941</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1522.988700000006</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1498.323300000006</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2340.743300000006</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3130.482800000006</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1497.716800000006</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1886.203000000006</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-6356.052800000006</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-15762.59000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-16435.71710000001</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-17821.91130000001</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-15035.68020000001</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-15035.68020000001</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-21077.14300000001</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-21075.04300000001</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-20468.52470000001</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-19567.59720000001</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-12347.43420000001</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-15927.72860000001</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-15789.72860000001</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-15789.72860000001</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-17103.56330000001</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-18616.56330000001</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-18616.56330000001</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-19509.45470000001</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-19218.13840000001</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-18718.13840000001</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-18562.05090000001</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-18575.37090000001</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-18586.49090000001</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-21745.60910000001</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-24436.70210000001</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-25211.27800000001</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-25043.53250000001</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-36195.08380000002</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-34616.08380000002</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-32616.08380000002</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-32678.11380000002</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-31678.11380000002</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-31678.11380000002</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-31688.11380000002</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-31848.11380000002</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-30835.12450000002</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-30835.12450000002</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-30835.12450000002</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-36801.84050000002</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-36140.84050000002</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-51714.98830000002</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-51714.98830000002</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-51895.71830000002</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -5368,10 +5368,14 @@
         <v>-129302.9828</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>229</v>
+      </c>
+      <c r="J151" t="n">
+        <v>229</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5401,11 +5405,19 @@
         <v>-129302.9828</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>229</v>
+      </c>
+      <c r="J152" t="n">
+        <v>229</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5446,19 @@
         <v>-129302.9828</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>229</v>
+      </c>
+      <c r="J153" t="n">
+        <v>229</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,10 +5487,14 @@
         <v>-129302.9828</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>229</v>
+      </c>
+      <c r="J154" t="n">
+        <v>229</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
@@ -5500,11 +5524,19 @@
         <v>-129302.9828</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>229</v>
+      </c>
+      <c r="J155" t="n">
+        <v>229</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5565,7 @@
         <v>-129302.9828</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>229</v>
@@ -5541,7 +5573,11 @@
       <c r="J156" t="n">
         <v>229</v>
       </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5606,7 @@
         <v>-127318.8082</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>229</v>
@@ -5611,9 +5647,11 @@
         <v>-127568.8082</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>231</v>
+      </c>
       <c r="J158" t="n">
         <v>229</v>
       </c>
@@ -5650,9 +5688,11 @@
         <v>-127318.8082</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>230</v>
+      </c>
       <c r="J159" t="n">
         <v>229</v>
       </c>
@@ -5689,9 +5729,11 @@
         <v>-128322.4047</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>231</v>
+      </c>
       <c r="J160" t="n">
         <v>229</v>
       </c>
@@ -5728,9 +5770,11 @@
         <v>-128312.4047</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>230</v>
+      </c>
       <c r="J161" t="n">
         <v>229</v>
       </c>
@@ -5767,9 +5811,11 @@
         <v>-128497.3615</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>232</v>
+      </c>
       <c r="J162" t="n">
         <v>229</v>
       </c>
@@ -5806,7 +5852,7 @@
         <v>-128624.4537</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>229</v>
@@ -5847,7 +5893,7 @@
         <v>-126799.4537</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>228</v>
@@ -5888,7 +5934,7 @@
         <v>-124299.4537</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>231</v>
@@ -5929,7 +5975,7 @@
         <v>-117348.4537</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>232</v>
@@ -5970,9 +6016,11 @@
         <v>-121180.0388</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>235</v>
+      </c>
       <c r="J167" t="n">
         <v>229</v>
       </c>
@@ -6009,9 +6057,11 @@
         <v>-121180.0388</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>230</v>
+      </c>
       <c r="J168" t="n">
         <v>229</v>
       </c>
@@ -6048,9 +6098,11 @@
         <v>-121180.0388</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>230</v>
+      </c>
       <c r="J169" t="n">
         <v>229</v>
       </c>
@@ -6087,11 +6139,9 @@
         <v>-121180.0388</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>229</v>
       </c>
@@ -6128,11 +6178,9 @@
         <v>-122068.5418</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>229</v>
       </c>
@@ -6364,9 +6412,11 @@
         <v>-113775.5008</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>234</v>
+      </c>
       <c r="J177" t="n">
         <v>229</v>
       </c>
@@ -6442,9 +6492,11 @@
         <v>-98172.50080000001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>235</v>
+      </c>
       <c r="J179" t="n">
         <v>229</v>
       </c>
@@ -6481,11 +6533,9 @@
         <v>-95632.50080000001</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>229</v>
       </c>
@@ -6522,9 +6572,11 @@
         <v>-95632.50080000001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>239</v>
+      </c>
       <c r="J181" t="n">
         <v>229</v>
       </c>
@@ -6600,9 +6652,11 @@
         <v>-92259.50080000001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>239</v>
+      </c>
       <c r="J183" t="n">
         <v>229</v>
       </c>
@@ -6678,9 +6732,11 @@
         <v>-88233.7608</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>241</v>
+      </c>
       <c r="J185" t="n">
         <v>229</v>
       </c>
@@ -6795,11 +6851,9 @@
         <v>-89868.9219</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>229</v>
       </c>
@@ -6875,9 +6929,11 @@
         <v>-89868.9219</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>231</v>
+      </c>
       <c r="J190" t="n">
         <v>229</v>
       </c>
@@ -6914,9 +6970,11 @@
         <v>-89868.9219</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>231</v>
+      </c>
       <c r="J191" t="n">
         <v>229</v>
       </c>
@@ -6953,9 +7011,11 @@
         <v>-89006.853</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>231</v>
+      </c>
       <c r="J192" t="n">
         <v>229</v>
       </c>
@@ -6970,6 +7030,6 @@
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest ABT.xlsx
+++ b/BackTest/2019-11-14 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6442.007099999994</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5753.547399999994</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1593.019599999994</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1593.019599999994</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1515.646299999994</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1590.397599999994</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>190.3975999999941</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>190.3975999999941</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-309.6024000000059</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>22.88079999999411</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2.11920000000589</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>247.8807999999941</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1522.988700000006</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1498.323300000006</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2340.743300000006</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3130.482800000006</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1497.716800000006</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1886.203000000006</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-19218.13840000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-18718.13840000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-18718.13840000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-18562.05090000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-18575.37090000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-18586.49090000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-21745.60910000001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-24436.70210000001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-31688.11380000002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-30835.12450000002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-36801.84050000002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-36140.84050000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-38289.39790000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-43881.80040000002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4477,11 +4477,17 @@
         <v>-110087.8334</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>225</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4516,17 @@
         <v>-94298.16740000002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>226</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4559,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4596,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4633,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4670,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4707,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4744,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4781,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4818,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +4855,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +4892,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +4929,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +4966,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5003,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5040,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5077,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5114,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5151,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5188,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5225,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5258,17 @@
         <v>-101640.3231</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>230</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5301,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5338,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5375,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5412,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5449,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,15 +5482,15 @@
         <v>-129302.9828</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>229</v>
-      </c>
-      <c r="J151" t="n">
-        <v>229</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,17 +5519,13 @@
         <v>-129302.9828</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>229</v>
-      </c>
-      <c r="J152" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -5446,17 +5556,13 @@
         <v>-129302.9828</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>229</v>
-      </c>
-      <c r="J153" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5487,15 +5593,15 @@
         <v>-129302.9828</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>229</v>
-      </c>
-      <c r="J154" t="n">
-        <v>229</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5524,17 +5630,13 @@
         <v>-129302.9828</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>229</v>
-      </c>
-      <c r="J155" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
@@ -5565,17 +5667,13 @@
         <v>-129302.9828</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>229</v>
-      </c>
-      <c r="J156" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5606,17 +5704,13 @@
         <v>-127318.8082</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>229</v>
-      </c>
-      <c r="J157" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5647,14 +5741,10 @@
         <v>-127568.8082</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>231</v>
-      </c>
-      <c r="J158" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,14 +5778,10 @@
         <v>-127318.8082</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>230</v>
-      </c>
-      <c r="J159" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5729,14 +5815,10 @@
         <v>-128322.4047</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>231</v>
-      </c>
-      <c r="J160" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5770,14 +5852,10 @@
         <v>-128312.4047</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>230</v>
-      </c>
-      <c r="J161" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5811,14 +5889,10 @@
         <v>-128497.3615</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>232</v>
-      </c>
-      <c r="J162" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5857,9 +5931,7 @@
       <c r="I163" t="n">
         <v>229</v>
       </c>
-      <c r="J163" t="n">
-        <v>229</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5898,9 +5970,7 @@
       <c r="I164" t="n">
         <v>228</v>
       </c>
-      <c r="J164" t="n">
-        <v>229</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5939,9 +6009,7 @@
       <c r="I165" t="n">
         <v>231</v>
       </c>
-      <c r="J165" t="n">
-        <v>229</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5975,14 +6043,10 @@
         <v>-117348.4537</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>232</v>
-      </c>
-      <c r="J166" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6016,14 +6080,10 @@
         <v>-121180.0388</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>235</v>
-      </c>
-      <c r="J167" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6062,9 +6122,7 @@
       <c r="I168" t="n">
         <v>230</v>
       </c>
-      <c r="J168" t="n">
-        <v>229</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6103,9 +6161,7 @@
       <c r="I169" t="n">
         <v>230</v>
       </c>
-      <c r="J169" t="n">
-        <v>229</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6139,12 +6195,12 @@
         <v>-121180.0388</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>229</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>230</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6178,12 +6234,12 @@
         <v>-122068.5418</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>229</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>230</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6217,12 +6273,12 @@
         <v>-122068.5418</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
         <v>229</v>
       </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6256,12 +6312,12 @@
         <v>-116534.5418</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
         <v>229</v>
       </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6295,12 +6351,12 @@
         <v>-116284.5418</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>229</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>233</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6334,12 +6390,12 @@
         <v>-116432.5008</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>229</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>234</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6373,12 +6429,12 @@
         <v>-113775.5008</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>229</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>231</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6417,9 +6473,7 @@
       <c r="I177" t="n">
         <v>234</v>
       </c>
-      <c r="J177" t="n">
-        <v>229</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6453,12 +6507,12 @@
         <v>-108275.5008</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>229</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>234</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6497,9 +6551,7 @@
       <c r="I179" t="n">
         <v>235</v>
       </c>
-      <c r="J179" t="n">
-        <v>229</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6533,12 +6585,12 @@
         <v>-95632.50080000001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>229</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>237</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6577,9 +6629,7 @@
       <c r="I181" t="n">
         <v>239</v>
       </c>
-      <c r="J181" t="n">
-        <v>229</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6613,20 +6663,16 @@
         <v>-95632.50080000001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>229</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
@@ -6652,17 +6698,15 @@
         <v>-92259.50080000001</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
+        <v>2</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
         <v>239</v>
       </c>
-      <c r="J183" t="n">
-        <v>229</v>
-      </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -6693,11 +6737,11 @@
         <v>-87971.50080000001</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6732,13 +6776,11 @@
         <v>-88233.7608</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>241</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6773,11 +6815,11 @@
         <v>-88533.7608</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6812,11 +6854,13 @@
         <v>-88796.0203</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>233</v>
+      </c>
       <c r="J187" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6851,11 +6895,13 @@
         <v>-89868.9219</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>232</v>
+      </c>
       <c r="J188" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6890,11 +6936,13 @@
         <v>-89868.9219</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>231</v>
+      </c>
       <c r="J189" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6935,7 +6983,7 @@
         <v>231</v>
       </c>
       <c r="J190" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6976,7 +7024,7 @@
         <v>231</v>
       </c>
       <c r="J191" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7017,7 +7065,7 @@
         <v>231</v>
       </c>
       <c r="J192" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7030,6 +7078,6 @@
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest ABT.xlsx
+++ b/BackTest/2019-11-14 BackTest ABT.xlsx
@@ -451,7 +451,7 @@
         <v>6442.007099999994</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5753.547399999994</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5396.332099999994</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1593.019599999994</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-17842.13650000002</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-18738.02630000002</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-19218.13840000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-18718.13840000001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-18718.13840000001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-18562.05090000001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-18575.37090000001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-18588.69090000001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-18586.49090000001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-21745.60910000001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-24436.70210000001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-31688.11380000002</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-30835.12450000002</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-36801.84050000002</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-36140.84050000002</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-38789.39790000002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-38289.39790000002</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-43881.80040000002</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4477,1696 +4477,1508 @@
         <v>-110087.8334</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>226</v>
+      </c>
+      <c r="C125" t="n">
+        <v>229</v>
+      </c>
+      <c r="D125" t="n">
+        <v>230</v>
+      </c>
+      <c r="E125" t="n">
+        <v>226</v>
+      </c>
+      <c r="F125" t="n">
+        <v>15789.666</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-94298.16740000002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>230</v>
+      </c>
+      <c r="C126" t="n">
+        <v>230</v>
+      </c>
+      <c r="D126" t="n">
+        <v>230</v>
+      </c>
+      <c r="E126" t="n">
+        <v>230</v>
+      </c>
+      <c r="F126" t="n">
+        <v>334.4779</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-93963.68950000002</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>228</v>
+      </c>
+      <c r="C127" t="n">
+        <v>228</v>
+      </c>
+      <c r="D127" t="n">
+        <v>228</v>
+      </c>
+      <c r="E127" t="n">
+        <v>228</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3408.1056</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-97371.79510000002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>231</v>
+      </c>
+      <c r="C128" t="n">
+        <v>230</v>
+      </c>
+      <c r="D128" t="n">
+        <v>231</v>
+      </c>
+      <c r="E128" t="n">
+        <v>230</v>
+      </c>
+      <c r="F128" t="n">
+        <v>503.4006</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-96868.39450000002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>230</v>
+      </c>
+      <c r="C129" t="n">
+        <v>230</v>
+      </c>
+      <c r="D129" t="n">
+        <v>230</v>
+      </c>
+      <c r="E129" t="n">
+        <v>230</v>
+      </c>
+      <c r="F129" t="n">
+        <v>117.8512</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-96868.39450000002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>230</v>
+      </c>
+      <c r="C130" t="n">
+        <v>230</v>
+      </c>
+      <c r="D130" t="n">
+        <v>230</v>
+      </c>
+      <c r="E130" t="n">
+        <v>230</v>
+      </c>
+      <c r="F130" t="n">
+        <v>885.22</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-96868.39450000002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>230</v>
+      </c>
+      <c r="C131" t="n">
+        <v>234</v>
+      </c>
+      <c r="D131" t="n">
+        <v>234</v>
+      </c>
+      <c r="E131" t="n">
+        <v>230</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-95618.39450000002</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>234</v>
+      </c>
+      <c r="C132" t="n">
+        <v>235</v>
+      </c>
+      <c r="D132" t="n">
+        <v>235</v>
+      </c>
+      <c r="E132" t="n">
+        <v>234</v>
+      </c>
+      <c r="F132" t="n">
+        <v>800</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-94818.39450000002</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>234</v>
+      </c>
+      <c r="C133" t="n">
+        <v>234</v>
+      </c>
+      <c r="D133" t="n">
+        <v>234</v>
+      </c>
+      <c r="E133" t="n">
+        <v>234</v>
+      </c>
+      <c r="F133" t="n">
+        <v>31.7737</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-94850.16820000003</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>234</v>
+      </c>
+      <c r="C134" t="n">
+        <v>228</v>
+      </c>
+      <c r="D134" t="n">
+        <v>234</v>
+      </c>
+      <c r="E134" t="n">
+        <v>228</v>
+      </c>
+      <c r="F134" t="n">
+        <v>31.7737</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-94881.94190000003</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>233</v>
+      </c>
+      <c r="C135" t="n">
+        <v>232</v>
+      </c>
+      <c r="D135" t="n">
+        <v>233</v>
+      </c>
+      <c r="E135" t="n">
+        <v>232</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1904.9355</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-92977.00640000003</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>231</v>
+      </c>
+      <c r="C136" t="n">
+        <v>231</v>
+      </c>
+      <c r="D136" t="n">
+        <v>231</v>
+      </c>
+      <c r="E136" t="n">
+        <v>231</v>
+      </c>
+      <c r="F136" t="n">
+        <v>145.5369</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-93122.54330000003</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>232</v>
+      </c>
+      <c r="C137" t="n">
+        <v>230</v>
+      </c>
+      <c r="D137" t="n">
+        <v>232</v>
+      </c>
+      <c r="E137" t="n">
+        <v>230</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3664.7525</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-96787.29580000004</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>230</v>
+      </c>
+      <c r="C138" t="n">
+        <v>230</v>
+      </c>
+      <c r="D138" t="n">
+        <v>230</v>
+      </c>
+      <c r="E138" t="n">
+        <v>230</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5545.805</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-96787.29580000004</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>229</v>
+      </c>
+      <c r="C139" t="n">
+        <v>234</v>
+      </c>
+      <c r="D139" t="n">
+        <v>234</v>
+      </c>
+      <c r="E139" t="n">
+        <v>229</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-93537.29580000004</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>230</v>
+      </c>
+      <c r="C140" t="n">
+        <v>230</v>
+      </c>
+      <c r="D140" t="n">
+        <v>230</v>
+      </c>
+      <c r="E140" t="n">
+        <v>230</v>
+      </c>
+      <c r="F140" t="n">
+        <v>7814.7038</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-101351.9996</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>231</v>
+      </c>
+      <c r="C141" t="n">
+        <v>230</v>
+      </c>
+      <c r="D141" t="n">
+        <v>231</v>
+      </c>
+      <c r="E141" t="n">
+        <v>230</v>
+      </c>
+      <c r="F141" t="n">
+        <v>330.7748</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-101351.9996</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>230</v>
+      </c>
+      <c r="C142" t="n">
+        <v>231</v>
+      </c>
+      <c r="D142" t="n">
+        <v>231</v>
+      </c>
+      <c r="E142" t="n">
+        <v>230</v>
+      </c>
+      <c r="F142" t="n">
+        <v>727.285</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-100624.7146</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>230</v>
+      </c>
+      <c r="C143" t="n">
+        <v>231</v>
+      </c>
+      <c r="D143" t="n">
+        <v>231</v>
+      </c>
+      <c r="E143" t="n">
+        <v>230</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1342.4368</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-100624.7146</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>230</v>
+      </c>
+      <c r="C144" t="n">
+        <v>230</v>
+      </c>
+      <c r="D144" t="n">
+        <v>230</v>
+      </c>
+      <c r="E144" t="n">
+        <v>230</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1020.0593</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-101644.7739</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>232</v>
+      </c>
+      <c r="C145" t="n">
+        <v>232</v>
+      </c>
+      <c r="D145" t="n">
+        <v>232</v>
+      </c>
+      <c r="E145" t="n">
+        <v>232</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4.4508</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-101640.3231</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>228</v>
+      </c>
+      <c r="C146" t="n">
+        <v>217</v>
+      </c>
+      <c r="D146" t="n">
+        <v>228</v>
+      </c>
+      <c r="E146" t="n">
+        <v>217</v>
+      </c>
+      <c r="F146" t="n">
+        <v>36547.3698</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-138187.6929</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>229</v>
+      </c>
+      <c r="C147" t="n">
+        <v>229</v>
+      </c>
+      <c r="D147" t="n">
+        <v>229</v>
+      </c>
+      <c r="E147" t="n">
+        <v>227</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2120</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-136067.6929</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>228</v>
+      </c>
+      <c r="C148" t="n">
+        <v>231</v>
+      </c>
+      <c r="D148" t="n">
+        <v>231</v>
+      </c>
+      <c r="E148" t="n">
+        <v>228</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8021.0461</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-128046.6468</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>230</v>
+      </c>
+      <c r="C149" t="n">
+        <v>229</v>
+      </c>
+      <c r="D149" t="n">
+        <v>230</v>
+      </c>
+      <c r="E149" t="n">
+        <v>229</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1256.336</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-129302.9828</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>229</v>
+      </c>
+      <c r="C150" t="n">
+        <v>229</v>
+      </c>
+      <c r="D150" t="n">
+        <v>229</v>
+      </c>
+      <c r="E150" t="n">
+        <v>229</v>
+      </c>
+      <c r="F150" t="n">
+        <v>28.9227</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-129302.9828</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>229</v>
+      </c>
+      <c r="C151" t="n">
+        <v>229</v>
+      </c>
+      <c r="D151" t="n">
+        <v>229</v>
+      </c>
+      <c r="E151" t="n">
+        <v>229</v>
+      </c>
+      <c r="F151" t="n">
+        <v>155.4724</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-129302.9828</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>229</v>
+      </c>
+      <c r="C152" t="n">
+        <v>229</v>
+      </c>
+      <c r="D152" t="n">
+        <v>229</v>
+      </c>
+      <c r="E152" t="n">
+        <v>229</v>
+      </c>
+      <c r="F152" t="n">
+        <v>500</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-129302.9828</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>229</v>
+      </c>
+      <c r="C153" t="n">
+        <v>229</v>
+      </c>
+      <c r="D153" t="n">
+        <v>229</v>
+      </c>
+      <c r="E153" t="n">
+        <v>229</v>
+      </c>
+      <c r="F153" t="n">
+        <v>603.3323</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-129302.9828</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>229</v>
+      </c>
+      <c r="C154" t="n">
+        <v>229</v>
+      </c>
+      <c r="D154" t="n">
+        <v>229</v>
+      </c>
+      <c r="E154" t="n">
+        <v>229</v>
+      </c>
+      <c r="F154" t="n">
+        <v>741.1953</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-129302.9828</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>229</v>
+      </c>
+      <c r="C155" t="n">
+        <v>229</v>
+      </c>
+      <c r="D155" t="n">
+        <v>229</v>
+      </c>
+      <c r="E155" t="n">
+        <v>229</v>
+      </c>
+      <c r="F155" t="n">
+        <v>500</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-129302.9828</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>229</v>
+      </c>
+      <c r="C156" t="n">
+        <v>229</v>
+      </c>
+      <c r="D156" t="n">
+        <v>229</v>
+      </c>
+      <c r="E156" t="n">
+        <v>229</v>
+      </c>
+      <c r="F156" t="n">
+        <v>202.2803</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-129302.9828</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>229</v>
+      </c>
+      <c r="C157" t="n">
+        <v>231</v>
+      </c>
+      <c r="D157" t="n">
+        <v>231</v>
+      </c>
+      <c r="E157" t="n">
+        <v>229</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1984.1746</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-127318.8082</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>230</v>
+      </c>
+      <c r="C158" t="n">
+        <v>230</v>
+      </c>
+      <c r="D158" t="n">
+        <v>230</v>
+      </c>
+      <c r="E158" t="n">
+        <v>230</v>
+      </c>
+      <c r="F158" t="n">
+        <v>250</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-127568.8082</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>230</v>
+      </c>
+      <c r="C159" t="n">
+        <v>231</v>
+      </c>
+      <c r="D159" t="n">
+        <v>231</v>
+      </c>
+      <c r="E159" t="n">
+        <v>230</v>
+      </c>
+      <c r="F159" t="n">
+        <v>250</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-127318.8082</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>230</v>
+      </c>
+      <c r="C160" t="n">
+        <v>230</v>
+      </c>
+      <c r="D160" t="n">
+        <v>230</v>
+      </c>
+      <c r="E160" t="n">
+        <v>230</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1003.5965</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-128322.4047</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>232</v>
+      </c>
+      <c r="C161" t="n">
+        <v>232</v>
+      </c>
+      <c r="D161" t="n">
+        <v>232</v>
+      </c>
+      <c r="E161" t="n">
+        <v>232</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-128312.4047</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>229</v>
+      </c>
+      <c r="C162" t="n">
+        <v>229</v>
+      </c>
+      <c r="D162" t="n">
+        <v>229</v>
+      </c>
+      <c r="E162" t="n">
+        <v>229</v>
+      </c>
+      <c r="F162" t="n">
+        <v>184.9568</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-128497.3615</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>228</v>
+      </c>
+      <c r="C163" t="n">
+        <v>228</v>
+      </c>
+      <c r="D163" t="n">
+        <v>228</v>
+      </c>
+      <c r="E163" t="n">
+        <v>228</v>
+      </c>
+      <c r="F163" t="n">
+        <v>127.0922</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-128624.4537</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>229</v>
+      </c>
+      <c r="C164" t="n">
+        <v>231</v>
+      </c>
+      <c r="D164" t="n">
+        <v>231</v>
+      </c>
+      <c r="E164" t="n">
+        <v>229</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1825</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-126799.4537</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>231</v>
+      </c>
+      <c r="C165" t="n">
+        <v>232</v>
+      </c>
+      <c r="D165" t="n">
+        <v>232</v>
+      </c>
+      <c r="E165" t="n">
+        <v>231</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-124299.4537</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>232</v>
+      </c>
+      <c r="C166" t="n">
+        <v>235</v>
+      </c>
+      <c r="D166" t="n">
+        <v>235</v>
+      </c>
+      <c r="E166" t="n">
+        <v>232</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6951</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-117348.4537</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>230</v>
+      </c>
+      <c r="C167" t="n">
+        <v>230</v>
+      </c>
+      <c r="D167" t="n">
+        <v>230</v>
+      </c>
+      <c r="E167" t="n">
+        <v>230</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3831.5851</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-121180.0388</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>230</v>
+      </c>
+      <c r="C168" t="n">
+        <v>230</v>
+      </c>
+      <c r="D168" t="n">
+        <v>230</v>
+      </c>
+      <c r="E168" t="n">
+        <v>230</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-121180.0388</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>230</v>
+      </c>
+      <c r="J168" t="n">
+        <v>230</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>230</v>
+      </c>
+      <c r="C169" t="n">
+        <v>230</v>
+      </c>
+      <c r="D169" t="n">
+        <v>230</v>
+      </c>
+      <c r="E169" t="n">
+        <v>229</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5626.4452</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-121180.0388</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>230</v>
+      </c>
+      <c r="J169" t="n">
+        <v>230</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>226</v>
-      </c>
-      <c r="C125" t="n">
-        <v>229</v>
-      </c>
-      <c r="D125" t="n">
-        <v>230</v>
-      </c>
-      <c r="E125" t="n">
-        <v>226</v>
-      </c>
-      <c r="F125" t="n">
-        <v>15789.666</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-94298.16740000002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>226</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>230</v>
-      </c>
-      <c r="C126" t="n">
-        <v>230</v>
-      </c>
-      <c r="D126" t="n">
-        <v>230</v>
-      </c>
-      <c r="E126" t="n">
-        <v>230</v>
-      </c>
-      <c r="F126" t="n">
-        <v>334.4779</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-93963.68950000002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>228</v>
-      </c>
-      <c r="C127" t="n">
-        <v>228</v>
-      </c>
-      <c r="D127" t="n">
-        <v>228</v>
-      </c>
-      <c r="E127" t="n">
-        <v>228</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3408.1056</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-97371.79510000002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>231</v>
-      </c>
-      <c r="C128" t="n">
-        <v>230</v>
-      </c>
-      <c r="D128" t="n">
-        <v>231</v>
-      </c>
-      <c r="E128" t="n">
-        <v>230</v>
-      </c>
-      <c r="F128" t="n">
-        <v>503.4006</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-96868.39450000002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>230</v>
-      </c>
-      <c r="C129" t="n">
-        <v>230</v>
-      </c>
-      <c r="D129" t="n">
-        <v>230</v>
-      </c>
-      <c r="E129" t="n">
-        <v>230</v>
-      </c>
-      <c r="F129" t="n">
-        <v>117.8512</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-96868.39450000002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>230</v>
-      </c>
-      <c r="C130" t="n">
-        <v>230</v>
-      </c>
-      <c r="D130" t="n">
-        <v>230</v>
-      </c>
-      <c r="E130" t="n">
-        <v>230</v>
-      </c>
-      <c r="F130" t="n">
-        <v>885.22</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-96868.39450000002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>230</v>
-      </c>
-      <c r="C131" t="n">
-        <v>234</v>
-      </c>
-      <c r="D131" t="n">
-        <v>234</v>
-      </c>
-      <c r="E131" t="n">
-        <v>230</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-95618.39450000002</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>234</v>
-      </c>
-      <c r="C132" t="n">
-        <v>235</v>
-      </c>
-      <c r="D132" t="n">
-        <v>235</v>
-      </c>
-      <c r="E132" t="n">
-        <v>234</v>
-      </c>
-      <c r="F132" t="n">
-        <v>800</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-94818.39450000002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>234</v>
-      </c>
-      <c r="C133" t="n">
-        <v>234</v>
-      </c>
-      <c r="D133" t="n">
-        <v>234</v>
-      </c>
-      <c r="E133" t="n">
-        <v>234</v>
-      </c>
-      <c r="F133" t="n">
-        <v>31.7737</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-94850.16820000003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>234</v>
-      </c>
-      <c r="C134" t="n">
-        <v>228</v>
-      </c>
-      <c r="D134" t="n">
-        <v>234</v>
-      </c>
-      <c r="E134" t="n">
-        <v>228</v>
-      </c>
-      <c r="F134" t="n">
-        <v>31.7737</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-94881.94190000003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>233</v>
-      </c>
-      <c r="C135" t="n">
-        <v>232</v>
-      </c>
-      <c r="D135" t="n">
-        <v>233</v>
-      </c>
-      <c r="E135" t="n">
-        <v>232</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1904.9355</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-92977.00640000003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>231</v>
-      </c>
-      <c r="C136" t="n">
-        <v>231</v>
-      </c>
-      <c r="D136" t="n">
-        <v>231</v>
-      </c>
-      <c r="E136" t="n">
-        <v>231</v>
-      </c>
-      <c r="F136" t="n">
-        <v>145.5369</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-93122.54330000003</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>232</v>
-      </c>
-      <c r="C137" t="n">
-        <v>230</v>
-      </c>
-      <c r="D137" t="n">
-        <v>232</v>
-      </c>
-      <c r="E137" t="n">
-        <v>230</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3664.7525</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-96787.29580000004</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>230</v>
-      </c>
-      <c r="C138" t="n">
-        <v>230</v>
-      </c>
-      <c r="D138" t="n">
-        <v>230</v>
-      </c>
-      <c r="E138" t="n">
-        <v>230</v>
-      </c>
-      <c r="F138" t="n">
-        <v>5545.805</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-96787.29580000004</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>229</v>
-      </c>
-      <c r="C139" t="n">
-        <v>234</v>
-      </c>
-      <c r="D139" t="n">
-        <v>234</v>
-      </c>
-      <c r="E139" t="n">
-        <v>229</v>
-      </c>
-      <c r="F139" t="n">
-        <v>3250</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-93537.29580000004</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>230</v>
-      </c>
-      <c r="C140" t="n">
-        <v>230</v>
-      </c>
-      <c r="D140" t="n">
-        <v>230</v>
-      </c>
-      <c r="E140" t="n">
-        <v>230</v>
-      </c>
-      <c r="F140" t="n">
-        <v>7814.7038</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-101351.9996</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>231</v>
-      </c>
-      <c r="C141" t="n">
-        <v>230</v>
-      </c>
-      <c r="D141" t="n">
-        <v>231</v>
-      </c>
-      <c r="E141" t="n">
-        <v>230</v>
-      </c>
-      <c r="F141" t="n">
-        <v>330.7748</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-101351.9996</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>230</v>
-      </c>
-      <c r="C142" t="n">
-        <v>231</v>
-      </c>
-      <c r="D142" t="n">
-        <v>231</v>
-      </c>
-      <c r="E142" t="n">
-        <v>230</v>
-      </c>
-      <c r="F142" t="n">
-        <v>727.285</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-100624.7146</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>230</v>
-      </c>
-      <c r="C143" t="n">
-        <v>231</v>
-      </c>
-      <c r="D143" t="n">
-        <v>231</v>
-      </c>
-      <c r="E143" t="n">
-        <v>230</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1342.4368</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-100624.7146</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>230</v>
-      </c>
-      <c r="C144" t="n">
-        <v>230</v>
-      </c>
-      <c r="D144" t="n">
-        <v>230</v>
-      </c>
-      <c r="E144" t="n">
-        <v>230</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1020.0593</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-101644.7739</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>232</v>
-      </c>
-      <c r="C145" t="n">
-        <v>232</v>
-      </c>
-      <c r="D145" t="n">
-        <v>232</v>
-      </c>
-      <c r="E145" t="n">
-        <v>232</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4.4508</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-101640.3231</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>230</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>228</v>
-      </c>
-      <c r="C146" t="n">
-        <v>217</v>
-      </c>
-      <c r="D146" t="n">
-        <v>228</v>
-      </c>
-      <c r="E146" t="n">
-        <v>217</v>
-      </c>
-      <c r="F146" t="n">
-        <v>36547.3698</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-138187.6929</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>229</v>
-      </c>
-      <c r="C147" t="n">
-        <v>229</v>
-      </c>
-      <c r="D147" t="n">
-        <v>229</v>
-      </c>
-      <c r="E147" t="n">
-        <v>227</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2120</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-136067.6929</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>228</v>
-      </c>
-      <c r="C148" t="n">
-        <v>231</v>
-      </c>
-      <c r="D148" t="n">
-        <v>231</v>
-      </c>
-      <c r="E148" t="n">
-        <v>228</v>
-      </c>
-      <c r="F148" t="n">
-        <v>8021.0461</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-128046.6468</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>230</v>
-      </c>
-      <c r="C149" t="n">
-        <v>229</v>
-      </c>
-      <c r="D149" t="n">
-        <v>230</v>
-      </c>
-      <c r="E149" t="n">
-        <v>229</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1256.336</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>229</v>
-      </c>
-      <c r="C150" t="n">
-        <v>229</v>
-      </c>
-      <c r="D150" t="n">
-        <v>229</v>
-      </c>
-      <c r="E150" t="n">
-        <v>229</v>
-      </c>
-      <c r="F150" t="n">
-        <v>28.9227</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>229</v>
-      </c>
-      <c r="C151" t="n">
-        <v>229</v>
-      </c>
-      <c r="D151" t="n">
-        <v>229</v>
-      </c>
-      <c r="E151" t="n">
-        <v>229</v>
-      </c>
-      <c r="F151" t="n">
-        <v>155.4724</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>229</v>
-      </c>
-      <c r="C152" t="n">
-        <v>229</v>
-      </c>
-      <c r="D152" t="n">
-        <v>229</v>
-      </c>
-      <c r="E152" t="n">
-        <v>229</v>
-      </c>
-      <c r="F152" t="n">
-        <v>500</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>229</v>
-      </c>
-      <c r="C153" t="n">
-        <v>229</v>
-      </c>
-      <c r="D153" t="n">
-        <v>229</v>
-      </c>
-      <c r="E153" t="n">
-        <v>229</v>
-      </c>
-      <c r="F153" t="n">
-        <v>603.3323</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>229</v>
-      </c>
-      <c r="C154" t="n">
-        <v>229</v>
-      </c>
-      <c r="D154" t="n">
-        <v>229</v>
-      </c>
-      <c r="E154" t="n">
-        <v>229</v>
-      </c>
-      <c r="F154" t="n">
-        <v>741.1953</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>229</v>
-      </c>
-      <c r="C155" t="n">
-        <v>229</v>
-      </c>
-      <c r="D155" t="n">
-        <v>229</v>
-      </c>
-      <c r="E155" t="n">
-        <v>229</v>
-      </c>
-      <c r="F155" t="n">
-        <v>500</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>229</v>
-      </c>
-      <c r="C156" t="n">
-        <v>229</v>
-      </c>
-      <c r="D156" t="n">
-        <v>229</v>
-      </c>
-      <c r="E156" t="n">
-        <v>229</v>
-      </c>
-      <c r="F156" t="n">
-        <v>202.2803</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>229</v>
-      </c>
-      <c r="C157" t="n">
-        <v>231</v>
-      </c>
-      <c r="D157" t="n">
-        <v>231</v>
-      </c>
-      <c r="E157" t="n">
-        <v>229</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1984.1746</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-127318.8082</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>230</v>
-      </c>
-      <c r="C158" t="n">
-        <v>230</v>
-      </c>
-      <c r="D158" t="n">
-        <v>230</v>
-      </c>
-      <c r="E158" t="n">
-        <v>230</v>
-      </c>
-      <c r="F158" t="n">
-        <v>250</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-127568.8082</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>230</v>
-      </c>
-      <c r="C159" t="n">
-        <v>231</v>
-      </c>
-      <c r="D159" t="n">
-        <v>231</v>
-      </c>
-      <c r="E159" t="n">
-        <v>230</v>
-      </c>
-      <c r="F159" t="n">
-        <v>250</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-127318.8082</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>230</v>
-      </c>
-      <c r="C160" t="n">
-        <v>230</v>
-      </c>
-      <c r="D160" t="n">
-        <v>230</v>
-      </c>
-      <c r="E160" t="n">
-        <v>230</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1003.5965</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-128322.4047</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>232</v>
-      </c>
-      <c r="C161" t="n">
-        <v>232</v>
-      </c>
-      <c r="D161" t="n">
-        <v>232</v>
-      </c>
-      <c r="E161" t="n">
-        <v>232</v>
-      </c>
-      <c r="F161" t="n">
-        <v>10</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-128312.4047</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>229</v>
-      </c>
-      <c r="C162" t="n">
-        <v>229</v>
-      </c>
-      <c r="D162" t="n">
-        <v>229</v>
-      </c>
-      <c r="E162" t="n">
-        <v>229</v>
-      </c>
-      <c r="F162" t="n">
-        <v>184.9568</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-128497.3615</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>228</v>
-      </c>
-      <c r="C163" t="n">
-        <v>228</v>
-      </c>
-      <c r="D163" t="n">
-        <v>228</v>
-      </c>
-      <c r="E163" t="n">
-        <v>228</v>
-      </c>
-      <c r="F163" t="n">
-        <v>127.0922</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-128624.4537</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>229</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>229</v>
-      </c>
-      <c r="C164" t="n">
-        <v>231</v>
-      </c>
-      <c r="D164" t="n">
-        <v>231</v>
-      </c>
-      <c r="E164" t="n">
-        <v>229</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1825</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-126799.4537</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>228</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>231</v>
-      </c>
-      <c r="C165" t="n">
-        <v>232</v>
-      </c>
-      <c r="D165" t="n">
-        <v>232</v>
-      </c>
-      <c r="E165" t="n">
-        <v>231</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-124299.4537</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>231</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>232</v>
-      </c>
-      <c r="C166" t="n">
-        <v>235</v>
-      </c>
-      <c r="D166" t="n">
-        <v>235</v>
-      </c>
-      <c r="E166" t="n">
-        <v>232</v>
-      </c>
-      <c r="F166" t="n">
-        <v>6951</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-117348.4537</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>230</v>
-      </c>
-      <c r="C167" t="n">
-        <v>230</v>
-      </c>
-      <c r="D167" t="n">
-        <v>230</v>
-      </c>
-      <c r="E167" t="n">
-        <v>230</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3831.5851</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-121180.0388</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>230</v>
-      </c>
-      <c r="C168" t="n">
-        <v>230</v>
-      </c>
-      <c r="D168" t="n">
-        <v>230</v>
-      </c>
-      <c r="E168" t="n">
-        <v>230</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-121180.0388</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>230</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>230</v>
-      </c>
-      <c r="C169" t="n">
-        <v>230</v>
-      </c>
-      <c r="D169" t="n">
-        <v>230</v>
-      </c>
-      <c r="E169" t="n">
-        <v>229</v>
-      </c>
-      <c r="F169" t="n">
-        <v>5626.4452</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-121180.0388</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>230</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6200,7 +6012,9 @@
       <c r="I170" t="n">
         <v>230</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>230</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6239,7 +6053,9 @@
       <c r="I171" t="n">
         <v>230</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>230</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6278,7 +6094,9 @@
       <c r="I172" t="n">
         <v>229</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>230</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6317,7 +6135,9 @@
       <c r="I173" t="n">
         <v>229</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>230</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6356,7 +6176,9 @@
       <c r="I174" t="n">
         <v>233</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>230</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6395,7 +6217,9 @@
       <c r="I175" t="n">
         <v>234</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>230</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6434,7 +6258,9 @@
       <c r="I176" t="n">
         <v>231</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>230</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6473,7 +6299,9 @@
       <c r="I177" t="n">
         <v>234</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>230</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6512,7 +6340,9 @@
       <c r="I178" t="n">
         <v>234</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>230</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6551,7 +6381,9 @@
       <c r="I179" t="n">
         <v>235</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>230</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6590,7 +6422,9 @@
       <c r="I180" t="n">
         <v>237</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>230</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6624,12 +6458,12 @@
         <v>-95632.50080000001</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>239</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>230</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6663,16 +6497,20 @@
         <v>-95632.50080000001</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>230</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
       <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
@@ -6698,15 +6536,15 @@
         <v>-92259.50080000001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -6737,11 +6575,11 @@
         <v>-87971.50080000001</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6776,11 +6614,11 @@
         <v>-88233.7608</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6815,11 +6653,11 @@
         <v>-88533.7608</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6854,13 +6692,11 @@
         <v>-88796.0203</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6895,13 +6731,11 @@
         <v>-89868.9219</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6936,13 +6770,11 @@
         <v>-89868.9219</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6977,13 +6809,11 @@
         <v>-89868.9219</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7018,13 +6848,11 @@
         <v>-89868.9219</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7065,7 +6893,7 @@
         <v>231</v>
       </c>
       <c r="J192" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>

--- a/BackTest/2019-11-14 BackTest ABT.xlsx
+++ b/BackTest/2019-11-14 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>77.4559</v>
       </c>
       <c r="G2" t="n">
-        <v>6442.007099999994</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>688.4597</v>
       </c>
       <c r="G3" t="n">
-        <v>5753.547399999994</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>357.2153</v>
       </c>
       <c r="G4" t="n">
-        <v>5396.332099999994</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>942.7847</v>
       </c>
       <c r="G5" t="n">
-        <v>5396.332099999994</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3803.3125</v>
       </c>
       <c r="G6" t="n">
-        <v>1593.019599999994</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>401.3064</v>
       </c>
       <c r="G7" t="n">
-        <v>1593.019599999994</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>77.3733</v>
       </c>
       <c r="G8" t="n">
-        <v>1515.646299999994</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>74.7513</v>
       </c>
       <c r="G9" t="n">
-        <v>1590.397599999994</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1400</v>
       </c>
       <c r="G10" t="n">
-        <v>190.3975999999941</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>124.3764</v>
       </c>
       <c r="G11" t="n">
-        <v>190.3975999999941</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>500</v>
       </c>
       <c r="G12" t="n">
-        <v>-309.6024000000059</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>332.4832</v>
       </c>
       <c r="G13" t="n">
-        <v>22.88079999999411</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.11920000000589</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>250</v>
       </c>
       <c r="G15" t="n">
-        <v>247.8807999999941</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1770.8695</v>
       </c>
       <c r="G16" t="n">
-        <v>-1522.988700000006</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>24.6654</v>
       </c>
       <c r="G17" t="n">
-        <v>-1498.323300000006</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,21 @@
         <v>842.42</v>
       </c>
       <c r="G18" t="n">
-        <v>-2340.743300000006</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +959,21 @@
         <v>789.7395</v>
       </c>
       <c r="G19" t="n">
-        <v>-3130.482800000006</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +995,21 @@
         <v>1632.766</v>
       </c>
       <c r="G20" t="n">
-        <v>-1497.716800000006</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1031,21 @@
         <v>388.4862</v>
       </c>
       <c r="G21" t="n">
-        <v>-1886.203000000006</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1067,21 @@
         <v>4744.7654</v>
       </c>
       <c r="G22" t="n">
-        <v>-6630.968400000006</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1103,19 @@
         <v>274.9156</v>
       </c>
       <c r="G23" t="n">
-        <v>-6356.052800000006</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1137,19 @@
         <v>9406.537200000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-15762.59000000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1171,19 @@
         <v>2500</v>
       </c>
       <c r="G25" t="n">
-        <v>-15762.59000000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1205,19 @@
         <v>250</v>
       </c>
       <c r="G26" t="n">
-        <v>-15762.59000000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1239,19 @@
         <v>3285</v>
       </c>
       <c r="G27" t="n">
-        <v>-19047.59000000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1273,21 @@
         <v>2611.8729</v>
       </c>
       <c r="G28" t="n">
-        <v>-16435.71710000001</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1309,21 @@
         <v>2048.7</v>
       </c>
       <c r="G29" t="n">
-        <v>-18484.41710000001</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1345,19 @@
         <v>1475.91</v>
       </c>
       <c r="G30" t="n">
-        <v>-18484.41710000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1379,19 @@
         <v>2867.5</v>
       </c>
       <c r="G31" t="n">
-        <v>-18484.41710000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1413,19 @@
         <v>630.76</v>
       </c>
       <c r="G32" t="n">
-        <v>-17853.65710000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1447,19 @@
         <v>3675.1005</v>
       </c>
       <c r="G33" t="n">
-        <v>-17853.65710000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1481,19 @@
         <v>31.7458</v>
       </c>
       <c r="G34" t="n">
-        <v>-17821.91130000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1515,19 @@
         <v>2786.2311</v>
       </c>
       <c r="G35" t="n">
-        <v>-15035.68020000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1549,19 @@
         <v>247.5095</v>
       </c>
       <c r="G36" t="n">
-        <v>-15035.68020000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1583,19 @@
         <v>6041.4628</v>
       </c>
       <c r="G37" t="n">
-        <v>-21077.14300000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1617,19 @@
         <v>2.1</v>
       </c>
       <c r="G38" t="n">
-        <v>-21075.04300000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1651,19 @@
         <v>606.5183</v>
       </c>
       <c r="G39" t="n">
-        <v>-20468.52470000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1685,19 @@
         <v>900.9275</v>
       </c>
       <c r="G40" t="n">
-        <v>-19567.59720000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1719,19 @@
         <v>7220.163</v>
       </c>
       <c r="G41" t="n">
-        <v>-12347.43420000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1753,19 @@
         <v>3580.2944</v>
       </c>
       <c r="G42" t="n">
-        <v>-15927.72860000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1787,19 @@
         <v>138</v>
       </c>
       <c r="G43" t="n">
-        <v>-15789.72860000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1821,19 @@
         <v>0.2399</v>
       </c>
       <c r="G44" t="n">
-        <v>-15789.72860000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1855,19 @@
         <v>1313.8347</v>
       </c>
       <c r="G45" t="n">
-        <v>-17103.56330000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1889,19 @@
         <v>1513</v>
       </c>
       <c r="G46" t="n">
-        <v>-18616.56330000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1923,19 @@
         <v>1713</v>
       </c>
       <c r="G47" t="n">
-        <v>-18616.56330000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1957,19 @@
         <v>1409.2726</v>
       </c>
       <c r="G48" t="n">
-        <v>-20025.83590000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1991,19 @@
         <v>2165</v>
       </c>
       <c r="G49" t="n">
-        <v>-17860.83590000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2025,19 @@
         <v>5.3591</v>
       </c>
       <c r="G50" t="n">
-        <v>-17860.83590000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2059,19 @@
         <v>55</v>
       </c>
       <c r="G51" t="n">
-        <v>-17915.83590000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2093,19 @@
         <v>2800</v>
       </c>
       <c r="G52" t="n">
-        <v>-17915.83590000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2127,19 @@
         <v>338.216</v>
       </c>
       <c r="G53" t="n">
-        <v>-17915.83590000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2161,19 @@
         <v>1593.6188</v>
       </c>
       <c r="G54" t="n">
-        <v>-19509.45470000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2195,19 @@
         <v>3150</v>
       </c>
       <c r="G55" t="n">
-        <v>-19509.45470000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2229,19 @@
         <v>5774.9304</v>
       </c>
       <c r="G56" t="n">
-        <v>-19509.45470000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2263,19 @@
         <v>8.986499999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>-19509.45470000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2297,19 @@
         <v>719.1769</v>
       </c>
       <c r="G58" t="n">
-        <v>-18790.27780000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2331,19 @@
         <v>948.1413</v>
       </c>
       <c r="G59" t="n">
-        <v>-17842.13650000002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2365,19 @@
         <v>511.6917</v>
       </c>
       <c r="G60" t="n">
-        <v>-17842.13650000002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2399,19 @@
         <v>8634.5933</v>
       </c>
       <c r="G61" t="n">
-        <v>-17842.13650000002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2433,19 @@
         <v>700.9893</v>
       </c>
       <c r="G62" t="n">
-        <v>-17842.13650000002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2467,19 @@
         <v>1724.4688</v>
       </c>
       <c r="G63" t="n">
-        <v>-17842.13650000002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2501,19 @@
         <v>895.8898</v>
       </c>
       <c r="G64" t="n">
-        <v>-18738.02630000002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2535,19 @@
         <v>121.362</v>
       </c>
       <c r="G65" t="n">
-        <v>-18738.02630000002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2569,19 @@
         <v>3260.9811</v>
       </c>
       <c r="G66" t="n">
-        <v>-18738.02630000002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2603,19 @@
         <v>480.1121</v>
       </c>
       <c r="G67" t="n">
-        <v>-19218.13840000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2637,19 @@
         <v>500</v>
       </c>
       <c r="G68" t="n">
-        <v>-18718.13840000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2671,19 @@
         <v>417.9433</v>
       </c>
       <c r="G69" t="n">
-        <v>-18718.13840000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2705,19 @@
         <v>156.0875</v>
       </c>
       <c r="G70" t="n">
-        <v>-18562.05090000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2739,19 @@
         <v>13.32</v>
       </c>
       <c r="G71" t="n">
-        <v>-18575.37090000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2773,19 @@
         <v>13.32</v>
       </c>
       <c r="G72" t="n">
-        <v>-18588.69090000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2807,19 @@
         <v>255.5242</v>
       </c>
       <c r="G73" t="n">
-        <v>-18588.69090000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2841,19 @@
         <v>89.6139</v>
       </c>
       <c r="G74" t="n">
-        <v>-18588.69090000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2875,19 @@
         <v>2.2</v>
       </c>
       <c r="G75" t="n">
-        <v>-18586.49090000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2909,19 @@
         <v>3159.1182</v>
       </c>
       <c r="G76" t="n">
-        <v>-21745.60910000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2943,19 @@
         <v>2691.093</v>
       </c>
       <c r="G77" t="n">
-        <v>-24436.70210000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2977,19 @@
         <v>774.5759</v>
       </c>
       <c r="G78" t="n">
-        <v>-25211.27800000001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3011,19 @@
         <v>167.7455</v>
       </c>
       <c r="G79" t="n">
-        <v>-25043.53250000001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3045,19 @@
         <v>1400</v>
       </c>
       <c r="G80" t="n">
-        <v>-25043.53250000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3079,19 @@
         <v>8653.4421</v>
       </c>
       <c r="G81" t="n">
-        <v>-33696.97460000002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3113,19 @@
         <v>2500.3092</v>
       </c>
       <c r="G82" t="n">
-        <v>-36197.28380000002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3147,19 @@
         <v>2.2</v>
       </c>
       <c r="G83" t="n">
-        <v>-36195.08380000002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3181,19 @@
         <v>3250</v>
       </c>
       <c r="G84" t="n">
-        <v>-36195.08380000002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3215,19 @@
         <v>1579</v>
       </c>
       <c r="G85" t="n">
-        <v>-34616.08380000002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3249,19 @@
         <v>2000</v>
       </c>
       <c r="G86" t="n">
-        <v>-32616.08380000002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3283,19 @@
         <v>62.03</v>
       </c>
       <c r="G87" t="n">
-        <v>-32678.11380000002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3317,19 @@
         <v>1000</v>
       </c>
       <c r="G88" t="n">
-        <v>-31678.11380000002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3351,19 @@
         <v>342.74</v>
       </c>
       <c r="G89" t="n">
-        <v>-31678.11380000002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3385,19 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>-31688.11380000002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3419,19 @@
         <v>160</v>
       </c>
       <c r="G91" t="n">
-        <v>-31848.11380000002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3453,19 @@
         <v>1012.9893</v>
       </c>
       <c r="G92" t="n">
-        <v>-30835.12450000002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3487,19 @@
         <v>52</v>
       </c>
       <c r="G93" t="n">
-        <v>-30835.12450000002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3521,19 @@
         <v>112</v>
       </c>
       <c r="G94" t="n">
-        <v>-30835.12450000002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3555,19 @@
         <v>5966.716</v>
       </c>
       <c r="G95" t="n">
-        <v>-36801.84050000002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3589,19 @@
         <v>661</v>
       </c>
       <c r="G96" t="n">
-        <v>-36140.84050000002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3623,19 @@
         <v>2648.5574</v>
       </c>
       <c r="G97" t="n">
-        <v>-38789.39790000002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3657,19 @@
         <v>250</v>
       </c>
       <c r="G98" t="n">
-        <v>-38789.39790000002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3691,19 @@
         <v>570</v>
       </c>
       <c r="G99" t="n">
-        <v>-38789.39790000002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3725,19 @@
         <v>500</v>
       </c>
       <c r="G100" t="n">
-        <v>-38289.39790000002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3759,19 @@
         <v>5592.4025</v>
       </c>
       <c r="G101" t="n">
-        <v>-43881.80040000002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3793,19 @@
         <v>4035.2971</v>
       </c>
       <c r="G102" t="n">
-        <v>-47917.09750000002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3827,19 @@
         <v>500</v>
       </c>
       <c r="G103" t="n">
-        <v>-47417.09750000002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3861,19 @@
         <v>750</v>
       </c>
       <c r="G104" t="n">
-        <v>-46667.09750000002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3895,19 @@
         <v>500</v>
       </c>
       <c r="G105" t="n">
-        <v>-46667.09750000002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3929,19 @@
         <v>5047.8908</v>
       </c>
       <c r="G106" t="n">
-        <v>-51714.98830000002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3963,19 @@
         <v>500</v>
       </c>
       <c r="G107" t="n">
-        <v>-51714.98830000002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3997,19 @@
         <v>180.73</v>
       </c>
       <c r="G108" t="n">
-        <v>-51895.71830000002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4031,19 @@
         <v>2124.06</v>
       </c>
       <c r="G109" t="n">
-        <v>-54019.77830000002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4065,19 @@
         <v>168.2354</v>
       </c>
       <c r="G110" t="n">
-        <v>-54019.77830000002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4099,19 @@
         <v>8472.379199999999</v>
       </c>
       <c r="G111" t="n">
-        <v>-62492.15750000002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4133,19 @@
         <v>11335.4655</v>
       </c>
       <c r="G112" t="n">
-        <v>-73827.62300000002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4167,19 @@
         <v>1534.3443</v>
       </c>
       <c r="G113" t="n">
-        <v>-73827.62300000002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4201,19 @@
         <v>1650</v>
       </c>
       <c r="G114" t="n">
-        <v>-73827.62300000002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4235,19 @@
         <v>2739.7902</v>
       </c>
       <c r="G115" t="n">
-        <v>-73827.62300000002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4269,19 @@
         <v>4.6345</v>
       </c>
       <c r="G116" t="n">
-        <v>-73822.98850000002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4303,19 @@
         <v>58.1123</v>
       </c>
       <c r="G117" t="n">
-        <v>-73881.10080000001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4337,19 @@
         <v>1268.59</v>
       </c>
       <c r="G118" t="n">
-        <v>-73881.10080000001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4371,19 @@
         <v>1400</v>
       </c>
       <c r="G119" t="n">
-        <v>-73881.10080000001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4405,19 @@
         <v>6245.9101</v>
       </c>
       <c r="G120" t="n">
-        <v>-80127.01090000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4439,19 @@
         <v>30107.1861</v>
       </c>
       <c r="G121" t="n">
-        <v>-110234.197</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4473,19 @@
         <v>8479.0718</v>
       </c>
       <c r="G122" t="n">
-        <v>-118713.2688</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4507,19 @@
         <v>1831.6752</v>
       </c>
       <c r="G123" t="n">
-        <v>-118713.2688</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4541,21 @@
         <v>8625.4354</v>
       </c>
       <c r="G124" t="n">
-        <v>-110087.8334</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4577,21 @@
         <v>15789.666</v>
       </c>
       <c r="G125" t="n">
-        <v>-94298.16740000002</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4613,21 @@
         <v>334.4779</v>
       </c>
       <c r="G126" t="n">
-        <v>-93963.68950000002</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4649,19 @@
         <v>3408.1056</v>
       </c>
       <c r="G127" t="n">
-        <v>-97371.79510000002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4683,21 @@
         <v>503.4006</v>
       </c>
       <c r="G128" t="n">
-        <v>-96868.39450000002</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4719,19 @@
         <v>117.8512</v>
       </c>
       <c r="G129" t="n">
-        <v>-96868.39450000002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4753,19 @@
         <v>885.22</v>
       </c>
       <c r="G130" t="n">
-        <v>-96868.39450000002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4787,21 @@
         <v>1250</v>
       </c>
       <c r="G131" t="n">
-        <v>-95618.39450000002</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4823,21 @@
         <v>800</v>
       </c>
       <c r="G132" t="n">
-        <v>-94818.39450000002</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4859,19 @@
         <v>31.7737</v>
       </c>
       <c r="G133" t="n">
-        <v>-94850.16820000003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4893,19 @@
         <v>31.7737</v>
       </c>
       <c r="G134" t="n">
-        <v>-94881.94190000003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4927,19 @@
         <v>1904.9355</v>
       </c>
       <c r="G135" t="n">
-        <v>-92977.00640000003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4961,19 @@
         <v>145.5369</v>
       </c>
       <c r="G136" t="n">
-        <v>-93122.54330000003</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4995,19 @@
         <v>3664.7525</v>
       </c>
       <c r="G137" t="n">
-        <v>-96787.29580000004</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5029,19 @@
         <v>5545.805</v>
       </c>
       <c r="G138" t="n">
-        <v>-96787.29580000004</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5063,19 @@
         <v>3250</v>
       </c>
       <c r="G139" t="n">
-        <v>-93537.29580000004</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5097,19 @@
         <v>7814.7038</v>
       </c>
       <c r="G140" t="n">
-        <v>-101351.9996</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5131,19 @@
         <v>330.7748</v>
       </c>
       <c r="G141" t="n">
-        <v>-101351.9996</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5165,19 @@
         <v>727.285</v>
       </c>
       <c r="G142" t="n">
-        <v>-100624.7146</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5199,19 @@
         <v>1342.4368</v>
       </c>
       <c r="G143" t="n">
-        <v>-100624.7146</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5233,19 @@
         <v>1020.0593</v>
       </c>
       <c r="G144" t="n">
-        <v>-101644.7739</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5267,19 @@
         <v>4.4508</v>
       </c>
       <c r="G145" t="n">
-        <v>-101640.3231</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5301,19 @@
         <v>36547.3698</v>
       </c>
       <c r="G146" t="n">
-        <v>-138187.6929</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5335,19 @@
         <v>2120</v>
       </c>
       <c r="G147" t="n">
-        <v>-136067.6929</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5369,21 @@
         <v>8021.0461</v>
       </c>
       <c r="G148" t="n">
-        <v>-128046.6468</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5405,21 @@
         <v>1256.336</v>
       </c>
       <c r="G149" t="n">
-        <v>-129302.9828</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5441,19 @@
         <v>28.9227</v>
       </c>
       <c r="G150" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5475,21 @@
         <v>155.4724</v>
       </c>
       <c r="G151" t="n">
-        <v>-129302.9828</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5511,19 @@
         <v>500</v>
       </c>
       <c r="G152" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5545,19 @@
         <v>603.3323</v>
       </c>
       <c r="G153" t="n">
-        <v>-129302.9828</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5579,21 @@
         <v>741.1953</v>
       </c>
       <c r="G154" t="n">
-        <v>-129302.9828</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5615,21 @@
         <v>500</v>
       </c>
       <c r="G155" t="n">
-        <v>-129302.9828</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5651,21 @@
         <v>202.2803</v>
       </c>
       <c r="G156" t="n">
-        <v>-129302.9828</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5687,21 @@
         <v>1984.1746</v>
       </c>
       <c r="G157" t="n">
-        <v>-127318.8082</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5723,21 @@
         <v>250</v>
       </c>
       <c r="G158" t="n">
-        <v>-127568.8082</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5759,21 @@
         <v>250</v>
       </c>
       <c r="G159" t="n">
-        <v>-127318.8082</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5795,19 @@
         <v>1003.5965</v>
       </c>
       <c r="G160" t="n">
-        <v>-128322.4047</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5829,21 @@
         <v>10</v>
       </c>
       <c r="G161" t="n">
-        <v>-128312.4047</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5865,19 @@
         <v>184.9568</v>
       </c>
       <c r="G162" t="n">
-        <v>-128497.3615</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5899,21 @@
         <v>127.0922</v>
       </c>
       <c r="G163" t="n">
-        <v>-128624.4537</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5935,21 @@
         <v>1825</v>
       </c>
       <c r="G164" t="n">
-        <v>-126799.4537</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5971,21 @@
         <v>2500</v>
       </c>
       <c r="G165" t="n">
-        <v>-124299.4537</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +6007,19 @@
         <v>6951</v>
       </c>
       <c r="G166" t="n">
-        <v>-117348.4537</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +6041,19 @@
         <v>3831.5851</v>
       </c>
       <c r="G167" t="n">
-        <v>-121180.0388</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,22 +6075,19 @@
         <v>1000</v>
       </c>
       <c r="G168" t="n">
-        <v>-121180.0388</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>230</v>
-      </c>
-      <c r="J168" t="n">
-        <v>230</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5963,26 +6109,19 @@
         <v>5626.4452</v>
       </c>
       <c r="G169" t="n">
-        <v>-121180.0388</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>230</v>
-      </c>
-      <c r="J169" t="n">
-        <v>230</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6004,26 +6143,19 @@
         <v>2.7818</v>
       </c>
       <c r="G170" t="n">
-        <v>-121180.0388</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>230</v>
-      </c>
-      <c r="J170" t="n">
-        <v>230</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6045,26 +6177,19 @@
         <v>888.503</v>
       </c>
       <c r="G171" t="n">
-        <v>-122068.5418</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>230</v>
-      </c>
-      <c r="J171" t="n">
-        <v>230</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6086,26 +6211,19 @@
         <v>2400</v>
       </c>
       <c r="G172" t="n">
-        <v>-122068.5418</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>229</v>
-      </c>
-      <c r="J172" t="n">
-        <v>230</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6127,26 +6245,19 @@
         <v>5534</v>
       </c>
       <c r="G173" t="n">
-        <v>-116534.5418</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>229</v>
-      </c>
-      <c r="J173" t="n">
-        <v>230</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6168,26 +6279,19 @@
         <v>250</v>
       </c>
       <c r="G174" t="n">
-        <v>-116284.5418</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>233</v>
-      </c>
-      <c r="J174" t="n">
-        <v>230</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6209,26 +6313,19 @@
         <v>147.959</v>
       </c>
       <c r="G175" t="n">
-        <v>-116432.5008</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>234</v>
-      </c>
-      <c r="J175" t="n">
-        <v>230</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6250,26 +6347,19 @@
         <v>2657</v>
       </c>
       <c r="G176" t="n">
-        <v>-113775.5008</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>231</v>
-      </c>
-      <c r="J176" t="n">
-        <v>230</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6291,26 +6381,19 @@
         <v>1500</v>
       </c>
       <c r="G177" t="n">
-        <v>-113775.5008</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>234</v>
-      </c>
-      <c r="J177" t="n">
-        <v>230</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6332,26 +6415,19 @@
         <v>5500</v>
       </c>
       <c r="G178" t="n">
-        <v>-108275.5008</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>234</v>
-      </c>
-      <c r="J178" t="n">
-        <v>230</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6373,26 +6449,19 @@
         <v>10103</v>
       </c>
       <c r="G179" t="n">
-        <v>-98172.50080000001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>235</v>
-      </c>
-      <c r="J179" t="n">
-        <v>230</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6414,26 +6483,19 @@
         <v>2540</v>
       </c>
       <c r="G180" t="n">
-        <v>-95632.50080000001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>237</v>
-      </c>
-      <c r="J180" t="n">
-        <v>230</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6455,24 +6517,19 @@
         <v>250</v>
       </c>
       <c r="G181" t="n">
-        <v>-95632.50080000001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>230</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6494,24 +6551,19 @@
         <v>250</v>
       </c>
       <c r="G182" t="n">
-        <v>-95632.50080000001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>230</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6533,24 +6585,19 @@
         <v>3373</v>
       </c>
       <c r="G183" t="n">
-        <v>-92259.50080000001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>230</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6572,24 +6619,19 @@
         <v>4288</v>
       </c>
       <c r="G184" t="n">
-        <v>-87971.50080000001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>230</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6611,24 +6653,19 @@
         <v>262.26</v>
       </c>
       <c r="G185" t="n">
-        <v>-88233.7608</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>230</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6650,24 +6687,19 @@
         <v>300</v>
       </c>
       <c r="G186" t="n">
-        <v>-88533.7608</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>230</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6689,24 +6721,19 @@
         <v>262.2595</v>
       </c>
       <c r="G187" t="n">
-        <v>-88796.0203</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>230</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6728,24 +6755,19 @@
         <v>1072.9016</v>
       </c>
       <c r="G188" t="n">
-        <v>-89868.9219</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>230</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6767,24 +6789,21 @@
         <v>2471.073</v>
       </c>
       <c r="G189" t="n">
-        <v>-89868.9219</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>230</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6806,24 +6825,21 @@
         <v>424.8389</v>
       </c>
       <c r="G190" t="n">
-        <v>-89868.9219</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>230</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6845,24 +6861,21 @@
         <v>750</v>
       </c>
       <c r="G191" t="n">
-        <v>-89868.9219</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>230</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6884,26 +6897,19 @@
         <v>862.0689</v>
       </c>
       <c r="G192" t="n">
-        <v>-89006.853</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>231</v>
-      </c>
-      <c r="J192" t="n">
-        <v>230</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
